--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\Thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECBF144-1B01-4D0C-A456-53F8D053F4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE65FBBB-8E2F-4060-A43B-16FA37A1A4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="9" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="14" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Sheet11" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet12" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet13" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Georgia</t>
   </si>
@@ -236,12 +237,30 @@
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>m+1</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +282,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Rage Italic"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="7">
@@ -303,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -585,11 +610,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -676,8 +710,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,25 +735,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1194,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075732FB-7749-402F-AAF5-F378F2F73D43}">
   <dimension ref="B3:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -2349,7 +2384,7 @@
   <dimension ref="C7:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:J15"/>
+      <selection activeCell="C10" sqref="C10:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2368,13 +2403,13 @@
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="62" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="62" t="s">
         <v>60</v>
       </c>
       <c r="J8" s="1"/>
@@ -2402,7 +2437,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="69"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
@@ -2417,10 +2452,10 @@
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="69"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="69"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="6">
         <v>2</v>
       </c>
@@ -2430,7 +2465,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="6"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="69"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
@@ -2443,7 +2478,7 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="69"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
@@ -2456,25 +2491,25 @@
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="69"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
         <v>3</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="69"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="11"/>
@@ -2487,10 +2522,10 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="71"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="1"/>
@@ -2501,7 +2536,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="71"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="1"/>
@@ -2600,7 +2635,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -2702,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="11"/>
       <c r="K12" s="6"/>
     </row>
@@ -2758,6 +2793,143 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E2B15B-BC8E-45EF-98BA-5812B803929B}">
+  <dimension ref="C7:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="D10" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="71"/>
+    </row>
+    <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="71"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="72"/>
+    </row>
+    <row r="12" spans="3:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="3:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="71"/>
+      <c r="D13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+      <c r="D17" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="72"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="71"/>
+    </row>
+    <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="71"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="72"/>
+    </row>
+    <row r="19" spans="3:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="3:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C20" s="71"/>
+      <c r="D20" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D17:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6541,7 +6713,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="62"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -6549,7 +6721,7 @@
     <row r="9" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="62"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
@@ -6583,7 +6755,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="62"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -6591,7 +6763,7 @@
     <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="62"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
@@ -6625,7 +6797,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="62"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -6633,7 +6805,7 @@
     <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="62"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
@@ -6729,7 +6901,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="62"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6739,7 +6911,7 @@
     <row r="9" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="62"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
@@ -6749,32 +6921,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="66" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="65"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="66"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -6782,37 +6954,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="66" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="68"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="68" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="67"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="63"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="64"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -6821,7 +6993,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="62"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -6831,7 +7003,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="62"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="1" t="s">
         <v>41</v>
       </c>
@@ -6869,9 +7041,9 @@
         <v>38</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
@@ -6879,9 +7051,9 @@
     <row r="21" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
@@ -6900,17 +7072,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\Thesis\thesis-tex\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE65FBBB-8E2F-4060-A43B-16FA37A1A4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0342F1BA-C146-48F0-8116-0769719B1AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="14" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="5" activeTab="14" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,13 @@
     <sheet name="Sheet5 (2)" sheetId="11" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet11" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet12" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet13" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>Georgia</t>
   </si>
@@ -184,12 +184,6 @@
     <t>Philadelphia</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Season</t>
-  </si>
-  <si>
     <t>Each number must appear eight times over rows 1,2,8, and 9 and columns 1,2,8, and 9, double counting a number when it appears in both.</t>
   </si>
   <si>
@@ -254,6 +248,54 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -716,10 +758,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -728,19 +777,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,7 +1108,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,459 +1270,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075732FB-7749-402F-AAF5-F378F2F73D43}">
-  <dimension ref="B3:AE20"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-    </row>
-    <row r="4" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6">
-        <v>1</v>
-      </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-    </row>
-    <row r="5" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6">
-        <v>5</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="19"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6">
-        <v>8</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-    </row>
-    <row r="7" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="19"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="6"/>
-    </row>
-    <row r="8" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6">
-        <v>4</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="19"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="12">
-        <v>11</v>
-      </c>
-      <c r="T8" s="20"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="6"/>
-    </row>
-    <row r="9" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="19"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6">
-        <v>4</v>
-      </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="6"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="8">
-        <v>5</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="19"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6">
-        <v>9</v>
-      </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="6"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE10" s="7"/>
-    </row>
-    <row r="11" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6">
-        <v>2</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="19"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="6"/>
-      <c r="AC11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="58"/>
-    </row>
-    <row r="12" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6">
-        <v>3</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="19"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="12">
-        <v>10</v>
-      </c>
-      <c r="T12" s="20"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="6"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="20"/>
-    </row>
-    <row r="13" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="6">
-        <v>6</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="19"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6">
-        <v>2</v>
-      </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="6"/>
-      <c r="AC13" s="58">
-        <v>7</v>
-      </c>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="19"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6">
-        <v>3</v>
-      </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="6"/>
-    </row>
-    <row r="15" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="3">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="8">
-        <v>7</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="19"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6">
-        <v>6</v>
-      </c>
-      <c r="U15" s="7"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-    </row>
-    <row r="16" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="19"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-    </row>
-    <row r="17" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="19"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="12">
-        <v>7</v>
-      </c>
-      <c r="U17" s="20"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-    </row>
-    <row r="18" spans="2:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C071CB8-4A62-48A5-9C91-383608FE5F7C}">
   <dimension ref="A5:R18"/>
   <sheetViews>
@@ -1719,7 +1310,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="26"/>
       <c r="N6" s="48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1736,7 +1327,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="27"/>
       <c r="N7" s="48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1750,7 +1341,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
       <c r="N8" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1764,7 +1355,7 @@
       <c r="I9" s="41"/>
       <c r="J9" s="39"/>
       <c r="N9" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1778,7 +1369,7 @@
       <c r="I10" s="44"/>
       <c r="J10" s="42"/>
       <c r="N10" s="48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1792,7 +1383,7 @@
       <c r="I11" s="46"/>
       <c r="J11" s="47"/>
       <c r="N11" s="48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1806,7 +1397,7 @@
       <c r="I12" s="41"/>
       <c r="J12" s="39"/>
       <c r="N12" s="48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1823,7 +1414,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="27"/>
       <c r="N13" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <f>SUMPRODUCT(Q14:Q21,R14:R21)</f>
@@ -1909,7 +1500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D228CAD8-B85C-426E-AD63-CE67C9560447}">
   <dimension ref="B5:Q29"/>
   <sheetViews>
@@ -1975,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1987,7 +1578,7 @@
     <row r="9" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
@@ -1998,13 +1589,13 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -2019,13 +1610,13 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
@@ -2043,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
@@ -2379,7 +1970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713F1397-54B0-4865-93E4-0B940AD31719}">
   <dimension ref="C7:K26"/>
   <sheetViews>
@@ -2404,13 +1995,13 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2523,7 +2114,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2647,7 +2238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AADE0C-132A-4EF3-A172-B6CF6F69AB44}">
   <dimension ref="B7:K16"/>
   <sheetViews>
@@ -2796,12 +2387,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E2B15B-BC8E-45EF-98BA-5812B803929B}">
   <dimension ref="C7:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2814,36 +2405,36 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="7"/>
       <c r="F9" s="21"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="72"/>
+      <c r="D10" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="71"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="72"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="72"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="3:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
@@ -2853,9 +2444,9 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="3:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="71"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="6"/>
@@ -2869,36 +2460,36 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="3:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="7"/>
       <c r="F16" s="21"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="72"/>
+      <c r="D17" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="71"/>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="71"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="72"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="72"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="3:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
@@ -2908,9 +2499,9 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="3:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="71"/>
-      <c r="D20" s="73" t="s">
-        <v>67</v>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="6"/>
@@ -2933,12 +2524,415 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
+  <dimension ref="B4:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D179F0-AC46-41D9-873C-B2A647CFC02F}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3129,7 +3123,7 @@
   <dimension ref="A2:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G3" sqref="G3:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3677,7 +3671,7 @@
   <dimension ref="A4:AA38"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6656,7 +6650,7 @@
   <dimension ref="B4:G18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6713,7 +6707,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="64"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -6721,7 +6715,7 @@
     <row r="9" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="64"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
@@ -6755,7 +6749,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="64"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -6763,7 +6757,7 @@
     <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="64"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
@@ -6797,7 +6791,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="64"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -6805,7 +6799,7 @@
     <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="64"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
@@ -6835,7 +6829,7 @@
   <dimension ref="B4:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6901,7 +6895,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="64"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6911,7 +6905,7 @@
     <row r="9" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="64"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
@@ -6921,32 +6915,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="69" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="65"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="66"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="65"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="67"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="65"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -6954,37 +6948,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="69" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="65"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="67" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="70"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="68"/>
+      <c r="I14" s="67"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="69"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -6993,7 +6987,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="64"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -7003,7 +6997,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="64"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="1" t="s">
         <v>41</v>
       </c>
@@ -7041,9 +7035,9 @@
         <v>38</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
@@ -7051,9 +7045,9 @@
     <row r="21" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
@@ -7072,119 +7066,469 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD66357-81F2-4B96-BF78-61FF9444A459}">
-  <dimension ref="C3:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075732FB-7749-402F-AAF5-F378F2F73D43}">
+  <dimension ref="B3:AE20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6">
+        <v>1</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
+        <v>5</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="19"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6">
+        <v>8</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+    </row>
+    <row r="7" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="19"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
+        <v>4</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="19"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="12">
+        <v>11</v>
+      </c>
+      <c r="T8" s="20"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="19"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
+        <v>4</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="6"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="5"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8">
+        <v>5</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="19"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6">
+        <v>9</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="6"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="7"/>
+    </row>
+    <row r="11" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="4"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <v>2</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="19"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="6"/>
+      <c r="AC11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="58"/>
+    </row>
+    <row r="12" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
+        <v>3</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="19"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="12">
+        <v>10</v>
+      </c>
+      <c r="T12" s="20"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="6"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="20"/>
+    </row>
+    <row r="13" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6">
+        <v>6</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="19"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6">
+        <v>2</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="6"/>
+      <c r="AC13" s="58">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="19"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6">
+        <v>3</v>
+      </c>
+      <c r="V14" s="7"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="6"/>
+    </row>
+    <row r="15" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3">
+        <v>11</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="8">
+        <v>7</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="19"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6">
+        <v>6</v>
+      </c>
+      <c r="U15" s="7"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+    </row>
+    <row r="16" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="19"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+    </row>
+    <row r="17" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="19"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="12">
+        <v>7</v>
+      </c>
+      <c r="U17" s="20"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+    </row>
+    <row r="18" spans="2:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0342F1BA-C146-48F0-8116-0769719B1AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7F7897-29F0-4D84-B14E-CA7CBEC9A1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="5" activeTab="14" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="7" activeTab="15" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="Sheet13" sheetId="14" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="15" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="16" r:id="rId15"/>
+    <sheet name="Sheet8" sheetId="17" r:id="rId16"/>
+    <sheet name="Sheet16" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
   <si>
     <t>Georgia</t>
   </si>
@@ -665,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -762,8 +764,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,18 +786,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2526,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
-  <dimension ref="B4:L28"/>
+  <dimension ref="B4:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="C6:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2539,7 +2548,7 @@
     <col min="8" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2551,8 +2560,14 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
@@ -2566,10 +2581,16 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="1"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="66" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="1"/>
@@ -2583,8 +2604,16 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="1"/>
+      <c r="N6" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="8"/>
       <c r="D7" s="4"/>
@@ -2598,8 +2627,14 @@
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="1"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="59" t="s">
@@ -2615,8 +2650,16 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="1"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
@@ -2630,10 +2673,16 @@
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="1"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="66" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="1"/>
@@ -2647,8 +2696,16 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="1"/>
+      <c r="N10" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
       <c r="D11" s="4"/>
@@ -2662,8 +2719,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="5"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="1"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
@@ -2679,8 +2742,16 @@
         <v>71</v>
       </c>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="1"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
@@ -2694,10 +2765,16 @@
       <c r="J13" s="1"/>
       <c r="K13" s="4"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="1"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="66" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="1"/>
@@ -2711,8 +2788,16 @@
       <c r="J14" s="1"/>
       <c r="K14" s="5"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="1"/>
+      <c r="N14" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="8"/>
       <c r="D15" s="4"/>
@@ -2726,8 +2811,14 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="1"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
       <c r="D16" s="59" t="s">
@@ -2743,8 +2834,16 @@
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="1"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
@@ -2758,10 +2857,16 @@
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="1"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="1"/>
@@ -2777,8 +2882,16 @@
       <c r="J18" s="5"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="1"/>
+      <c r="N18" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="8"/>
       <c r="D19" s="4"/>
@@ -2792,8 +2905,14 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="1"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2809,12 +2928,20 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="66" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="1"/>
@@ -2826,8 +2953,16 @@
         <v>73</v>
       </c>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2843,8 +2978,16 @@
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2856,8 +2999,14 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2869,8 +3018,14 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2882,8 +3037,14 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2895,8 +3056,14 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2908,8 +3075,14 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2923,6 +3096,278 @@
       <c r="L28" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68B215-176C-47A9-BC65-E5FAC0AEE706}">
+  <dimension ref="B2:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="74"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="74"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="74"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="8">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="74"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="74"/>
+    </row>
+    <row r="8" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="74"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="74"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="74"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="74"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="74"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="74"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="8">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="74"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="74"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="74"/>
+    </row>
+    <row r="17" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="74"/>
+    </row>
+    <row r="18" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="8">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="74"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="74"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C06664-9D9D-4861-B1E9-94FF6B95C706}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3500,7 +3945,7 @@
   <dimension ref="A5:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D9"/>
+      <selection activeCell="B6" sqref="B6:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6707,7 +7152,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="66"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -6715,7 +7160,7 @@
     <row r="9" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
@@ -6749,7 +7194,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="66"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -6757,7 +7202,7 @@
     <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
@@ -6791,7 +7236,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="66"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -6799,7 +7244,7 @@
     <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="66"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
@@ -6895,7 +7340,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="66"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6905,7 +7350,7 @@
     <row r="9" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="66"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
@@ -6920,8 +7365,8 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
@@ -6930,8 +7375,8 @@
       <c r="B11" s="69"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
@@ -6940,7 +7385,7 @@
       <c r="B12" s="70"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="72"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -6952,33 +7397,33 @@
         <v>40</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="72"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="69"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="71"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="67"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
       <c r="C15" s="70"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="71"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="68"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -6987,7 +7432,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="66"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -6997,7 +7442,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="66"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="1" t="s">
         <v>41</v>
       </c>
@@ -7035,9 +7480,9 @@
         <v>38</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
@@ -7045,9 +7490,9 @@
     <row r="21" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
@@ -7066,17 +7511,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7087,7 +7532,7 @@
   <dimension ref="B3:AE20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="K7" sqref="K7:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7F7897-29F0-4D84-B14E-CA7CBEC9A1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA62B1-5946-4474-AFE8-2ABE20DE835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="7" activeTab="15" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="7" activeTab="16" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -770,7 +770,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -779,21 +782,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2431,7 +2427,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="70" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="1"/>
@@ -2440,7 +2436,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -2486,7 +2482,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="70" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="1"/>
@@ -2495,7 +2491,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="70"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -3102,36 +3098,48 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68B215-176C-47A9-BC65-E5FAC0AEE706}">
-  <dimension ref="B2:N19"/>
+  <dimension ref="B2:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-    </row>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="58"/>
-      <c r="N3" s="74"/>
-    </row>
-    <row r="4" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="6">
         <v>1</v>
@@ -3139,27 +3147,43 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="74"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74">
+        <v>1</v>
+      </c>
+      <c r="T4" s="74"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="66"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="58"/>
-      <c r="N5" s="74"/>
-    </row>
-    <row r="6" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
+        <v>6</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="8">
         <v>8</v>
@@ -3167,139 +3191,213 @@
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="1"/>
-      <c r="I6" s="74"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="74"/>
-    </row>
-    <row r="7" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="59"/>
       <c r="E7" s="5"/>
       <c r="F7" s="1"/>
-      <c r="I7" s="74"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="58"/>
-      <c r="N7" s="74"/>
-    </row>
-    <row r="8" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="12">
+        <v>7</v>
+      </c>
+      <c r="S7" s="20"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="6">
         <v>4</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="74"/>
-      <c r="I8" s="74"/>
+      <c r="F8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="74"/>
-    </row>
-    <row r="9" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="74">
+        <v>2</v>
+      </c>
+      <c r="T8" s="74"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="66"/>
       <c r="D9" s="1"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="F9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="74"/>
-    </row>
-    <row r="10" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6">
+        <v>5</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="8">
         <v>5</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="74"/>
-      <c r="I10" s="74"/>
+      <c r="F10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="74"/>
-    </row>
-    <row r="11" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="59"/>
-      <c r="F11" s="74"/>
-      <c r="I11" s="74"/>
+      <c r="F11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
       <c r="L11" s="1"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="74"/>
-    </row>
-    <row r="12" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="12">
+        <v>8</v>
+      </c>
+      <c r="S11" s="20"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="6">
         <v>3</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="F12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="74"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="74">
+        <v>3</v>
+      </c>
+      <c r="T12" s="74"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="66"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="74"/>
-      <c r="I13" s="74"/>
+      <c r="F13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="74"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="74">
+        <v>4</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="8">
         <v>6</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="F14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
       <c r="L14" s="4"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="74"/>
-    </row>
-    <row r="15" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="6">
+        <v>9</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
       <c r="D15" s="59"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="F15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="74"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="6">
         <v>2</v>
@@ -3307,27 +3405,41 @@
       <c r="D16" s="1"/>
       <c r="E16" s="4"/>
       <c r="F16" s="1"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="74"/>
-    </row>
-    <row r="17" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="12">
+        <v>10</v>
+      </c>
+      <c r="R16" s="20"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="66"/>
       <c r="D17" s="1"/>
       <c r="E17" s="5"/>
       <c r="F17" s="1"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="74"/>
-    </row>
-    <row r="18" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="8">
         <v>7</v>
@@ -3335,25 +3447,37 @@
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="74"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="74"/>
+      <c r="N19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3362,12 +3486,96 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C06664-9D9D-4861-B1E9-94FF6B95C706}">
-  <dimension ref="A1"/>
+  <dimension ref="C4:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="10" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7360,32 +7568,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="70" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="70"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -7393,37 +7601,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="70" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="68"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="68" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="73"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="71"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="73"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="72"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -7511,17 +7719,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA62B1-5946-4474-AFE8-2ABE20DE835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9037B-E8AD-41C5-9DC8-D76E8A653790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="7" activeTab="16" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,47 +52,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Michigan</t>
-  </si>
-  <si>
     <t>TCU</t>
   </si>
   <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>Portland</t>
-  </si>
-  <si>
-    <t>San Diego</t>
-  </si>
-  <si>
-    <t>Pacific</t>
-  </si>
-  <si>
-    <t>Pepperdine</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Loyola Marymount</t>
-  </si>
-  <si>
-    <t>Saint Mary's</t>
-  </si>
-  <si>
-    <t>Gonzaga</t>
-  </si>
-  <si>
     <t>San Francisco</t>
   </si>
   <si>
@@ -298,6 +265,48 @@
   </si>
   <si>
     <t>D1</t>
+  </si>
+  <si>
+    <t>1 Georgia</t>
+  </si>
+  <si>
+    <t>4 Ohio State</t>
+  </si>
+  <si>
+    <t>2 Michigan</t>
+  </si>
+  <si>
+    <t>3 TCU</t>
+  </si>
+  <si>
+    <t>1 Gonzaga</t>
+  </si>
+  <si>
+    <t>4 Santa Clara</t>
+  </si>
+  <si>
+    <t>3 Loyola Marymount</t>
+  </si>
+  <si>
+    <t>2 Saint Mary's</t>
+  </si>
+  <si>
+    <t>5 San Francisco</t>
+  </si>
+  <si>
+    <t>6 BYU</t>
+  </si>
+  <si>
+    <t>7 Portland</t>
+  </si>
+  <si>
+    <t>10 San Diego</t>
+  </si>
+  <si>
+    <t>8 Pacific</t>
+  </si>
+  <si>
+    <t>9 Pepperdine</t>
   </si>
 </sst>
 </file>
@@ -667,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -770,10 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -782,14 +788,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,15 +1116,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A66EB4-ADAC-4EF1-9D1A-8697917A8679}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1131,7 +1137,7 @@
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1149,7 +1155,7 @@
     <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -1167,7 +1173,7 @@
     <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4"/>
@@ -1177,7 +1183,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="1"/>
@@ -1185,7 +1191,7 @@
     <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
@@ -1208,7 +1214,7 @@
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1224,7 +1230,7 @@
     <row r="13" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -1240,7 +1246,7 @@
     <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
@@ -1256,7 +1262,7 @@
     <row r="17" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="1"/>
@@ -1268,6 +1274,70 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="8">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,7 +1385,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="26"/>
       <c r="N6" s="48" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1332,7 +1402,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="27"/>
       <c r="N7" s="48" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1346,7 +1416,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
       <c r="N8" s="48" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1360,7 +1430,7 @@
       <c r="I9" s="41"/>
       <c r="J9" s="39"/>
       <c r="N9" s="48" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1374,7 +1444,7 @@
       <c r="I10" s="44"/>
       <c r="J10" s="42"/>
       <c r="N10" s="48" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1388,7 +1458,7 @@
       <c r="I11" s="46"/>
       <c r="J11" s="47"/>
       <c r="N11" s="48" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1402,7 +1472,7 @@
       <c r="I12" s="41"/>
       <c r="J12" s="39"/>
       <c r="N12" s="48" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1419,7 +1489,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="27"/>
       <c r="N13" s="48" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="Q13">
         <f>SUMPRODUCT(Q14:Q21,R14:R21)</f>
@@ -1571,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1583,7 +1653,7 @@
     <row r="9" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
@@ -1594,13 +1664,13 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1615,13 +1685,13 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
@@ -1639,10 +1709,10 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
@@ -2000,13 +2070,13 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="62" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="62" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2119,7 +2189,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="63" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2413,7 +2483,7 @@
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
@@ -2427,8 +2497,8 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="70" t="s">
-        <v>60</v>
+      <c r="D10" s="69" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="21"/>
@@ -2436,7 +2506,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="71"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -2451,7 +2521,7 @@
     <row r="13" spans="3:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="64"/>
       <c r="D13" s="8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="6"/>
@@ -2468,7 +2538,7 @@
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="1"/>
@@ -2482,8 +2552,8 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="70" t="s">
-        <v>64</v>
+      <c r="D17" s="69" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="21"/>
@@ -2491,7 +2561,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="71"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -2506,7 +2576,7 @@
     <row r="20" spans="3:7" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C20" s="64"/>
       <c r="D20" s="65" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="6"/>
@@ -2571,7 +2641,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2587,7 +2657,7 @@
     <row r="6" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="66" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2595,14 +2665,14 @@
       <c r="G6" s="1"/>
       <c r="H6" s="7"/>
       <c r="I6" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="66" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -2617,7 +2687,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="8" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
@@ -2634,7 +2704,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="59" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
@@ -2642,14 +2712,14 @@
       <c r="H8" s="6"/>
       <c r="I8" s="1"/>
       <c r="J8" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="6"/>
       <c r="O8" s="59" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="1"/>
@@ -2663,7 +2733,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="4"/>
@@ -2679,7 +2749,7 @@
     <row r="10" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="66" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
@@ -2687,14 +2757,14 @@
       <c r="G10" s="1"/>
       <c r="H10" s="7"/>
       <c r="I10" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="66" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="5"/>
@@ -2709,7 +2779,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="1"/>
       <c r="H11" s="8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="1"/>
@@ -2727,7 +2797,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="59" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
@@ -2735,14 +2805,14 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="6"/>
       <c r="O12" s="1"/>
       <c r="P12" s="59" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="1"/>
@@ -2755,7 +2825,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2771,7 +2841,7 @@
     <row r="14" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="66" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2779,14 +2849,14 @@
       <c r="G14" s="1"/>
       <c r="H14" s="7"/>
       <c r="I14" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="5"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="66" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2801,7 +2871,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
@@ -2818,7 +2888,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
       <c r="D16" s="59" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2826,14 +2896,14 @@
       <c r="H16" s="6"/>
       <c r="I16" s="1"/>
       <c r="J16" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="6"/>
       <c r="O16" s="59" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -2847,7 +2917,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="4"/>
@@ -2863,24 +2933,24 @@
     <row r="18" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="66" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="66" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="5"/>
@@ -2895,7 +2965,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="1"/>
@@ -2913,14 +2983,14 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2928,7 +2998,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2938,7 +3008,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="66" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2946,14 +3016,14 @@
       <c r="I21" s="1"/>
       <c r="J21" s="7"/>
       <c r="K21" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="66" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2963,14 +3033,14 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="1"/>
@@ -2978,7 +3048,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="8" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="1"/>
@@ -3134,9 +3204,9 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3155,11 +3225,11 @@
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74">
-        <v>1</v>
-      </c>
-      <c r="T4" s="74"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6"/>
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3222,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="S7" s="20"/>
-      <c r="T7" s="74"/>
+      <c r="T7" s="6"/>
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3242,10 +3312,10 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="74">
-        <v>2</v>
-      </c>
-      <c r="T8" s="74"/>
+      <c r="S8" s="6">
+        <v>2</v>
+      </c>
+      <c r="T8" s="6"/>
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3308,7 +3378,7 @@
         <v>8</v>
       </c>
       <c r="S11" s="20"/>
-      <c r="T11" s="74"/>
+      <c r="T11" s="6"/>
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3328,10 +3398,10 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="74">
+      <c r="S12" s="6">
         <v>3</v>
       </c>
-      <c r="T12" s="74"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3348,7 +3418,7 @@
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="74">
+      <c r="R13" s="6">
         <v>4</v>
       </c>
       <c r="S13" s="11"/>
@@ -3394,7 +3464,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="6"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="74"/>
+      <c r="T15" s="6"/>
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3416,7 +3486,7 @@
         <v>10</v>
       </c>
       <c r="R16" s="20"/>
-      <c r="S16" s="74"/>
+      <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="1"/>
     </row>
@@ -3488,7 +3558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C06664-9D9D-4861-B1E9-94FF6B95C706}">
   <dimension ref="C4:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -3584,16 +3654,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D179F0-AC46-41D9-873C-B2A647CFC02F}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -3609,7 +3679,7 @@
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3631,7 +3701,7 @@
     <row r="5" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
@@ -3644,7 +3714,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -3657,7 +3727,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
@@ -3670,7 +3740,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -3692,7 +3762,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="4"/>
@@ -3703,7 +3773,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
@@ -3714,7 +3784,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
@@ -3725,7 +3795,7 @@
     <row r="13" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -3747,7 +3817,7 @@
     <row r="15" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1"/>
@@ -3813,7 +3883,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3855,7 +3925,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
@@ -3897,7 +3967,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="1"/>
       <c r="G7" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="4"/>
@@ -3939,7 +4009,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="1"/>
@@ -3981,7 +4051,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4023,7 +4093,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="1"/>
       <c r="G13" s="8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
@@ -4065,7 +4135,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
@@ -4082,14 +4152,14 @@
     <row r="16" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
@@ -4111,7 +4181,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="1"/>
@@ -7328,14 +7398,14 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7346,18 +7416,18 @@
     <row r="7" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="67"/>
@@ -7370,14 +7440,14 @@
       <c r="C9" s="1"/>
       <c r="D9" s="67"/>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7388,18 +7458,18 @@
     <row r="11" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="67"/>
@@ -7412,14 +7482,14 @@
       <c r="C13" s="1"/>
       <c r="D13" s="67"/>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -7430,18 +7500,18 @@
     <row r="15" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="67"/>
@@ -7454,7 +7524,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="67"/>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="1"/>
@@ -7512,14 +7582,14 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7532,20 +7602,20 @@
     <row r="7" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="67"/>
@@ -7562,38 +7632,38 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="70" t="s">
-        <v>36</v>
+      <c r="B10" s="69" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="70"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="71"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="73"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -7601,41 +7671,41 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="70" t="s">
-        <v>40</v>
+      <c r="C13" s="69" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="73"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="68" t="s">
-        <v>43</v>
+      <c r="I13" s="71" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="68"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="72"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="69"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
@@ -7652,14 +7722,14 @@
       <c r="E17" s="1"/>
       <c r="F17" s="67"/>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -7672,20 +7742,20 @@
     <row r="19" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="67"/>
@@ -7702,7 +7772,7 @@
       <c r="E21" s="67"/>
       <c r="F21" s="67"/>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="1"/>
@@ -7719,17 +7789,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9037B-E8AD-41C5-9DC8-D76E8A653790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D855EFB-7B45-4850-A8F3-F62BA2CBE58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet5 (2)" sheetId="11" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="13" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="14" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="15" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="16" r:id="rId15"/>
-    <sheet name="Sheet8" sheetId="17" r:id="rId16"/>
-    <sheet name="Sheet16" sheetId="18" r:id="rId17"/>
+    <sheet name="Sheet17" sheetId="19" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet5 (2)" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet12" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet13" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet15" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet8" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet16" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -676,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -779,7 +780,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -788,15 +792,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,7 +1121,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A19" sqref="A19:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,6 +1347,459 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075732FB-7749-402F-AAF5-F378F2F73D43}">
+  <dimension ref="B3:AE20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6">
+        <v>1</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
+        <v>5</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="19"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6">
+        <v>8</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+    </row>
+    <row r="7" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="19"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
+        <v>4</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="19"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="12">
+        <v>11</v>
+      </c>
+      <c r="T8" s="20"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="19"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
+        <v>4</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="6"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8">
+        <v>5</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="19"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6">
+        <v>9</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="6"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="7"/>
+    </row>
+    <row r="11" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <v>2</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="19"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="6"/>
+      <c r="AC11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="58"/>
+    </row>
+    <row r="12" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
+        <v>3</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="19"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="12">
+        <v>10</v>
+      </c>
+      <c r="T12" s="20"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="6"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="20"/>
+    </row>
+    <row r="13" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6">
+        <v>6</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="19"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6">
+        <v>2</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="6"/>
+      <c r="AC13" s="58">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="19"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6">
+        <v>3</v>
+      </c>
+      <c r="V14" s="7"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="6"/>
+    </row>
+    <row r="15" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="8">
+        <v>7</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="19"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6">
+        <v>6</v>
+      </c>
+      <c r="U15" s="7"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+    </row>
+    <row r="16" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="19"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+    </row>
+    <row r="17" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="19"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="12">
+        <v>7</v>
+      </c>
+      <c r="U17" s="20"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+    </row>
+    <row r="18" spans="2:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C071CB8-4A62-48A5-9C91-383608FE5F7C}">
   <dimension ref="A5:R18"/>
   <sheetViews>
@@ -1575,7 +2030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D228CAD8-B85C-426E-AD63-CE67C9560447}">
   <dimension ref="B5:Q29"/>
   <sheetViews>
@@ -2045,7 +2500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713F1397-54B0-4865-93E4-0B940AD31719}">
   <dimension ref="C7:K26"/>
   <sheetViews>
@@ -2313,7 +2768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AADE0C-132A-4EF3-A172-B6CF6F69AB44}">
   <dimension ref="B7:K16"/>
   <sheetViews>
@@ -2462,7 +2917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E2B15B-BC8E-45EF-98BA-5812B803929B}">
   <dimension ref="C7:G21"/>
   <sheetViews>
@@ -2497,7 +2952,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="70" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1"/>
@@ -2506,7 +2961,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -2552,7 +3007,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="70" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1"/>
@@ -2561,7 +3016,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="70"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -2599,7 +3054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
   <dimension ref="B4:R28"/>
   <sheetViews>
@@ -3166,7 +3621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68B215-176C-47A9-BC65-E5FAC0AEE706}">
   <dimension ref="B2:U19"/>
   <sheetViews>
@@ -3554,7 +4009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C06664-9D9D-4861-B1E9-94FF6B95C706}">
   <dimension ref="C4:J6"/>
   <sheetViews>
@@ -3654,7 +4109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D179F0-AC46-41D9-873C-B2A647CFC02F}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -3842,6 +4297,171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94C50A0-9EC1-4FB8-9BAB-7873F6DA654A}">
+  <dimension ref="B5:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="8">
+        <v>4</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1876FCB-6DB9-423A-8CE5-BFA1290FCF13}">
   <dimension ref="A2:P18"/>
   <sheetViews>
@@ -4218,7 +4838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492D4744-2D7C-45B9-9C52-AF2B5242534C}">
   <dimension ref="A5:K16"/>
   <sheetViews>
@@ -4389,7 +5009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59F7E8-88AA-4FE9-B6FA-71F38FE540A6}">
   <dimension ref="A4:AA38"/>
   <sheetViews>
@@ -5963,7 +6583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89773F7F-4D17-4965-AFCD-3A60B3CB582B}">
   <dimension ref="A4:Y38"/>
   <sheetViews>
@@ -7368,7 +7988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4FDA5A-1FA6-4FB5-874D-8ADC03C2B365}">
   <dimension ref="B4:G18"/>
   <sheetViews>
@@ -7547,7 +8167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426E89DE-FB26-4184-BD37-CBFF7802F4CC}">
   <dimension ref="B4:I22"/>
   <sheetViews>
@@ -7638,32 +8258,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="70" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="70"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -7671,37 +8291,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="70" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="68"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="68" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="73"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="71"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="73"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="72"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -7789,471 +8409,18 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075732FB-7749-402F-AAF5-F378F2F73D43}">
-  <dimension ref="B3:AE20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:M11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-    </row>
-    <row r="4" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6">
-        <v>1</v>
-      </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-    </row>
-    <row r="5" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6">
-        <v>5</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="19"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6">
-        <v>8</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-    </row>
-    <row r="7" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="19"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="6"/>
-    </row>
-    <row r="8" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6">
-        <v>4</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="19"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="12">
-        <v>11</v>
-      </c>
-      <c r="T8" s="20"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="6"/>
-    </row>
-    <row r="9" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="19"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6">
-        <v>4</v>
-      </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="6"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="8">
-        <v>5</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="19"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6">
-        <v>9</v>
-      </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="6"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE10" s="7"/>
-    </row>
-    <row r="11" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6">
-        <v>2</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="19"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="6"/>
-      <c r="AC11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="58"/>
-    </row>
-    <row r="12" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6">
-        <v>3</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="19"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="12">
-        <v>10</v>
-      </c>
-      <c r="T12" s="20"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="6"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="20"/>
-    </row>
-    <row r="13" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="6">
-        <v>6</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="19"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6">
-        <v>2</v>
-      </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="6"/>
-      <c r="AC13" s="58">
-        <v>7</v>
-      </c>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="19"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6">
-        <v>3</v>
-      </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="6"/>
-    </row>
-    <row r="15" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="3">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="8">
-        <v>7</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="19"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6">
-        <v>6</v>
-      </c>
-      <c r="U15" s="7"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-    </row>
-    <row r="16" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="19"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-    </row>
-    <row r="17" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="19"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="12">
-        <v>7</v>
-      </c>
-      <c r="U17" s="20"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-    </row>
-    <row r="18" spans="2:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D855EFB-7B45-4850-A8F3-F62BA2CBE58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCDF595-69F4-41A8-8F45-DCDAA84A84C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,34 +280,34 @@
     <t>3 TCU</t>
   </si>
   <si>
-    <t>1 Gonzaga</t>
+    <t>1 Saint Mary's</t>
   </si>
   <si>
-    <t>4 Santa Clara</t>
+    <t>2 Gonzaga</t>
   </si>
   <si>
-    <t>3 Loyola Marymount</t>
+    <t>3 Santa Clara</t>
   </si>
   <si>
-    <t>2 Saint Mary's</t>
+    <t>4 Loyola Marymount</t>
   </si>
   <si>
-    <t>5 San Francisco</t>
+    <t>5 BYU</t>
   </si>
   <si>
-    <t>6 BYU</t>
+    <t>6 San Francisco</t>
   </si>
   <si>
-    <t>7 Portland</t>
+    <t>7 Pacific</t>
   </si>
   <si>
-    <t>10 San Diego</t>
+    <t>10 Pepperdine</t>
   </si>
   <si>
-    <t>8 Pacific</t>
+    <t>8 Portland</t>
   </si>
   <si>
-    <t>9 Pepperdine</t>
+    <t>9 San Diego</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -780,10 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -792,13 +789,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2952,7 +2951,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1"/>
@@ -2961,7 +2960,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="71"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -3007,7 +3006,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1"/>
@@ -3016,7 +3015,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="71"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -4109,13 +4108,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D179F0-AC46-41D9-873C-B2A647CFC02F}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -4134,7 +4133,7 @@
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4156,7 +4155,7 @@
     <row r="5" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
@@ -4169,7 +4168,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -4182,7 +4181,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
@@ -4195,7 +4194,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -4217,7 +4216,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="4"/>
@@ -4228,7 +4227,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
@@ -4239,7 +4238,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
@@ -4250,7 +4249,7 @@
     <row r="13" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -4272,7 +4271,7 @@
     <row r="15" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1"/>
@@ -4300,7 +4299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94C50A0-9EC1-4FB8-9BAB-7873F6DA654A}">
   <dimension ref="B5:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -4432,12 +4431,12 @@
     </row>
     <row r="13" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="74"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="9"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="74"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="9"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -8258,32 +8257,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="70"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="71"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="73"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -8291,37 +8290,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="69" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="73"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="71" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="68"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="72"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="69"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -8409,17 +8408,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCDF595-69F4-41A8-8F45-DCDAA84A84C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663FC631-C17C-41B7-9304-E59E2DFE391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -789,13 +792,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1117,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A66EB4-ADAC-4EF1-9D1A-8697917A8679}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,7 +1260,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
         <v>74</v>
@@ -1269,14 +1269,19 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
         <v>1</v>
@@ -1284,15 +1289,27 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="1"/>
+      <c r="G19" s="6">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="1"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="8">
         <v>4</v>
@@ -1300,15 +1317,27 @@
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="1"/>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="1"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>2</v>
@@ -1316,15 +1345,27 @@
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="1"/>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="8">
         <v>3</v>
@@ -1332,13 +1373,25 @@
       <c r="C25" s="4"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+      <c r="G25" s="8">
+        <v>4</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2951,7 +3004,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="70" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1"/>
@@ -2960,7 +3013,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -3006,7 +3059,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="70" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1"/>
@@ -3015,7 +3068,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="70"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -4108,7 +4161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D179F0-AC46-41D9-873C-B2A647CFC02F}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -8257,32 +8310,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="70" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="70"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -8290,37 +8343,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="70" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="68"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="68" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="73"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="71"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="73"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="72"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -8408,17 +8461,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663FC631-C17C-41B7-9304-E59E2DFE391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA14FF-9366-4CA6-8C3F-91E92F221386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="8" activeTab="15" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="93">
   <si>
     <t>Georgia</t>
   </si>
@@ -223,24 +223,12 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>UAE</t>
   </si>
   <si>
@@ -308,6 +296,42 @@
   </si>
   <si>
     <t>9 San Diego</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>1 South Korea</t>
+  </si>
+  <si>
+    <t>8 Uzbekistan</t>
+  </si>
+  <si>
+    <t>4 Iran</t>
+  </si>
+  <si>
+    <t>5 Iraq</t>
+  </si>
+  <si>
+    <t>3 China</t>
+  </si>
+  <si>
+    <t>6 Australia</t>
+  </si>
+  <si>
+    <t>2 Japan</t>
+  </si>
+  <si>
+    <t>7 UAE</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -780,10 +804,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -792,10 +813,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1119,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A66EB4-ADAC-4EF1-9D1A-8697917A8679}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -1138,7 +1162,7 @@
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1156,7 +1180,7 @@
     <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -1174,7 +1198,7 @@
     <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4"/>
@@ -1192,7 +1216,7 @@
     <row r="8" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1"/>
@@ -1215,7 +1239,7 @@
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1231,7 +1255,7 @@
     <row r="13" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -1247,7 +1271,7 @@
     <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
@@ -1263,7 +1287,7 @@
     <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="1"/>
@@ -1402,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075732FB-7749-402F-AAF5-F378F2F73D43}">
   <dimension ref="B3:AE20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7:M11"/>
     </sheetView>
   </sheetViews>
@@ -2086,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D228CAD8-B85C-426E-AD63-CE67C9560447}">
   <dimension ref="B5:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
@@ -3004,7 +3028,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1"/>
@@ -3013,7 +3037,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="71"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -3059,7 +3083,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1"/>
@@ -3068,7 +3092,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="71"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -3108,20 +3132,21 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
-  <dimension ref="B4:R28"/>
+  <dimension ref="B4:AD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="C6:F19"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3139,32 +3164,64 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="66" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3179,39 +3236,75 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="66" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S6" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>8</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="8" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="8"/>
+      <c r="N7" s="8">
+        <v>8</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S7" s="8">
+        <v>8</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
@@ -3226,37 +3319,73 @@
       <c r="M8" s="1"/>
       <c r="N8" s="6"/>
       <c r="O8" s="59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S8" s="6"/>
+      <c r="T8" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="6" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6">
+        <v>4</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S9" s="6">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="66" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
@@ -3264,47 +3393,83 @@
       <c r="G10" s="1"/>
       <c r="H10" s="7"/>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="66" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S10" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="5"/>
       <c r="G11" s="1"/>
       <c r="H11" s="8" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="1"/>
       <c r="K11" s="5"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="8"/>
+      <c r="N11" s="8">
+        <v>5</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S11" s="8">
+        <v>5</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
@@ -3312,43 +3477,79 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="6"/>
       <c r="O12" s="1"/>
       <c r="P12" s="59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S12" s="6"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="6" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="4"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6">
+        <v>3</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S13" s="6">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="66" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3356,46 +3557,82 @@
       <c r="G14" s="1"/>
       <c r="H14" s="7"/>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="5"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="66" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S14" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8">
+        <v>6</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="8" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="8"/>
+      <c r="N15" s="8">
+        <v>6</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S15" s="8">
+        <v>6</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="8">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
       <c r="D16" s="59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3403,44 +3640,80 @@
       <c r="H16" s="6"/>
       <c r="I16" s="1"/>
       <c r="J16" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="6"/>
       <c r="O16" s="59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S16" s="6"/>
+      <c r="T16" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="6" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="6"/>
+      <c r="N17" s="6">
+        <v>2</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S17" s="6">
+        <v>2</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="66" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="5"/>
@@ -3450,54 +3723,92 @@
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="66" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="8">
+        <v>7</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="8" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="8"/>
+      <c r="N19" s="8">
+        <v>7</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S19" s="8">
+        <v>7</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3505,17 +3816,35 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V20" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="66" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3523,31 +3852,49 @@
       <c r="I21" s="1"/>
       <c r="J21" s="7"/>
       <c r="K21" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="66" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="V21" s="8"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA21" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="1"/>
@@ -3555,12 +3902,28 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" s="4"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3578,8 +3941,24 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3597,8 +3976,22 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="1"/>
+    </row>
+    <row r="25" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3616,8 +4009,24 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA25" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3635,8 +4044,22 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="2:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3654,8 +4077,22 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3667,6 +4104,24 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4186,7 +4641,7 @@
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4208,7 +4663,7 @@
     <row r="5" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
@@ -4221,7 +4676,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -4234,7 +4689,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
@@ -4247,7 +4702,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -4269,7 +4724,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="4"/>
@@ -4280,7 +4735,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
@@ -4291,7 +4746,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
@@ -4302,7 +4757,7 @@
     <row r="13" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
@@ -4324,7 +4779,7 @@
     <row r="15" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1"/>
@@ -8310,32 +8765,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="70"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="71"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="73"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -8343,37 +8798,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="69" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="73"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="71" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="68"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="72"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="69"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -8461,17 +8916,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\Brackets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5736D71-255E-4DA0-A067-5C94B8B9C9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6971372-E574-421E-8517-20E75F8344E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="11" activeTab="20" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="12" activeTab="21" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="Sheet18" sheetId="20" r:id="rId19"/>
     <sheet name="Sheet19" sheetId="21" r:id="rId20"/>
     <sheet name="Sheet20" sheetId="22" r:id="rId21"/>
+    <sheet name="Sheet21" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -909,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1024,6 +1025,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1050,10 +1062,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3261,7 +3269,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="84" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1"/>
@@ -3270,7 +3278,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="78"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -3316,7 +3324,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="84" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1"/>
@@ -3325,7 +3333,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="78"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -6851,7 +6859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D84D55B-86DB-41A7-86B6-8D3E6C4FEE99}">
   <dimension ref="C4:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:H28"/>
     </sheetView>
   </sheetViews>
@@ -6872,16 +6880,16 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="82"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="67"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="82"/>
+      <c r="I5" s="89"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -7415,7 +7423,7 @@
   <dimension ref="A4:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C14"/>
+      <selection activeCell="E6" sqref="C6:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7991,7 +7999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DAA05C-8B34-498C-B0AB-56B73244FFB8}">
   <dimension ref="A4:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
@@ -8019,434 +8027,434 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="83"/>
-      <c r="B14" s="84"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="66" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="66" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="8" t="s">
         <v>123</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="83"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="66" t="s">
         <v>65</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="6" t="s">
         <v>124</v>
       </c>
       <c r="I27" s="66" t="s">
@@ -8455,22 +8463,22 @@
       <c r="J27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="83"/>
-      <c r="B28" s="83"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="66" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="66" t="s">
         <v>63</v>
       </c>
@@ -8478,99 +8486,1222 @@
         <v>128</v>
       </c>
       <c r="J28" s="4"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FC37AD-F8C8-422A-907B-37F83257262D}">
+  <dimension ref="A3:AB94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC71" sqref="Z71:AC83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>SUM(C3:ZZ3)</f>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A18" si="0">SUM(C4:ZZ4)</f>
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B18" si="1">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="X21" s="74"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="77"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="77"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="19"/>
+      <c r="E23" s="77"/>
+      <c r="I23" s="19"/>
+      <c r="K23" s="77"/>
+      <c r="Q23" s="19"/>
+      <c r="S23" s="77"/>
+      <c r="X23" s="19"/>
+      <c r="Z23" s="77"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="19"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="I24" s="19"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
+      <c r="Q24" s="19"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="77"/>
+      <c r="X24" s="19"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="77"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="74"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="I25" s="74"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="Q25" s="74"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="X25" s="74"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="76"/>
+      <c r="L26" s="77"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="76"/>
+      <c r="T26" s="77"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="76"/>
+      <c r="AA26" s="77"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="19"/>
+      <c r="F27" s="77"/>
+      <c r="I27" s="19"/>
+      <c r="L27" s="77"/>
+      <c r="Q27" s="19"/>
+      <c r="T27" s="77"/>
+      <c r="X27" s="19"/>
+      <c r="AA27" s="77"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="19"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+      <c r="I28" s="19"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
+      <c r="Q28" s="19"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="77"/>
+      <c r="X28" s="19"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="77"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="74"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="I29" s="74"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="Q29" s="74"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="X29" s="74"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="19"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="I31" s="19"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="Q31" s="19"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="X31" s="19"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+    </row>
+    <row r="32" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="19"/>
+      <c r="E32" s="76"/>
+      <c r="G32" s="77"/>
+      <c r="I32" s="19"/>
+      <c r="K32" s="76"/>
+      <c r="M32" s="77"/>
+      <c r="Q32" s="19"/>
+      <c r="S32" s="76"/>
+      <c r="U32" s="77"/>
+      <c r="X32" s="19"/>
+      <c r="Z32" s="76"/>
+      <c r="AB32" s="77"/>
+    </row>
+    <row r="33" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="74"/>
+      <c r="E33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="I33" s="74"/>
+      <c r="K33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="Q33" s="74"/>
+      <c r="S33" s="77"/>
+      <c r="U33" s="77"/>
+      <c r="X33" s="74"/>
+      <c r="Z33" s="77"/>
+      <c r="AB33" s="77"/>
+    </row>
+    <row r="34" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
+      <c r="G34" s="77"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76"/>
+      <c r="M34" s="77"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="76"/>
+      <c r="U34" s="77"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="76"/>
+      <c r="AB34" s="77"/>
+    </row>
+    <row r="35" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="79">
+        <v>4</v>
+      </c>
+      <c r="M35" s="79">
+        <v>4</v>
+      </c>
+      <c r="U35" s="79">
+        <v>4</v>
+      </c>
+      <c r="AB35" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="19"/>
+      <c r="G36" s="76">
+        <v>3</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="M36" s="76">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="19"/>
+      <c r="U36" s="76">
+        <v>3</v>
+      </c>
+      <c r="X36" s="19"/>
+      <c r="AB36" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="74"/>
+      <c r="G37" s="78"/>
+      <c r="I37" s="74"/>
+      <c r="M37" s="78"/>
+      <c r="Q37" s="74"/>
+      <c r="U37" s="78"/>
+      <c r="X37" s="74"/>
+      <c r="AB37" s="78"/>
+    </row>
+    <row r="38" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="75"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
+      <c r="G38" s="78"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="77"/>
+      <c r="M38" s="78"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="77"/>
+      <c r="U38" s="78"/>
+      <c r="X38" s="75"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="77"/>
+      <c r="AB38" s="78"/>
+    </row>
+    <row r="39" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="19"/>
+      <c r="E39" s="77"/>
+      <c r="G39" s="78"/>
+      <c r="I39" s="19"/>
+      <c r="K39" s="77"/>
+      <c r="M39" s="78"/>
+      <c r="Q39" s="19"/>
+      <c r="S39" s="77"/>
+      <c r="U39" s="78"/>
+      <c r="X39" s="19"/>
+      <c r="Z39" s="77"/>
+      <c r="AB39" s="78"/>
+    </row>
+    <row r="40" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="19"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
+      <c r="I40" s="19"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="78"/>
+      <c r="Q40" s="19"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="77"/>
+      <c r="U40" s="78"/>
+      <c r="X40" s="19"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="77"/>
+      <c r="AB40" s="78"/>
+    </row>
+    <row r="41" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="74"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="78"/>
+      <c r="I41" s="74"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="78"/>
+      <c r="Q41" s="74"/>
+      <c r="S41" s="77"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="78"/>
+      <c r="X41" s="74"/>
+      <c r="Z41" s="77"/>
+      <c r="AA41" s="77"/>
+      <c r="AB41" s="78"/>
+    </row>
+    <row r="42" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="75"/>
+      <c r="D42" s="76"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="76"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="76"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="77"/>
+      <c r="X42" s="75"/>
+      <c r="Y42" s="76"/>
+      <c r="AA42" s="77"/>
+      <c r="AB42" s="77"/>
+    </row>
+    <row r="43" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="19"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="I43" s="19"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="Q43" s="19"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="77"/>
+      <c r="X43" s="19"/>
+      <c r="AA43" s="77"/>
+      <c r="AB43" s="77"/>
+    </row>
+    <row r="44" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="19"/>
+      <c r="F44" s="76"/>
+      <c r="I44" s="19"/>
+      <c r="L44" s="76"/>
+      <c r="Q44" s="19"/>
+      <c r="T44" s="76"/>
+      <c r="X44" s="19"/>
+      <c r="AA44" s="76"/>
+    </row>
+    <row r="45" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="74"/>
+      <c r="F45" s="77"/>
+      <c r="I45" s="74"/>
+      <c r="L45" s="77"/>
+      <c r="Q45" s="74"/>
+      <c r="T45" s="77"/>
+      <c r="X45" s="74"/>
+      <c r="AA45" s="77"/>
+    </row>
+    <row r="46" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="75"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="Q46" s="75"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="77"/>
+      <c r="X46" s="75"/>
+      <c r="Y46" s="76"/>
+      <c r="Z46" s="77"/>
+      <c r="AA46" s="77"/>
+    </row>
+    <row r="47" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="19"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="I47" s="19"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="Q47" s="19"/>
+      <c r="S47" s="77"/>
+      <c r="T47" s="77"/>
+      <c r="X47" s="19"/>
+      <c r="Z47" s="77"/>
+      <c r="AA47" s="77"/>
+    </row>
+    <row r="48" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="19"/>
+      <c r="E48" s="76"/>
+      <c r="I48" s="19"/>
+      <c r="K48" s="76"/>
+      <c r="Q48" s="19"/>
+      <c r="S48" s="76"/>
+      <c r="X48" s="19"/>
+      <c r="Z48" s="76"/>
+    </row>
+    <row r="49" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="74"/>
+      <c r="E49" s="77"/>
+      <c r="I49" s="74"/>
+      <c r="K49" s="77"/>
+      <c r="Q49" s="74"/>
+      <c r="S49" s="77"/>
+      <c r="X49" s="74"/>
+      <c r="Z49" s="77"/>
+    </row>
+    <row r="50" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="75"/>
+      <c r="D50" s="76"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="76"/>
+      <c r="Q50" s="75"/>
+      <c r="R50" s="76"/>
+      <c r="X50" s="75"/>
+      <c r="Y50" s="76"/>
+    </row>
+    <row r="51" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="74"/>
+      <c r="G52" s="80">
+        <v>3</v>
+      </c>
+      <c r="L52" s="19"/>
+      <c r="T52" s="74"/>
+      <c r="U52" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F53" s="75"/>
+      <c r="G53" s="76">
+        <v>2</v>
+      </c>
+      <c r="L53" s="74"/>
+      <c r="M53" s="80">
+        <v>3</v>
+      </c>
+      <c r="T53" s="75"/>
+      <c r="U53" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K54" s="74"/>
+      <c r="M54" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E55" s="74"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="76"/>
+    </row>
+    <row r="56" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="75"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="77"/>
+      <c r="L56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="74"/>
+      <c r="AB56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E57" s="19"/>
+      <c r="G57" s="77">
+        <v>3</v>
+      </c>
+      <c r="L57" s="74"/>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="S57" s="74"/>
+      <c r="Z57" s="74"/>
+      <c r="AB57" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="19"/>
+      <c r="G58" s="76">
+        <v>2</v>
+      </c>
+      <c r="K58" s="74"/>
+      <c r="M58" s="76">
+        <v>2</v>
+      </c>
+      <c r="R58" s="74"/>
+      <c r="T58" s="76"/>
+      <c r="U58" s="77"/>
+      <c r="Y58" s="74"/>
+      <c r="AA58" s="76"/>
+    </row>
+    <row r="59" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="74"/>
+      <c r="G59" s="77"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="76"/>
+      <c r="R59" s="75"/>
+      <c r="S59" s="76"/>
+      <c r="U59" s="77">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="75"/>
+      <c r="Z59" s="76"/>
+    </row>
+    <row r="60" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="75"/>
+      <c r="F60" s="76"/>
+      <c r="S60" s="19"/>
+      <c r="U60" s="76">
+        <v>2</v>
+      </c>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="74"/>
+      <c r="AB60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S61" s="74"/>
+      <c r="U61" s="77"/>
+      <c r="Z61" s="74"/>
+      <c r="AB61" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F62" s="74"/>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="L62" s="74"/>
+      <c r="M62" s="80">
+        <v>2</v>
+      </c>
+      <c r="R62" s="74"/>
+      <c r="T62" s="76"/>
+      <c r="Y62" s="74"/>
+      <c r="AA62" s="76"/>
+    </row>
+    <row r="63" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F63" s="75"/>
+      <c r="G63" s="76">
+        <v>1</v>
+      </c>
+      <c r="L63" s="75"/>
+      <c r="M63" s="76">
+        <v>1</v>
+      </c>
+      <c r="R63" s="75"/>
+      <c r="S63" s="76"/>
+      <c r="Y63" s="75"/>
+      <c r="Z63" s="76"/>
+    </row>
+    <row r="64" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S64" s="19"/>
+      <c r="Z64" s="19"/>
+    </row>
+    <row r="65" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S65" s="74"/>
+      <c r="Z65" s="74"/>
+    </row>
+    <row r="66" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="R66" s="74"/>
+      <c r="T66" s="76"/>
+      <c r="U66" s="77"/>
+      <c r="Y66" s="74"/>
+      <c r="AA66" s="76"/>
+      <c r="AB66" s="77"/>
+    </row>
+    <row r="67" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="R67" s="75"/>
+      <c r="S67" s="76"/>
+      <c r="U67" s="77">
+        <v>3</v>
+      </c>
+      <c r="Y67" s="75"/>
+      <c r="Z67" s="76"/>
+      <c r="AB67" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D68" s="75"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="77"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="76"/>
+      <c r="L68" s="77"/>
+      <c r="S68" s="19"/>
+      <c r="U68" s="76">
+        <v>2</v>
+      </c>
+      <c r="Z68" s="19"/>
+      <c r="AB68" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D69" s="19"/>
+      <c r="F69" s="77"/>
+      <c r="J69" s="19"/>
+      <c r="L69" s="77"/>
+      <c r="S69" s="74"/>
+      <c r="U69" s="77"/>
+      <c r="Z69" s="74"/>
+      <c r="AB69" s="77"/>
+    </row>
+    <row r="70" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D70" s="19"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="77"/>
+      <c r="J70" s="19"/>
+      <c r="L70" s="76"/>
+      <c r="M70" s="77"/>
+      <c r="R70" s="74"/>
+      <c r="T70" s="76"/>
+      <c r="Y70" s="74"/>
+      <c r="AA70" s="76"/>
+    </row>
+    <row r="71" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D71" s="74"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="J71" s="74"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="77"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="76"/>
+      <c r="Y71" s="75"/>
+      <c r="Z71" s="76"/>
+    </row>
+    <row r="72" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D72" s="75"/>
+      <c r="E72" s="76"/>
+      <c r="G72" s="77"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="76"/>
+      <c r="M72" s="77"/>
+      <c r="T72" s="74"/>
+      <c r="U72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D73" s="19"/>
+      <c r="G73" s="77">
+        <v>3</v>
+      </c>
+      <c r="J73" s="19"/>
+      <c r="M73" s="77">
+        <v>3</v>
+      </c>
+      <c r="T73" s="75"/>
+      <c r="U73" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D74" s="19"/>
+      <c r="G74" s="76">
+        <v>2</v>
+      </c>
+      <c r="J74" s="19"/>
+      <c r="M74" s="76">
+        <v>2</v>
+      </c>
+      <c r="AA74" s="74"/>
+      <c r="AB74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D75" s="74"/>
+      <c r="G75" s="77"/>
+      <c r="J75" s="74"/>
+      <c r="M75" s="77"/>
+      <c r="T75" s="74"/>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="AA75" s="75"/>
+      <c r="AB75" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D76" s="75"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="77"/>
+      <c r="M76" s="77"/>
+      <c r="T76" s="75"/>
+      <c r="U76" s="76">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="19"/>
+    </row>
+    <row r="77" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D77" s="19"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="J77" s="19"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
+      <c r="AA77" s="74"/>
+      <c r="AB77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D78" s="19"/>
+      <c r="F78" s="76"/>
+      <c r="J78" s="19"/>
+      <c r="L78" s="76"/>
+      <c r="S78" s="74"/>
+      <c r="Z78" s="74"/>
+      <c r="AA78" s="75"/>
+      <c r="AB78" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D79" s="74"/>
+      <c r="F79" s="77"/>
+      <c r="J79" s="74"/>
+      <c r="L79" s="77"/>
+      <c r="S79" s="75"/>
+      <c r="T79" s="76"/>
+      <c r="U79" s="77"/>
+      <c r="Z79" s="75"/>
+      <c r="AA79" s="76"/>
+    </row>
+    <row r="80" spans="4:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D80" s="75"/>
+      <c r="E80" s="76"/>
+      <c r="J80" s="75"/>
+      <c r="K80" s="76"/>
+      <c r="S80" s="19"/>
+      <c r="U80" s="77">
+        <v>2</v>
+      </c>
+      <c r="Z80" s="19"/>
+    </row>
+    <row r="81" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S81" s="19"/>
+      <c r="U81" s="76">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="19"/>
+      <c r="AA81" s="74"/>
+      <c r="AB81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F82" s="74"/>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="L82" s="19"/>
+      <c r="S82" s="74"/>
+      <c r="U82" s="77"/>
+      <c r="Z82" s="74"/>
+      <c r="AA82" s="75"/>
+      <c r="AB82" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F83" s="75"/>
+      <c r="G83" s="76">
+        <v>1</v>
+      </c>
+      <c r="L83" s="74"/>
+      <c r="M83" s="80">
+        <v>2</v>
+      </c>
+      <c r="S83" s="75"/>
+      <c r="T83" s="76"/>
+      <c r="Z83" s="75"/>
+      <c r="AA83" s="76"/>
+    </row>
+    <row r="84" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K84" s="74"/>
+      <c r="M84" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E85" s="74"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="76"/>
+      <c r="T85" s="74"/>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="74"/>
+      <c r="AB85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E86" s="75"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="77"/>
+      <c r="L86" s="19"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="76">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="75"/>
+      <c r="AB86" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E87" s="19"/>
+      <c r="G87" s="79">
+        <v>2</v>
+      </c>
+      <c r="L87" s="74"/>
+      <c r="M87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E88" s="19"/>
+      <c r="G88" s="76">
+        <v>1</v>
+      </c>
+      <c r="K88" s="74"/>
+      <c r="M88" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E89" s="74"/>
+      <c r="G89" s="77"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="76"/>
+    </row>
+    <row r="90" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E90" s="75"/>
+      <c r="F90" s="76"/>
+    </row>
+    <row r="91" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F92" s="74"/>
+      <c r="G92" s="80">
+        <v>1</v>
+      </c>
+      <c r="L92" s="74"/>
+      <c r="M92" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="5:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F93" s="75"/>
+      <c r="G93" s="76">
+        <v>0</v>
+      </c>
+      <c r="L93" s="75"/>
+      <c r="M93" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="5:28" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <conditionalFormatting sqref="A3:A18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12329,7 +13460,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="74"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -12337,7 +13468,7 @@
     <row r="9" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="74"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
@@ -12371,7 +13502,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="74"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -12379,7 +13510,7 @@
     <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="74"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
@@ -12413,7 +13544,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="74"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -12421,7 +13552,7 @@
     <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="74"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
@@ -12517,7 +13648,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="74"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -12527,7 +13658,7 @@
     <row r="9" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="74"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
@@ -12537,32 +13668,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="84" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="78"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="80"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -12570,37 +13701,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="84" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="80"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="75" t="s">
+      <c r="I13" s="82" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="79"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="75"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="79"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="76"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -12609,7 +13740,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="74"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -12619,7 +13750,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="74"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
@@ -12657,9 +13788,9 @@
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
@@ -12667,9 +13798,9 @@
     <row r="21" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6971372-E574-421E-8517-20E75F8344E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796EB346-D7C6-4E7F-A8B8-B5F4CBF030C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="12" activeTab="21" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="12" activeTab="19" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="131">
   <si>
     <t>Georgia</t>
   </si>
@@ -444,6 +444,12 @@
   </si>
   <si>
     <t>Grizzlies</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -910,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1039,10 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1051,10 +1054,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1062,6 +1068,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3269,7 +3285,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="83" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1"/>
@@ -3278,7 +3294,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="85"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -3324,7 +3340,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="83" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1"/>
@@ -3333,7 +3349,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="85"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -3764,7 +3780,7 @@
   <dimension ref="B4:BI28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="XFD19" sqref="XFD19"/>
+      <selection activeCell="H5" sqref="H5:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6859,7 +6875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D84D55B-86DB-41A7-86B6-8D3E6C4FEE99}">
   <dimension ref="C4:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:H28"/>
     </sheetView>
   </sheetViews>
@@ -7420,15 +7436,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A138887D-E83F-4832-AC66-DEE1E0C0D3AC}">
-  <dimension ref="A4:O33"/>
+  <dimension ref="A4:AC33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="C6:E13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7444,8 +7460,22 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7461,8 +7491,42 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P5" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1">
+        <v>4</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7480,10 +7544,32 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="90">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -7501,10 +7587,24 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -7520,10 +7620,24 @@
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
@@ -7539,10 +7653,26 @@
       <c r="K9" s="1"/>
       <c r="L9" s="5"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7562,10 +7692,26 @@
       <c r="K10" s="1"/>
       <c r="L10" s="4"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -7583,10 +7729,24 @@
       <c r="K11" s="1"/>
       <c r="L11" s="5"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>111</v>
@@ -7602,10 +7762,24 @@
       <c r="K12" s="4"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
@@ -7621,10 +7795,26 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="8" t="s">
         <v>111</v>
@@ -7640,10 +7830,24 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7657,10 +7861,26 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -7674,10 +7894,26 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -7691,10 +7927,26 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7708,10 +7960,24 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7725,10 +7991,26 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7744,10 +8026,26 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -7763,10 +8061,24 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="6" t="s">
@@ -7784,10 +8096,26 @@
       <c r="K22" s="5"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T22" s="93"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="7"/>
@@ -7801,10 +8129,26 @@
       <c r="K23" s="5"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
@@ -7822,10 +8166,26 @@
       <c r="K24" s="5"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7841,10 +8201,24 @@
       <c r="K25" s="4"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="6" t="s">
@@ -7862,10 +8236,24 @@
       <c r="K26" s="5"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
@@ -7879,10 +8267,24 @@
       <c r="K27" s="5"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
@@ -7900,10 +8302,24 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -7917,10 +8333,24 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7936,10 +8366,24 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -7953,10 +8397,24 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7970,10 +8428,24 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -7987,8 +8459,22 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="90"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8587,7 +9073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FC37AD-F8C8-422A-907B-37F83257262D}">
   <dimension ref="A3:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AC71" sqref="Z71:AC83"/>
     </sheetView>
@@ -13668,32 +14154,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="84"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="85"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="87"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -13701,37 +14187,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="83" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="87"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="85" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="86"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="82"/>
+      <c r="I14" s="85"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="86"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="83"/>
+      <c r="I15" s="86"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -13819,17 +14305,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796EB346-D7C6-4E7F-A8B8-B5F4CBF030C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8B1185-7C86-45A4-AC67-6F462D7F92A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="12" activeTab="19" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="12" activeTab="22" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="Sheet19" sheetId="21" r:id="rId20"/>
     <sheet name="Sheet20" sheetId="22" r:id="rId21"/>
     <sheet name="Sheet21" sheetId="23" r:id="rId22"/>
+    <sheet name="Sheet22" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="131">
   <si>
     <t>Georgia</t>
   </si>
@@ -3105,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AADE0C-132A-4EF3-A172-B6CF6F69AB44}">
   <dimension ref="B7:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -3777,10 +3778,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
-  <dimension ref="B4:BI28"/>
+  <dimension ref="B4:BO28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:K22"/>
+    <sheetView topLeftCell="Y4" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5:AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3791,7 +3792,7 @@
     <col min="9" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3852,8 +3853,14 @@
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
-    </row>
-    <row r="5" spans="2:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+    </row>
+    <row r="5" spans="2:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="6">
         <v>1</v>
@@ -3916,26 +3923,34 @@
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="6">
-        <v>1</v>
-      </c>
+      <c r="AV5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="6">
-        <v>1</v>
-      </c>
+      <c r="BC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
-    </row>
-    <row r="6" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+    </row>
+    <row r="6" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="66" t="s">
         <v>59</v>
@@ -3977,7 +3992,9 @@
       <c r="AD6" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="AE6" s="1"/>
+      <c r="AE6" s="6">
+        <v>1</v>
+      </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -3998,26 +4015,34 @@
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="66" t="s">
+      <c r="AV6" s="66" t="s">
         <v>59</v>
       </c>
+      <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="66" t="s">
+      <c r="BC6" s="66" t="s">
         <v>59</v>
       </c>
+      <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
-    </row>
-    <row r="7" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ6" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+    </row>
+    <row r="7" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="8">
         <v>8</v>
@@ -4080,26 +4105,34 @@
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="8">
+      <c r="AV7" s="8">
         <v>8</v>
       </c>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="5"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="8">
+      <c r="BC7" s="8">
         <v>8</v>
       </c>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="5"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
-    </row>
-    <row r="8" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ7" s="8">
+        <v>8</v>
+      </c>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+    </row>
+    <row r="8" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="59" t="s">
@@ -4142,7 +4175,9 @@
       <c r="AE8" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="AF8" s="5"/>
+      <c r="AF8" s="21">
+        <v>1</v>
+      </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -4162,26 +4197,34 @@
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="59" t="s">
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="AY8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="59" t="s">
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="BF8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
-    </row>
-    <row r="9" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+    </row>
+    <row r="9" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="6">
         <v>4</v>
@@ -4244,26 +4287,34 @@
       <c r="AS9" s="5"/>
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="6">
+      <c r="AV9" s="6">
         <v>4</v>
       </c>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="5"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="6">
+      <c r="BC9" s="6">
         <v>4</v>
       </c>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="4"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="5"/>
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
-    </row>
-    <row r="10" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ9" s="6">
+        <v>4</v>
+      </c>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+    </row>
+    <row r="10" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="66" t="s">
         <v>60</v>
@@ -4305,7 +4356,9 @@
       <c r="AD10" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AE10" s="1"/>
+      <c r="AE10" s="6">
+        <v>4</v>
+      </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="1"/>
@@ -4326,26 +4379,34 @@
       <c r="AS10" s="5"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="66" t="s">
+      <c r="AV10" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AX10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="5"/>
       <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
+      <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="66" t="s">
+      <c r="BC10" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="BE10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="5"/>
       <c r="BF10" s="5"/>
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
-    </row>
-    <row r="11" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ10" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+    </row>
+    <row r="11" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="8">
         <v>5</v>
@@ -4408,26 +4469,34 @@
       <c r="AS11" s="5"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="8">
+      <c r="AV11" s="8">
         <v>5</v>
       </c>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="5"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="8">
+      <c r="BC11" s="8">
         <v>5</v>
       </c>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="1"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="5"/>
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
-    </row>
-    <row r="12" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+    </row>
+    <row r="12" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
@@ -4471,7 +4540,9 @@
       <c r="AF12" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="AG12" s="5"/>
+      <c r="AG12" s="21">
+        <v>1</v>
+      </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="6"/>
@@ -4490,24 +4561,32 @@
       <c r="AS12" s="5"/>
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="59" t="s">
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="AZ12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="59"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF12" s="5"/>
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
-    </row>
-    <row r="13" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+    </row>
+    <row r="13" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="6">
         <v>3</v>
@@ -4570,26 +4649,34 @@
       <c r="AS13" s="4"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="6">
+      <c r="AV13" s="6">
         <v>3</v>
       </c>
+      <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="6">
+      <c r="BC13" s="6">
         <v>3</v>
       </c>
+      <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
+      <c r="BF13" s="4"/>
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
-    </row>
-    <row r="14" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ13" s="6">
+        <v>3</v>
+      </c>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+    </row>
+    <row r="14" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="66" t="s">
         <v>61</v>
@@ -4631,7 +4718,9 @@
       <c r="AD14" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="AE14" s="1"/>
+      <c r="AE14" s="6">
+        <v>3</v>
+      </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="1"/>
@@ -4652,26 +4741,34 @@
       <c r="AS14" s="5"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="66" t="s">
+      <c r="AV14" s="66" t="s">
         <v>61</v>
       </c>
+      <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="66" t="s">
+      <c r="BC14" s="66" t="s">
         <v>61</v>
       </c>
+      <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
+      <c r="BF14" s="5"/>
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
-    </row>
-    <row r="15" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ14" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+    </row>
+    <row r="15" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="8">
         <v>6</v>
@@ -4734,26 +4831,34 @@
       <c r="AS15" s="5"/>
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="8">
+      <c r="AV15" s="8">
         <v>6</v>
       </c>
-      <c r="AX15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="5"/>
       <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
+      <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="8">
+      <c r="BC15" s="8">
         <v>6</v>
       </c>
-      <c r="BE15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="5"/>
       <c r="BF15" s="5"/>
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
-    </row>
-    <row r="16" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ15" s="8">
+        <v>6</v>
+      </c>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+    </row>
+    <row r="16" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
       <c r="D16" s="59" t="s">
@@ -4796,7 +4901,9 @@
       <c r="AE16" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AF16" s="5"/>
+      <c r="AF16" s="21">
+        <v>2</v>
+      </c>
       <c r="AG16" s="5"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -4816,26 +4923,34 @@
       <c r="AS16" s="5"/>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="6"/>
-      <c r="AX16" s="59" t="s">
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="59" t="s">
         <v>64</v>
       </c>
+      <c r="AX16" s="5"/>
       <c r="AY16" s="5"/>
-      <c r="AZ16" s="5"/>
+      <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="6"/>
-      <c r="BE16" s="59" t="s">
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="59" t="s">
         <v>64</v>
       </c>
+      <c r="BE16" s="5"/>
       <c r="BF16" s="5"/>
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
-    </row>
-    <row r="17" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ16" s="6"/>
+      <c r="BK16" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+    </row>
+    <row r="17" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="6">
         <v>2</v>
@@ -4898,26 +5013,34 @@
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="6">
+      <c r="AV17" s="6">
         <v>2</v>
       </c>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="4"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="6">
+      <c r="BC17" s="6">
         <v>2</v>
       </c>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="4"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="1"/>
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
-    </row>
-    <row r="18" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ17" s="6">
+        <v>2</v>
+      </c>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+    </row>
+    <row r="18" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="66" t="s">
         <v>62</v>
@@ -4963,7 +5086,9 @@
       <c r="AD18" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="AE18" s="1"/>
+      <c r="AE18" s="6">
+        <v>2</v>
+      </c>
       <c r="AF18" s="5"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -4984,26 +5109,34 @@
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="66" t="s">
+      <c r="AV18" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="5"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="66" t="s">
+      <c r="BC18" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="5"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="1"/>
       <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
-    </row>
-    <row r="19" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ18" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+    </row>
+    <row r="19" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="8">
         <v>7</v>
@@ -5066,34 +5199,42 @@
       <c r="AQ19" s="4"/>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
-      <c r="AT19" s="1" t="s">
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="8">
+        <v>7</v>
+      </c>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="8">
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="8">
         <v>7</v>
       </c>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1" t="s">
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="8">
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="8">
         <v>7</v>
       </c>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1" t="s">
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BI19" s="1"/>
-    </row>
-    <row r="20" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BO19" s="1"/>
+    </row>
+    <row r="20" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5136,8 +5277,8 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="6" t="s">
-        <v>64</v>
+      <c r="AF20" s="6">
+        <v>3</v>
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -5145,7 +5286,7 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
@@ -5153,31 +5294,39 @@
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AS20" s="1"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="5"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
-      <c r="AX20" s="1"/>
-      <c r="AY20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ20" s="1"/>
-      <c r="BA20" s="66"/>
-      <c r="BB20" s="5"/>
+      <c r="AX20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="66"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
-      <c r="BE20" s="1"/>
-      <c r="BF20" s="6" t="s">
+      <c r="BE20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BG20" s="1"/>
-      <c r="BH20" s="59"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="66"/>
+      <c r="BH20" s="5"/>
       <c r="BI20" s="1"/>
-    </row>
-    <row r="21" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="59"/>
+      <c r="BO20" s="1"/>
+    </row>
+    <row r="21" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5217,13 +5366,15 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
-      <c r="AE21" s="6" t="s">
-        <v>59</v>
+      <c r="AE21" s="6">
+        <v>8</v>
       </c>
       <c r="AF21" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="AG21" s="1"/>
+      <c r="AG21" s="1">
+        <v>3</v>
+      </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -5238,44 +5389,54 @@
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AR21" s="66" t="s">
         <v>81</v>
       </c>
       <c r="AS21" s="1"/>
-      <c r="AT21" s="59" t="s">
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX21" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
-      <c r="AX21" s="6" t="s">
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AY21" s="66" t="s">
+      <c r="BE21" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="AZ21" s="1"/>
-      <c r="BA21" s="59" t="s">
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="BB21" s="5"/>
-      <c r="BC21" s="1"/>
-      <c r="BD21" s="1"/>
-      <c r="BE21" s="6" t="s">
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BF21" s="66" t="s">
+      <c r="BL21" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="BG21" s="1"/>
-      <c r="BH21" s="59" t="s">
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="BI21" s="1"/>
-    </row>
-    <row r="22" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BO21" s="1"/>
+    </row>
+    <row r="22" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5318,7 +5479,9 @@
       <c r="AE22" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="AF22" s="8"/>
+      <c r="AF22" s="8">
+        <v>5</v>
+      </c>
       <c r="AG22" s="4"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="1"/>
@@ -5337,27 +5500,35 @@
       <c r="AR22" s="8"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="5"/>
-      <c r="AU22" s="4"/>
+      <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="66" t="s">
+      <c r="AW22" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="4"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
-      <c r="BD22" s="1"/>
-      <c r="BE22" s="66" t="s">
+      <c r="BD22" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="BF22" s="8"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="1"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="4"/>
       <c r="BI22" s="1"/>
-    </row>
-    <row r="23" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL22" s="8"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+    </row>
+    <row r="23" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5387,18 +5558,20 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
-      <c r="AE23" s="8" t="s">
-        <v>60</v>
+      <c r="AE23" s="8">
+        <v>5</v>
       </c>
       <c r="AF23" s="4"/>
       <c r="AG23" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="AH23" s="5"/>
+      <c r="AH23" s="5">
+        <v>3</v>
+      </c>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL23" s="4"/>
       <c r="AM23" s="59" t="s">
@@ -5408,36 +5581,46 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR23" s="4"/>
       <c r="AS23" s="59" t="s">
         <v>90</v>
       </c>
       <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
+      <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="8" t="s">
+      <c r="AW23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="59" t="s">
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="8" t="s">
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="59"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
-    </row>
-    <row r="24" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="59"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+    </row>
+    <row r="24" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -5468,8 +5651,8 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="6" t="s">
-        <v>63</v>
+      <c r="AF24" s="6">
+        <v>4</v>
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="4"/>
@@ -5477,7 +5660,7 @@
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="4"/>
@@ -5485,31 +5668,39 @@
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AS24" s="1"/>
       <c r="AT24" s="4"/>
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="4"/>
+      <c r="AX24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-      <c r="BF24" s="6" t="s">
+      <c r="BE24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BG24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="4"/>
       <c r="BH24" s="1"/>
       <c r="BI24" s="1"/>
-    </row>
-    <row r="25" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+    </row>
+    <row r="25" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5539,18 +5730,20 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
-      <c r="AE25" s="6" t="s">
-        <v>61</v>
+      <c r="AE25" s="6">
+        <v>7</v>
       </c>
       <c r="AF25" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="AG25" s="1"/>
+      <c r="AG25" s="1">
+        <v>4</v>
+      </c>
       <c r="AH25" s="5"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL25" s="66" t="s">
         <v>91</v>
@@ -5559,7 +5752,9 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
-      <c r="AQ25" s="6"/>
+      <c r="AQ25" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="AR25" s="66" t="s">
         <v>91</v>
       </c>
@@ -5567,29 +5762,37 @@
       <c r="AT25" s="5"/>
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY25" s="66" t="s">
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="5"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="6" t="s">
+      <c r="BD25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BF25" s="66" t="s">
+      <c r="BE25" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="BG25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="5"/>
       <c r="BH25" s="1"/>
       <c r="BI25" s="1"/>
-    </row>
-    <row r="26" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL25" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+    </row>
+    <row r="26" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5622,7 +5825,9 @@
       <c r="AE26" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="AF26" s="8"/>
+      <c r="AF26" s="8">
+        <v>6</v>
+      </c>
       <c r="AG26" s="4"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
@@ -5635,33 +5840,41 @@
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="AQ26" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR26" s="8"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY26" s="8"/>
-      <c r="AZ26" s="4"/>
+      <c r="AW26" s="59"/>
+      <c r="AX26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
-      <c r="BD26" s="1"/>
-      <c r="BE26" s="66" t="s">
+      <c r="BD26" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="BF26" s="8"/>
-      <c r="BG26" s="4"/>
+      <c r="BE26" s="8"/>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="1"/>
       <c r="BH26" s="1"/>
       <c r="BI26" s="1"/>
-    </row>
-    <row r="27" spans="2:61" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL26" s="8"/>
+      <c r="BM26" s="4"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+    </row>
+    <row r="27" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5691,8 +5904,8 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
-      <c r="AE27" s="8" t="s">
-        <v>62</v>
+      <c r="AE27" s="8">
+        <v>6</v>
       </c>
       <c r="AF27" s="4"/>
       <c r="AG27" s="1"/>
@@ -5707,31 +5920,39 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="9"/>
+      <c r="AQ27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR27" s="4"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY27" s="4"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="8" t="s">
+      <c r="BD27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BF27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="1"/>
       <c r="BG27" s="1"/>
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
-    </row>
-    <row r="28" spans="2:61" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL27" s="4"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+    </row>
+    <row r="28" spans="2:67" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5792,6 +6013,12 @@
       <c r="BG28" s="1"/>
       <c r="BH28" s="1"/>
       <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6875,7 +7102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D84D55B-86DB-41A7-86B6-8D3E6C4FEE99}">
   <dimension ref="C4:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14:H28"/>
     </sheetView>
   </sheetViews>
@@ -7436,15 +7663,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A138887D-E83F-4832-AC66-DEE1E0C0D3AC}">
-  <dimension ref="A4:AC33"/>
+  <dimension ref="A4:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7475,7 +7702,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7526,7 +7753,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7569,7 +7796,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -7604,7 +7831,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -7637,7 +7864,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
@@ -7672,7 +7899,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7711,7 +7938,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -7746,7 +7973,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>111</v>
@@ -7778,8 +8005,13 @@
       <c r="AA12" s="90"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="13" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
@@ -7813,8 +8045,13 @@
       <c r="AA13" s="90"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="8" t="s">
         <v>111</v>
@@ -7839,15 +8076,22 @@
       <c r="T14" s="4"/>
       <c r="U14" s="90"/>
       <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -7872,15 +8116,22 @@
       <c r="T15" s="5"/>
       <c r="U15" s="90"/>
       <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+    </row>
+    <row r="16" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -7905,15 +8156,24 @@
       <c r="T16" s="5"/>
       <c r="U16" s="90"/>
       <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+    </row>
+    <row r="17" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -7938,15 +8198,20 @@
       <c r="T17" s="5"/>
       <c r="U17" s="90"/>
       <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="5"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+    </row>
+    <row r="18" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7969,15 +8234,24 @@
       <c r="T18" s="1"/>
       <c r="U18" s="90"/>
       <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="5"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+    </row>
+    <row r="19" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -8002,15 +8276,22 @@
       <c r="T19" s="1"/>
       <c r="U19" s="90"/>
       <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="4"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8037,15 +8318,24 @@
       <c r="T20" s="1"/>
       <c r="U20" s="90"/>
       <c r="V20" s="90"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="5"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8070,15 +8360,20 @@
       <c r="T21" s="90"/>
       <c r="U21" s="90"/>
       <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="90"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-    </row>
-    <row r="22" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="6" t="s">
@@ -8107,15 +8402,24 @@
       <c r="T22" s="93"/>
       <c r="U22" s="90"/>
       <c r="V22" s="91"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+    </row>
+    <row r="23" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="7"/>
@@ -8137,18 +8441,22 @@
       <c r="S23" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="T23" s="1"/>
       <c r="U23" s="90"/>
       <c r="V23" s="91"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-    </row>
-    <row r="24" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+    </row>
+    <row r="24" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
@@ -8174,18 +8482,24 @@
       <c r="S24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="T24" s="4"/>
       <c r="U24" s="90"/>
       <c r="V24" s="91"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+    </row>
+    <row r="25" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -8210,15 +8524,20 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="91"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="90"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+    </row>
+    <row r="26" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="6" t="s">
@@ -8240,9 +8559,9 @@
       <c r="O26" s="90"/>
       <c r="P26" s="90"/>
       <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
+      <c r="T26" s="1"/>
       <c r="U26" s="90"/>
       <c r="V26" s="91"/>
       <c r="W26" s="90"/>
@@ -8252,8 +8571,13 @@
       <c r="AA26" s="90"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+    </row>
+    <row r="27" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
@@ -8270,7 +8594,7 @@
       <c r="N27" s="90"/>
       <c r="O27" s="90"/>
       <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
+      <c r="Q27" s="90"/>
       <c r="R27" s="90"/>
       <c r="S27" s="90"/>
       <c r="T27" s="90"/>
@@ -8283,8 +8607,13 @@
       <c r="AA27" s="90"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+    </row>
+    <row r="28" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
@@ -8305,7 +8634,7 @@
       <c r="N28" s="90"/>
       <c r="O28" s="90"/>
       <c r="P28" s="90"/>
-      <c r="Q28" s="91"/>
+      <c r="Q28" s="90"/>
       <c r="R28" s="90"/>
       <c r="S28" s="90"/>
       <c r="T28" s="90"/>
@@ -8319,7 +8648,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8336,9 +8665,11 @@
       <c r="N29" s="90"/>
       <c r="O29" s="90"/>
       <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="S29" s="5"/>
       <c r="T29" s="90"/>
       <c r="U29" s="90"/>
       <c r="V29" s="91"/>
@@ -8350,7 +8681,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8369,10 +8700,12 @@
       <c r="N30" s="90"/>
       <c r="O30" s="90"/>
       <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
+      <c r="Q30" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="5"/>
       <c r="U30" s="90"/>
       <c r="V30" s="91"/>
       <c r="W30" s="90"/>
@@ -8383,7 +8716,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8396,14 +8729,14 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="90"/>
       <c r="N31" s="90"/>
       <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="5"/>
       <c r="U31" s="90"/>
       <c r="V31" s="90"/>
       <c r="W31" s="90"/>
@@ -8414,7 +8747,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8427,14 +8760,16 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="90"/>
       <c r="N32" s="90"/>
       <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="T32" s="5"/>
       <c r="U32" s="90"/>
       <c r="V32" s="90"/>
       <c r="W32" s="90"/>
@@ -8445,7 +8780,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8458,14 +8793,16 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="90"/>
       <c r="N33" s="90"/>
       <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="4"/>
       <c r="U33" s="90"/>
       <c r="V33" s="90"/>
       <c r="W33" s="90"/>
@@ -8475,6 +8812,189 @@
       <c r="AA33" s="90"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="90"/>
+      <c r="V34" s="90"/>
+      <c r="W34" s="90"/>
+    </row>
+    <row r="35" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="90"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="90"/>
+    </row>
+    <row r="36" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="90"/>
+    </row>
+    <row r="37" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="R37" s="1"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+    </row>
+    <row r="38" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="90"/>
+      <c r="W38" s="90"/>
+    </row>
+    <row r="39" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="90"/>
+    </row>
+    <row r="40" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T40" s="93"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="90"/>
+      <c r="W40" s="90"/>
+    </row>
+    <row r="41" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="90"/>
+      <c r="V41" s="90"/>
+      <c r="W41" s="90"/>
+    </row>
+    <row r="42" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+    </row>
+    <row r="43" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="90"/>
+      <c r="U43" s="90"/>
+      <c r="V43" s="90"/>
+      <c r="W43" s="90"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="90"/>
+      <c r="U44" s="90"/>
+      <c r="V44" s="90"/>
+      <c r="W44" s="90"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="90"/>
+      <c r="U45" s="90"/>
+      <c r="V45" s="90"/>
+      <c r="W45" s="90"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="90"/>
+      <c r="W46" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10188,6 +10708,577 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DB49D5-2BEF-4B19-896A-64C90AC94C6F}">
+  <dimension ref="B2:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10739,7 +11830,7 @@
   <dimension ref="A5:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E14"/>
+      <selection activeCell="K5" sqref="A5:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8B1185-7C86-45A4-AC67-6F462D7F92A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C83B625-F1BE-417E-8334-5C55C9E57AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="12" activeTab="22" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="13" activeTab="23" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="Sheet20" sheetId="22" r:id="rId21"/>
     <sheet name="Sheet21" sheetId="23" r:id="rId22"/>
     <sheet name="Sheet22" sheetId="24" r:id="rId23"/>
+    <sheet name="Sheet23" sheetId="25" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="139">
   <si>
     <t>Georgia</t>
   </si>
@@ -452,6 +453,30 @@
   <si>
     <t>C2</t>
   </si>
+  <si>
+    <t>X-j</t>
+  </si>
+  <si>
+    <t>X-i</t>
+  </si>
+  <si>
+    <t>1v2</t>
+  </si>
+  <si>
+    <t>1v3</t>
+  </si>
+  <si>
+    <t>4v2</t>
+  </si>
+  <si>
+    <t>4v3</t>
+  </si>
+  <si>
+    <t>pkj*W(x-j)</t>
+  </si>
+  <si>
+    <t>pki*W(x-i)</t>
+  </si>
 </sst>
 </file>
 
@@ -487,7 +512,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +546,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1043,10 +1074,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1055,13 +1092,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,16 +1104,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3286,7 +3311,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="85" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1"/>
@@ -3295,7 +3320,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="84"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -3341,7 +3366,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="85" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1"/>
@@ -3350,7 +3375,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="84"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -7123,16 +7148,16 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="89"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="67"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="89"/>
+      <c r="I5" s="90"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -7771,12 +7796,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
         <v>5</v>
       </c>
-      <c r="Q6" s="90">
+      <c r="Q6" s="1">
         <v>4</v>
       </c>
       <c r="R6" s="1">
@@ -7786,13 +7811,13 @@
         <v>1</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
@@ -7814,20 +7839,20 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
@@ -7847,20 +7872,20 @@
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="91"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="90"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
@@ -7880,22 +7905,22 @@
       <c r="K9" s="1"/>
       <c r="L9" s="5"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="66" t="s">
         <v>65</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
@@ -7919,22 +7944,22 @@
       <c r="K10" s="1"/>
       <c r="L10" s="4"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="66" t="s">
         <v>63</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="4"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
@@ -7956,20 +7981,20 @@
       <c r="K11" s="1"/>
       <c r="L11" s="5"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="4"/>
       <c r="S11" s="1"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
@@ -7989,20 +8014,20 @@
       <c r="K12" s="4"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -8027,22 +8052,22 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="91"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="1"/>
       <c r="S13" s="59" t="s">
         <v>66</v>
       </c>
       <c r="T13" s="5"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
@@ -8067,15 +8092,15 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -8105,17 +8130,17 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="6"/>
       <c r="Q15" s="66" t="s">
         <v>64</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
@@ -8145,17 +8170,17 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="Q16" s="92"/>
+      <c r="Q16" s="81"/>
       <c r="R16" s="4"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1" t="s">
         <v>64</v>
@@ -8187,8 +8212,8 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="59" t="s">
@@ -8196,8 +8221,8 @@
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="1"/>
@@ -8225,15 +8250,15 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="1"/>
       <c r="S18" s="4"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="3" t="s">
         <v>60</v>
@@ -8265,17 +8290,17 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="91"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="66" t="s">
         <v>129</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="5"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1" t="s">
@@ -8307,17 +8332,17 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="Q20" s="92"/>
+      <c r="Q20" s="81"/>
       <c r="R20" s="4"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1" t="s">
         <v>129</v>
@@ -8351,15 +8376,15 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="91"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="6"/>
       <c r="W21" s="1"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="1"/>
@@ -8391,17 +8416,17 @@
       <c r="K22" s="5"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T22" s="93"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="91"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="6"/>
       <c r="W22" s="1"/>
       <c r="X22" s="3" t="s">
         <v>59</v>
@@ -8433,16 +8458,16 @@
       <c r="K23" s="5"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="U23" s="90"/>
-      <c r="V23" s="91"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="6"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -8474,16 +8499,16 @@
       <c r="K24" s="5"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="90"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="1"/>
       <c r="S24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="U24" s="90"/>
-      <c r="V24" s="91"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="6"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -8515,15 +8540,15 @@
       <c r="K25" s="4"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="90"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="91"/>
+      <c r="V25" s="6"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -8555,20 +8580,20 @@
       <c r="K26" s="5"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="90"/>
+      <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -8591,20 +8616,20 @@
       <c r="K27" s="5"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="90"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -8631,20 +8656,20 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="90"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
@@ -8662,22 +8687,22 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="66" t="s">
         <v>65</v>
       </c>
       <c r="S29" s="5"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
@@ -8697,22 +8722,22 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
       <c r="Q30" s="66" t="s">
         <v>63</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="4"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
@@ -8729,21 +8754,21 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="91"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="4"/>
       <c r="S31" s="1"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
@@ -8760,23 +8785,23 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="91"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="1"/>
       <c r="S32" s="59" t="s">
         <v>66</v>
       </c>
       <c r="T32" s="5"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
@@ -8793,45 +8818,45 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="91"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="6"/>
       <c r="Q33" s="66" t="s">
         <v>64</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="90"/>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="90"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
     <row r="34" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="Q34" s="92"/>
+      <c r="Q34" s="81"/>
       <c r="R34" s="4"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="59" t="s">
@@ -8839,162 +8864,162 @@
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="1"/>
       <c r="S36" s="4"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="91"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="6"/>
       <c r="Q37" s="66" t="s">
         <v>129</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="5"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="90"/>
-      <c r="W37" s="90"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
       <c r="P38" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="Q38" s="92"/>
+      <c r="Q38" s="81"/>
       <c r="R38" s="4"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="90"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="90"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="90"/>
-      <c r="V39" s="90"/>
-      <c r="W39" s="90"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T40" s="93"/>
-      <c r="U40" s="90"/>
-      <c r="V40" s="90"/>
-      <c r="W40" s="90"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="66" t="s">
         <v>81</v>
       </c>
       <c r="T41" s="1"/>
-      <c r="U41" s="90"/>
-      <c r="V41" s="90"/>
-      <c r="W41" s="90"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="90"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="1"/>
       <c r="S42" s="8" t="s">
         <v>130</v>
       </c>
       <c r="T42" s="4"/>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="M43" s="90"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="90"/>
-      <c r="U43" s="90"/>
-      <c r="V43" s="90"/>
-      <c r="W43" s="90"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
-      <c r="V44" s="90"/>
-      <c r="W44" s="90"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="90"/>
-      <c r="P45" s="90"/>
-      <c r="Q45" s="90"/>
-      <c r="R45" s="90"/>
-      <c r="S45" s="90"/>
-      <c r="T45" s="90"/>
-      <c r="U45" s="90"/>
-      <c r="V45" s="90"/>
-      <c r="W45" s="90"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="M46" s="90"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="90"/>
-      <c r="R46" s="90"/>
-      <c r="S46" s="90"/>
-      <c r="T46" s="90"/>
-      <c r="U46" s="90"/>
-      <c r="V46" s="90"/>
-      <c r="W46" s="90"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10716,7 +10741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DB49D5-2BEF-4B19-896A-64C90AC94C6F}">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -11277,6 +11302,633 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887B89AA-C696-4373-8C0A-DD193E62BDA9}">
+  <dimension ref="C5:AC25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="91">
+        <f>1-E9</f>
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="91">
+        <f>1-E10</f>
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="91">
+        <f>1-E11</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="91" t="b">
+        <f>AND(E8&lt;=F8,F8&lt;=G8,G8&lt;=H8)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="91">
+        <f>1-S9</f>
+        <v>0.8</v>
+      </c>
+      <c r="U8" s="91">
+        <f>1-S10</f>
+        <v>0.8</v>
+      </c>
+      <c r="V8" s="91">
+        <f>1-S11</f>
+        <v>0.9</v>
+      </c>
+      <c r="X8" s="91" t="b">
+        <f>AND(S8&lt;=T8,T8&lt;=U8,U8&lt;=V8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="91">
+        <f>1-F10</f>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="91">
+        <f>1-F11</f>
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="91" t="b">
+        <f>AND(E9&lt;=F9,F9&lt;=G9,G9&lt;=H9)</f>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>0.2</v>
+      </c>
+      <c r="T9" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="91">
+        <f>1-T10</f>
+        <v>0.5</v>
+      </c>
+      <c r="V9" s="91">
+        <f>1-T11</f>
+        <v>0.8</v>
+      </c>
+      <c r="X9" s="91" t="b">
+        <f>AND(S9&lt;=T9,T9&lt;=U9,U9&lt;=V9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="91">
+        <f>1-G11</f>
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="91" t="b">
+        <f>AND(E10&lt;=F10,F10&lt;=G10,G10&lt;=H10)</f>
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>0.2</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="V10" s="91">
+        <f>1-U11</f>
+        <v>0.8</v>
+      </c>
+      <c r="X10" s="91" t="b">
+        <f>AND(S10&lt;=T10,T10&lt;=U10,U10&lt;=V10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="91" t="b">
+        <f>AND(E11&lt;=F11,F11&lt;=G11,G11&lt;=H11)</f>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>0.1</v>
+      </c>
+      <c r="T11">
+        <v>0.2</v>
+      </c>
+      <c r="U11">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="91" t="b">
+        <f>AND(S11&lt;=T11,T11&lt;=U11,U11&lt;=V11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="E13" s="91" t="b">
+        <f>AND(E11&lt;=E10, E10&lt;=E9, E9&lt;=E8)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="91" t="b">
+        <f>AND(F11&lt;=F10, F10&lt;=F9, F9&lt;=F8)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="91" t="b">
+        <f>AND(G11&lt;=G10, G10&lt;=G9, G9&lt;=G8)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="91" t="b">
+        <f>AND(H11&lt;=H10, H10&lt;=H9, H9&lt;=H8)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <f>AND(E13:H13,J8:J11)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="91" t="b">
+        <f>AND(S11&lt;=S10, S10&lt;=S9, S9&lt;=S8)</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="91" t="b">
+        <f>AND(T11&lt;=T10, T10&lt;=T9, T9&lt;=T8)</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="91" t="b">
+        <f>AND(U11&lt;=U10, U10&lt;=U9, U9&lt;=U8)</f>
+        <v>1</v>
+      </c>
+      <c r="V13" s="91" t="b">
+        <f>AND(V11&lt;=V10, V10&lt;=V9, V9&lt;=V8)</f>
+        <v>1</v>
+      </c>
+      <c r="X13" t="b">
+        <f>AND(S13:V13,X8:X11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17">
+        <f>F8</f>
+        <v>0.8</v>
+      </c>
+      <c r="F17">
+        <f>E9</f>
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <f>H8*G9</f>
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <f>E17*$H17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:O20" si="0">F17*$H17</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17">
+        <f>T8</f>
+        <v>0.8</v>
+      </c>
+      <c r="T17">
+        <f>S9</f>
+        <v>0.2</v>
+      </c>
+      <c r="W17">
+        <f>V8*U9</f>
+        <v>0.45</v>
+      </c>
+      <c r="Z17">
+        <f>S17*$V17</f>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" ref="AA17:AC20" si="1">T17*$V17</f>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18">
+        <f>G8</f>
+        <v>0.8</v>
+      </c>
+      <c r="G18">
+        <f>E10</f>
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <f>H8*F10</f>
+        <v>0.5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L20" si="2">E18*$H18</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S18">
+        <f>U8</f>
+        <v>0.8</v>
+      </c>
+      <c r="U18">
+        <f>S10</f>
+        <v>0.2</v>
+      </c>
+      <c r="W18">
+        <f>V8*T10</f>
+        <v>0.45</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ref="Z18:Z20" si="3">S18*$V18</f>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19">
+        <f>H9</f>
+        <v>0.8</v>
+      </c>
+      <c r="H19">
+        <f>F11</f>
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <f>E11*G9</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>135</v>
+      </c>
+      <c r="T19">
+        <f>V9</f>
+        <v>0.8</v>
+      </c>
+      <c r="V19">
+        <f>T11</f>
+        <v>0.2</v>
+      </c>
+      <c r="W19">
+        <f>S11*U9</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20">
+        <f>H10</f>
+        <v>0.8</v>
+      </c>
+      <c r="H20">
+        <f>G11</f>
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <f>E11*F10</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>136</v>
+      </c>
+      <c r="U20">
+        <f>V10</f>
+        <v>0.8</v>
+      </c>
+      <c r="V20">
+        <f>U11</f>
+        <v>0.2</v>
+      </c>
+      <c r="W20">
+        <f>S11*T10</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f>SUM(L17:L20)</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>SUM(M17:M20)</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="N22">
+        <f>SUM(N17:N20)</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="O22">
+        <f>SUM(O17:O20)</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="Z22">
+        <f>SUM(Z17:Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f>SUM(AA17:AA20)</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="AB22">
+        <f>SUM(AB17:AB20)</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="AC22">
+        <f>SUM(AC17:AC20)</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <f>N22*S10</f>
+        <v>3.2000000000000008E-2</v>
+      </c>
+      <c r="AB24">
+        <f>AB22*E10</f>
+        <v>3.2000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="N25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15037,7 +15689,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="81"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -15045,7 +15697,7 @@
     <row r="9" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="81"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
@@ -15079,7 +15731,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="81"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -15087,7 +15739,7 @@
     <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="81"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
@@ -15121,7 +15773,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -15129,7 +15781,7 @@
     <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
@@ -15225,7 +15877,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="81"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -15235,7 +15887,7 @@
     <row r="9" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="81"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
@@ -15245,32 +15897,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="85" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="87"/>
-      <c r="F10" s="82"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="83"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="87"/>
-      <c r="F11" s="82"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="84"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="82"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -15278,37 +15930,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="82"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="85" t="s">
+      <c r="I13" s="83" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="82"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="87"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="85"/>
+      <c r="I14" s="83"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="87"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="86"/>
+      <c r="I15" s="84"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -15317,7 +15969,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="81"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -15327,7 +15979,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="81"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
@@ -15365,9 +16017,9 @@
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
@@ -15375,9 +16027,9 @@
     <row r="21" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
@@ -15396,17 +16048,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C83B625-F1BE-417E-8334-5C55C9E57AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B54E07-806C-4DEB-9E1E-E50D66834459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="13" activeTab="23" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="16" activeTab="24" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="Sheet21" sheetId="23" r:id="rId22"/>
     <sheet name="Sheet22" sheetId="24" r:id="rId23"/>
     <sheet name="Sheet23" sheetId="25" r:id="rId24"/>
+    <sheet name="Sheet24" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="144">
   <si>
     <t>Georgia</t>
   </si>
@@ -476,6 +477,21 @@
   </si>
   <si>
     <t>pki*W(x-i)</t>
+  </si>
+  <si>
+    <t>k-1</t>
+  </si>
+  <si>
+    <t>\ell</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>\ell-1</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -948,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1077,8 +1093,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1087,15 +1113,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,7 +1121,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7148,16 +7174,16 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="90"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="67"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="90"/>
+      <c r="I5" s="91"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -9030,7 +9056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DAA05C-8B34-498C-B0AB-56B73244FFB8}">
   <dimension ref="A4:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="C8" workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
@@ -11312,8 +11338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887B89AA-C696-4373-8C0A-DD193E62BDA9}">
   <dimension ref="C5:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BM17" sqref="BM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11359,22 +11385,22 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="82">
         <v>0.5</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="82">
         <f>1-E9</f>
         <v>0.8</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="82">
         <f>1-E10</f>
         <v>0.8</v>
       </c>
-      <c r="H8" s="91">
+      <c r="H8" s="82">
         <f>1-E11</f>
         <v>1</v>
       </c>
-      <c r="J8" s="91" t="b">
+      <c r="J8" s="82" t="b">
         <f>AND(E8&lt;=F8,F8&lt;=G8,G8&lt;=H8)</f>
         <v>1</v>
       </c>
@@ -11384,22 +11410,22 @@
       <c r="R8">
         <v>1</v>
       </c>
-      <c r="S8" s="91">
+      <c r="S8" s="82">
         <v>0.5</v>
       </c>
-      <c r="T8" s="91">
+      <c r="T8" s="82">
         <f>1-S9</f>
         <v>0.8</v>
       </c>
-      <c r="U8" s="91">
+      <c r="U8" s="82">
         <f>1-S10</f>
         <v>0.8</v>
       </c>
-      <c r="V8" s="91">
+      <c r="V8" s="82">
         <f>1-S11</f>
         <v>0.9</v>
       </c>
-      <c r="X8" s="91" t="b">
+      <c r="X8" s="82" t="b">
         <f>AND(S8&lt;=T8,T8&lt;=U8,U8&lt;=V8)</f>
         <v>1</v>
       </c>
@@ -11411,18 +11437,18 @@
       <c r="E9">
         <v>0.2</v>
       </c>
-      <c r="F9" s="91">
+      <c r="F9" s="82">
         <v>0.5</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="82">
         <f>1-F10</f>
         <v>0.5</v>
       </c>
-      <c r="H9" s="91">
+      <c r="H9" s="82">
         <f>1-F11</f>
         <v>0.8</v>
       </c>
-      <c r="J9" s="91" t="b">
+      <c r="J9" s="82" t="b">
         <f>AND(E9&lt;=F9,F9&lt;=G9,G9&lt;=H9)</f>
         <v>1</v>
       </c>
@@ -11432,18 +11458,18 @@
       <c r="S9">
         <v>0.2</v>
       </c>
-      <c r="T9" s="91">
+      <c r="T9" s="82">
         <v>0.5</v>
       </c>
-      <c r="U9" s="91">
+      <c r="U9" s="82">
         <f>1-T10</f>
         <v>0.5</v>
       </c>
-      <c r="V9" s="91">
+      <c r="V9" s="82">
         <f>1-T11</f>
         <v>0.8</v>
       </c>
-      <c r="X9" s="91" t="b">
+      <c r="X9" s="82" t="b">
         <f>AND(S9&lt;=T9,T9&lt;=U9,U9&lt;=V9)</f>
         <v>1</v>
       </c>
@@ -11458,14 +11484,14 @@
       <c r="F10">
         <v>0.5</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="82">
         <v>0.5</v>
       </c>
-      <c r="H10" s="91">
+      <c r="H10" s="82">
         <f>1-G11</f>
         <v>0.8</v>
       </c>
-      <c r="J10" s="91" t="b">
+      <c r="J10" s="82" t="b">
         <f>AND(E10&lt;=F10,F10&lt;=G10,G10&lt;=H10)</f>
         <v>1</v>
       </c>
@@ -11478,14 +11504,14 @@
       <c r="T10">
         <v>0.5</v>
       </c>
-      <c r="U10" s="91">
+      <c r="U10" s="82">
         <v>0.5</v>
       </c>
-      <c r="V10" s="91">
+      <c r="V10" s="82">
         <f>1-U11</f>
         <v>0.8</v>
       </c>
-      <c r="X10" s="91" t="b">
+      <c r="X10" s="82" t="b">
         <f>AND(S10&lt;=T10,T10&lt;=U10,U10&lt;=V10)</f>
         <v>1</v>
       </c>
@@ -11503,10 +11529,10 @@
       <c r="G11">
         <v>0.2</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="82">
         <v>0.5</v>
       </c>
-      <c r="J11" s="91" t="b">
+      <c r="J11" s="82" t="b">
         <f>AND(E11&lt;=F11,F11&lt;=G11,G11&lt;=H11)</f>
         <v>1</v>
       </c>
@@ -11522,28 +11548,28 @@
       <c r="U11">
         <v>0.2</v>
       </c>
-      <c r="V11" s="91">
+      <c r="V11" s="82">
         <v>0.5</v>
       </c>
-      <c r="X11" s="91" t="b">
+      <c r="X11" s="82" t="b">
         <f>AND(S11&lt;=T11,T11&lt;=U11,U11&lt;=V11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="E13" s="91" t="b">
+      <c r="E13" s="82" t="b">
         <f>AND(E11&lt;=E10, E10&lt;=E9, E9&lt;=E8)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="91" t="b">
+      <c r="F13" s="82" t="b">
         <f>AND(F11&lt;=F10, F10&lt;=F9, F9&lt;=F8)</f>
         <v>1</v>
       </c>
-      <c r="G13" s="91" t="b">
+      <c r="G13" s="82" t="b">
         <f>AND(G11&lt;=G10, G10&lt;=G9, G9&lt;=G8)</f>
         <v>1</v>
       </c>
-      <c r="H13" s="91" t="b">
+      <c r="H13" s="82" t="b">
         <f>AND(H11&lt;=H10, H10&lt;=H9, H9&lt;=H8)</f>
         <v>1</v>
       </c>
@@ -11551,19 +11577,19 @@
         <f>AND(E13:H13,J8:J11)</f>
         <v>1</v>
       </c>
-      <c r="S13" s="91" t="b">
+      <c r="S13" s="82" t="b">
         <f>AND(S11&lt;=S10, S10&lt;=S9, S9&lt;=S8)</f>
         <v>1</v>
       </c>
-      <c r="T13" s="91" t="b">
+      <c r="T13" s="82" t="b">
         <f>AND(T11&lt;=T10, T10&lt;=T9, T9&lt;=T8)</f>
         <v>1</v>
       </c>
-      <c r="U13" s="91" t="b">
+      <c r="U13" s="82" t="b">
         <f>AND(U11&lt;=U10, U10&lt;=U9, U9&lt;=U8)</f>
         <v>1</v>
       </c>
-      <c r="V13" s="91" t="b">
+      <c r="V13" s="82" t="b">
         <f>AND(V11&lt;=V10, V10&lt;=V9, V9&lt;=V8)</f>
         <v>1</v>
       </c>
@@ -11929,6 +11955,388 @@
       <c r="AB25" t="s">
         <v>138</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E17185E-9620-4E8C-B11F-4E319B7F5AD2}">
+  <dimension ref="A3:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="93">
+        <v>1</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="93">
+        <v>1</v>
+      </c>
+      <c r="C6" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="94"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15689,7 +16097,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -15697,7 +16105,7 @@
     <row r="9" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="82"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
@@ -15731,7 +16139,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="82"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -15739,7 +16147,7 @@
     <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="82"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
@@ -15773,7 +16181,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -15781,7 +16189,7 @@
     <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
@@ -15877,7 +16285,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -15887,7 +16295,7 @@
     <row r="9" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="82"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
@@ -15902,8 +16310,8 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
@@ -15912,8 +16320,8 @@
       <c r="B11" s="85"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
@@ -15922,7 +16330,7 @@
       <c r="B12" s="86"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="88"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -15934,33 +16342,33 @@
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="88"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="87" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="85"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="87"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="83"/>
+      <c r="I14" s="87"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
       <c r="C15" s="86"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="87"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="84"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -15969,7 +16377,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="82"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -15979,7 +16387,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="82"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
@@ -16017,9 +16425,9 @@
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
@@ -16027,9 +16435,9 @@
     <row r="21" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
@@ -16048,17 +16456,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B54E07-806C-4DEB-9E1E-E50D66834459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D27B89C-BC4C-4C48-A12A-5DB0C7DB2876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="16" activeTab="24" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="17" activeTab="26" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,8 @@
     <sheet name="Sheet22" sheetId="24" r:id="rId23"/>
     <sheet name="Sheet23" sheetId="25" r:id="rId24"/>
     <sheet name="Sheet24" sheetId="26" r:id="rId25"/>
+    <sheet name="Sheet25" sheetId="27" r:id="rId26"/>
+    <sheet name="Sheet26" sheetId="28" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -572,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -960,11 +962,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1130,6 +1207,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7716,8 +7817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A138887D-E83F-4832-AC66-DEE1E0C0D3AC}">
   <dimension ref="A4:AH46"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U8" sqref="P8:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11965,8 +12066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E17185E-9620-4E8C-B11F-4E319B7F5AD2}">
   <dimension ref="A3:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12339,6 +12440,358 @@
       <c r="L19" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118983FB-F0D4-4E10-A23A-3BB3B9EA560B}">
+  <dimension ref="C3:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>8</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="97"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="6"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="6"/>
+      <c r="D21" s="102">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="6">
+        <v>2</v>
+      </c>
+      <c r="I22" s="101"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>9</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="102">
+        <v>3</v>
+      </c>
+      <c r="I24" s="98"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB4CCBA-D3DB-4AAD-BD4C-C3FE701FDC69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12887,15 +13340,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492D4744-2D7C-45B9-9C52-AF2B5242534C}">
-  <dimension ref="A5:K16"/>
+  <dimension ref="A5:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="A5:K16"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -12907,8 +13360,13 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -12920,8 +13378,15 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -12933,8 +13398,15 @@
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="6">
+        <v>4</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -12946,8 +13418,13 @@
       <c r="I8" s="1"/>
       <c r="J8" s="5"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -12959,8 +13436,15 @@
       <c r="I9" s="1"/>
       <c r="J9" s="10"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="8">
+        <v>5</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -12972,8 +13456,15 @@
       <c r="I10" s="1"/>
       <c r="J10" s="5"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -12985,8 +13476,15 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="6">
+        <v>3</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -12998,8 +13496,13 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="7"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -13011,8 +13514,15 @@
       <c r="I13" s="4"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="8">
+        <v>6</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -13024,8 +13534,13 @@
       <c r="I14" s="5"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -13037,8 +13552,13 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -13050,6 +13570,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D27B89C-BC4C-4C48-A12A-5DB0C7DB2876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA64F736-DC02-4D6C-A9C7-82826BF74FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="17" activeTab="26" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="8" activeTab="16" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
     <sheet name="Sheet8" sheetId="17" r:id="rId16"/>
     <sheet name="Sheet15" sheetId="16" r:id="rId17"/>
     <sheet name="Sheet16" sheetId="18" r:id="rId18"/>
-    <sheet name="Sheet18" sheetId="20" r:id="rId19"/>
-    <sheet name="Sheet19" sheetId="21" r:id="rId20"/>
-    <sheet name="Sheet20" sheetId="22" r:id="rId21"/>
+    <sheet name="Sheet19" sheetId="21" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="22" r:id="rId20"/>
+    <sheet name="Sheet18" sheetId="20" r:id="rId21"/>
     <sheet name="Sheet21" sheetId="23" r:id="rId22"/>
     <sheet name="Sheet22" sheetId="24" r:id="rId23"/>
     <sheet name="Sheet23" sheetId="25" r:id="rId24"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="144">
   <si>
     <t>Georgia</t>
   </si>
@@ -1041,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1171,33 +1171,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1214,9 +1187,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1230,6 +1200,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3438,7 +3439,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="97" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1"/>
@@ -3447,7 +3448,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="86"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -3493,7 +3494,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="97" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1"/>
@@ -3502,7 +3503,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="86"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -3932,8 +3933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
   <dimension ref="B4:BO28"/>
   <sheetViews>
-    <sheetView topLeftCell="Y4" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5:AH27"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BN14" sqref="BN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5250,7 +5251,9 @@
       </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="5"/>
-      <c r="AM18" s="1"/>
+      <c r="AM18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="66" t="s">
@@ -5342,7 +5345,7 @@
       </c>
       <c r="AK19" s="4"/>
       <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
+      <c r="AM19" s="9"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="8">
@@ -5381,9 +5384,7 @@
       <c r="BK19" s="4"/>
       <c r="BL19" s="1"/>
       <c r="BM19" s="1"/>
-      <c r="BN19" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="BN19" s="1"/>
       <c r="BO19" s="1"/>
     </row>
     <row r="20" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5580,12 +5581,10 @@
         <v>59</v>
       </c>
       <c r="BL21" s="66" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="BM21" s="1"/>
-      <c r="BN21" s="59" t="s">
-        <v>115</v>
-      </c>
+      <c r="BN21" s="59"/>
       <c r="BO21" s="1"/>
     </row>
     <row r="22" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5673,7 +5672,7 @@
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
       <c r="BK22" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BL22" s="8"/>
       <c r="BM22" s="4"/>
@@ -5707,7 +5706,9 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
+      <c r="AB23" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="8">
@@ -5799,7 +5800,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
+      <c r="AB24" s="9"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -5938,7 +5939,7 @@
         <v>61</v>
       </c>
       <c r="BL25" s="66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BM25" s="1"/>
       <c r="BN25" s="1"/>
@@ -6019,7 +6020,7 @@
       <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
       <c r="BK26" s="66" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="BL26" s="8"/>
       <c r="BM26" s="4"/>
@@ -6069,7 +6070,9 @@
       </c>
       <c r="AL27" s="4"/>
       <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
+      <c r="AN27" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="8" t="s">
@@ -6143,7 +6146,7 @@
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
+      <c r="AN28" s="9"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
@@ -7251,573 +7254,10 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D84D55B-86DB-41A7-86B6-8D3E6C4FEE99}">
-  <dimension ref="C4:J29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="10" width="13.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-      <c r="D7" s="70">
-        <v>1</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="70">
-        <v>1</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="D8" s="70">
-        <v>2</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="70">
-        <v>2</v>
-      </c>
-      <c r="I8" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="70">
-        <v>3</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="70">
-        <v>3</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
-      <c r="D10" s="70">
-        <v>4</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="70">
-        <v>4</v>
-      </c>
-      <c r="I10" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="D11" s="70">
-        <v>5</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="70">
-        <v>5</v>
-      </c>
-      <c r="I11" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="1"/>
-      <c r="D12" s="71">
-        <v>6</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="71">
-        <v>6</v>
-      </c>
-      <c r="I12" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="3:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:I5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D179F0-AC46-41D9-873C-B2A647CFC02F}">
-  <dimension ref="A2:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A138887D-E83F-4832-AC66-DEE1E0C0D3AC}">
   <dimension ref="A4:AH46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="U8" sqref="P8:U21"/>
     </sheetView>
   </sheetViews>
@@ -9153,7 +8593,198 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D179F0-AC46-41D9-873C-B2A647CFC02F}">
+  <dimension ref="A2:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DAA05C-8B34-498C-B0AB-56B73244FFB8}">
   <dimension ref="A4:O33"/>
   <sheetViews>
@@ -9737,6 +9368,378 @@
       <c r="L33" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D84D55B-86DB-41A7-86B6-8D3E6C4FEE99}">
+  <dimension ref="C4:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E14:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="10" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="102"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="102"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="70">
+        <v>1</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="70">
+        <v>1</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="70">
+        <v>2</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="70">
+        <v>2</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="70">
+        <v>3</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="70">
+        <v>3</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="70">
+        <v>4</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="70">
+        <v>4</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="70">
+        <v>5</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="70">
+        <v>5</v>
+      </c>
+      <c r="I11" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+      <c r="D12" s="71">
+        <v>6</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="71">
+        <v>6</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="3:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="3:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12105,266 +12108,266 @@
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="93">
-        <v>1</v>
-      </c>
-      <c r="D5" s="93" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="84">
+        <v>1</v>
+      </c>
+      <c r="D5" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="K5" s="84" t="s">
         <v>141</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="93">
-        <v>1</v>
-      </c>
-      <c r="C6" s="94">
+      <c r="B6" s="84">
+        <v>1</v>
+      </c>
+      <c r="C6" s="85">
         <v>0.5</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="85">
         <v>0.5</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="85">
         <v>0.5</v>
       </c>
-      <c r="F6" s="94">
+      <c r="F6" s="85">
         <v>0.5</v>
       </c>
-      <c r="G6" s="94">
+      <c r="G6" s="85">
         <v>0.5</v>
       </c>
-      <c r="H6" s="94">
+      <c r="H6" s="85">
         <v>0.5</v>
       </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="85">
         <v>0.5</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="85">
         <v>0.5</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="85">
         <v>0.5</v>
       </c>
-      <c r="F7" s="94">
+      <c r="F7" s="85">
         <v>0.5</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="85">
         <v>0.5</v>
       </c>
-      <c r="H7" s="94">
+      <c r="H7" s="85">
         <v>0.5</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="85">
         <v>0.5</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="85">
         <v>0.5</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="85">
         <v>0.5</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="85">
         <v>0.5</v>
       </c>
-      <c r="G8" s="94">
+      <c r="G8" s="85">
         <v>0.5</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="85">
         <v>0.5</v>
       </c>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="85">
         <v>0.5</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="85">
         <v>0.5</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="85">
         <v>0.5</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="85">
         <v>0.5</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="85">
         <v>0.5</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="85">
         <v>0.5</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="85">
         <v>0.5</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="85">
         <v>0.5</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="85">
         <v>0.5</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="85">
         <v>0.5</v>
       </c>
-      <c r="F10" s="94">
+      <c r="F10" s="85">
         <v>0.5</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="85">
         <v>0.5</v>
       </c>
-      <c r="H10" s="94">
+      <c r="H10" s="85">
         <v>0.5</v>
       </c>
-      <c r="I10" s="94">
+      <c r="I10" s="85">
         <v>0.5</v>
       </c>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="85">
         <v>0.5</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="85">
         <v>0.5</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="85">
         <v>0.5</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="85">
         <v>0.5</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="85">
         <v>0.5</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="85">
         <v>0.5</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="85">
         <v>0.5</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="94">
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="85">
         <v>0.5</v>
       </c>
-      <c r="G12" s="94">
+      <c r="G12" s="85">
         <v>0.5</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H12" s="85">
         <v>0.5</v>
       </c>
-      <c r="I12" s="94">
+      <c r="I12" s="85">
         <v>0.5</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="94">
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="85">
         <v>0.5</v>
       </c>
-      <c r="K13" s="94"/>
+      <c r="K13" s="85"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94">
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85">
         <v>0.5</v>
       </c>
       <c r="L14" s="1"/>
@@ -12539,8 +12542,8 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="96"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="87"/>
       <c r="J10" s="6"/>
       <c r="K10" s="1"/>
     </row>
@@ -12551,7 +12554,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="96"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="6"/>
       <c r="K11" s="1"/>
     </row>
@@ -12564,7 +12567,7 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="96"/>
+      <c r="I12" s="87"/>
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
     </row>
@@ -12577,7 +12580,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="21"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="96"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="6"/>
       <c r="K13" s="1"/>
     </row>
@@ -12588,8 +12591,8 @@
       <c r="F14" s="6"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="98"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12601,8 +12604,8 @@
       <c r="F15" s="20"/>
       <c r="G15" s="6"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="98"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -12612,8 +12615,8 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="98"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12623,8 +12626,8 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="98"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12636,8 +12639,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="98"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12645,36 +12648,36 @@
       <c r="D19" s="6">
         <v>10</v>
       </c>
-      <c r="E19" s="97"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="103"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="93"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="6"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="102"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="7"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="98"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="6"/>
-      <c r="D21" s="102">
+      <c r="D21" s="92">
         <v>11</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="98"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12688,8 +12691,8 @@
       <c r="H22" s="6">
         <v>2</v>
       </c>
-      <c r="I22" s="101"/>
-      <c r="J22" s="98"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12698,9 +12701,9 @@
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="98"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12711,10 +12714,10 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="102">
+      <c r="H24" s="92">
         <v>3</v>
       </c>
-      <c r="I24" s="98"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="1"/>
     </row>
@@ -12784,14 +12787,574 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB4CCBA-D3DB-4AAD-BD4C-C3FE701FDC69}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R3" s="103"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="103"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="103"/>
+    </row>
+    <row r="6" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="103"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="103"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="8">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="12">
+        <v>2</v>
+      </c>
+      <c r="O8" s="103"/>
+      <c r="P8" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+    </row>
+    <row r="9" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="103"/>
+    </row>
+    <row r="10" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="6">
+        <v>3</v>
+      </c>
+      <c r="O10" s="103"/>
+      <c r="P10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="103"/>
+    </row>
+    <row r="11" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+    </row>
+    <row r="12" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="8">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="12">
+        <v>4</v>
+      </c>
+      <c r="O12" s="103"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+    </row>
+    <row r="13" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+    </row>
+    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="6">
+        <v>5</v>
+      </c>
+      <c r="O14" s="103"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+    </row>
+    <row r="15" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="8">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="8">
+        <v>11</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="12">
+        <v>6</v>
+      </c>
+      <c r="O16" s="103"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="103"/>
+    </row>
+    <row r="17" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="103"/>
+    </row>
+    <row r="18" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="103"/>
+    </row>
+    <row r="19" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="103"/>
+    </row>
+    <row r="20" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="8">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="8">
+        <v>8</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="103"/>
+    </row>
+    <row r="21" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="103"/>
+    </row>
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="6">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="8">
+        <v>10</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="6">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="8">
+        <v>9</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13343,7 +13906,7 @@
   <dimension ref="A5:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16622,7 +17185,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="83"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -16630,7 +17193,7 @@
     <row r="9" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="83"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
@@ -16664,7 +17227,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="83"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -16672,7 +17235,7 @@
     <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="83"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
@@ -16706,7 +17269,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="83"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -16714,7 +17277,7 @@
     <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="83"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
@@ -16810,7 +17373,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="83"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -16820,7 +17383,7 @@
     <row r="9" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="83"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
@@ -16830,32 +17393,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="97" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="84"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="85"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="84"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="86"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="84"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -16863,37 +17426,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="97" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="84"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="87" t="s">
+      <c r="I13" s="95" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="89"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="87"/>
+      <c r="I14" s="95"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="89"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="88"/>
+      <c r="I15" s="96"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -16902,7 +17465,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="83"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -16912,7 +17475,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="83"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
@@ -16950,9 +17513,9 @@
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
@@ -16960,9 +17523,9 @@
     <row r="21" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
@@ -16981,17 +17544,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA64F736-DC02-4D6C-A9C7-82826BF74FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26310494-3958-4BE3-8155-8120293A7F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="8" activeTab="16" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="15" activeTab="23" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="147">
   <si>
     <t>Georgia</t>
   </si>
@@ -494,6 +494,15 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1233,6 +1242,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3933,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
   <dimension ref="B4:BO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+    <sheetView topLeftCell="AV1" workbookViewId="0">
       <selection activeCell="BN14" sqref="BN14"/>
     </sheetView>
   </sheetViews>
@@ -11440,10 +11450,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887B89AA-C696-4373-8C0A-DD193E62BDA9}">
-  <dimension ref="C5:AC25"/>
+  <dimension ref="C5:AC34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BM17" sqref="BM17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12058,6 +12068,50 @@
       </c>
       <c r="AB25" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D31" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="4:29" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26310494-3958-4BE3-8155-8120293A7F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD659621-2CBB-42C1-B089-E3221DC15639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="15" activeTab="23" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="19" activeTab="27" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <sheet name="Sheet24" sheetId="26" r:id="rId25"/>
     <sheet name="Sheet25" sheetId="27" r:id="rId26"/>
     <sheet name="Sheet26" sheetId="28" r:id="rId27"/>
+    <sheet name="Sheet27" sheetId="29" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -583,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1046,11 +1047,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1211,8 +1238,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1221,15 +1258,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,11 +1266,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9407,16 +9436,16 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="102"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="67"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="101" t="s">
+      <c r="H5" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="102"/>
+      <c r="I5" s="103"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -11452,7 +11481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887B89AA-C696-4373-8C0A-DD193E62BDA9}">
   <dimension ref="C5:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -12071,13 +12100,13 @@
       </c>
     </row>
     <row r="31" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="D31" s="105" t="s">
+      <c r="D31" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="105" t="s">
+      <c r="E31" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="105" t="s">
+      <c r="F31" s="94" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12506,7 +12535,7 @@
   <dimension ref="C3:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="E22" sqref="E22:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12844,13 +12873,13 @@
   <dimension ref="B3:R30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="R3" s="103"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -12869,7 +12898,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="103"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -12885,10 +12914,10 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="103"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
@@ -12910,12 +12939,12 @@
       <c r="N6" s="6">
         <v>1</v>
       </c>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="6">
         <v>1</v>
       </c>
-      <c r="R6" s="103"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
@@ -12931,10 +12960,10 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="103"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
@@ -12956,12 +12985,12 @@
       <c r="N8" s="12">
         <v>2</v>
       </c>
-      <c r="O8" s="103"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="12">
         <v>2</v>
       </c>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
@@ -12977,10 +13006,10 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="103"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="103"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
@@ -13002,12 +13031,12 @@
       <c r="N10" s="6">
         <v>3</v>
       </c>
-      <c r="O10" s="103"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="6">
         <v>3</v>
       </c>
       <c r="Q10" s="4"/>
-      <c r="R10" s="103"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
@@ -13023,10 +13052,10 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="103"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
@@ -13048,10 +13077,10 @@
       <c r="N12" s="12">
         <v>4</v>
       </c>
-      <c r="O12" s="103"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -13067,10 +13096,10 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
@@ -13092,10 +13121,10 @@
       <c r="N14" s="6">
         <v>5</v>
       </c>
-      <c r="O14" s="103"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
@@ -13111,10 +13140,10 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
@@ -13136,9 +13165,9 @@
       <c r="N16" s="12">
         <v>6</v>
       </c>
-      <c r="O16" s="103"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="103"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
@@ -13154,9 +13183,9 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="103"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
@@ -13176,9 +13205,9 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="103"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="103"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
@@ -13194,9 +13223,9 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="103"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="103"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
@@ -13216,9 +13245,9 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="103"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="103"/>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
@@ -13234,9 +13263,9 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="103"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="103"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
@@ -13407,6 +13436,661 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437277D6-FCDE-41DD-B502-E30125D7AB38}">
+  <dimension ref="C3:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="105"/>
+    </row>
+    <row r="5" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1"/>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="105"/>
+    </row>
+    <row r="6" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="105"/>
+    </row>
+    <row r="7" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>7</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
+        <v>4</v>
+      </c>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="1"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="1"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="1"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="1"/>
+      <c r="D29" s="6">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1">
+        <v>6</v>
+      </c>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="1"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="1"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="1"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="1"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="1"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="3:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17239,7 +17923,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="94"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -17247,7 +17931,7 @@
     <row r="9" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
@@ -17281,7 +17965,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="94"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -17289,7 +17973,7 @@
     <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="94"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
@@ -17323,7 +18007,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="94"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -17331,7 +18015,7 @@
     <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="94"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
@@ -17427,7 +18111,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="94"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -17437,7 +18121,7 @@
     <row r="9" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
@@ -17452,8 +18136,8 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
@@ -17462,8 +18146,8 @@
       <c r="B11" s="97"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="96"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
@@ -17472,7 +18156,7 @@
       <c r="B12" s="98"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="100"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -17484,33 +18168,33 @@
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="100"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="95" t="s">
+      <c r="I13" s="99" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="97"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="99"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="95"/>
+      <c r="I14" s="99"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
       <c r="C15" s="98"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="99"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="96"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -17519,7 +18203,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="94"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -17529,7 +18213,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="94"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
@@ -17567,9 +18251,9 @@
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
@@ -17577,9 +18261,9 @@
     <row r="21" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
@@ -17598,17 +18282,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD659621-2CBB-42C1-B089-E3221DC15639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E47BEB-D867-44E4-8FE4-68378EEE57B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="19" activeTab="27" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="16" activeTab="16" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="147">
   <si>
     <t>Georgia</t>
   </si>
@@ -1077,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1239,10 +1239,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1251,13 +1256,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1266,12 +1268,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3478,7 +3474,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="100" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1"/>
@@ -3487,7 +3483,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="98"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -3533,7 +3529,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="100" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1"/>
@@ -3542,7 +3538,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="98"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -3970,10 +3966,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
-  <dimension ref="B4:BO28"/>
+  <dimension ref="B4:BT40"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BN14" sqref="BN14"/>
+    <sheetView tabSelected="1" topLeftCell="BE4" workbookViewId="0">
+      <selection activeCell="BY27" sqref="BW26:BY27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3984,7 +3980,7 @@
     <col min="9" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4051,8 +4047,13 @@
       <c r="BM4" s="1"/>
       <c r="BN4" s="1"/>
       <c r="BO4" s="1"/>
-    </row>
-    <row r="5" spans="2:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+    </row>
+    <row r="5" spans="2:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="6">
         <v>1</v>
@@ -4141,8 +4142,15 @@
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
       <c r="BO5" s="1"/>
-    </row>
-    <row r="6" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+    </row>
+    <row r="6" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="66" t="s">
         <v>59</v>
@@ -4233,8 +4241,15 @@
       <c r="BM6" s="1"/>
       <c r="BN6" s="1"/>
       <c r="BO6" s="1"/>
-    </row>
-    <row r="7" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP6" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
+    </row>
+    <row r="7" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="8">
         <v>8</v>
@@ -4323,8 +4338,15 @@
       <c r="BM7" s="1"/>
       <c r="BN7" s="1"/>
       <c r="BO7" s="1"/>
-    </row>
-    <row r="8" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP7" s="8">
+        <v>8</v>
+      </c>
+      <c r="BQ7" s="4"/>
+      <c r="BR7" s="5"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+    </row>
+    <row r="8" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="59" t="s">
@@ -4415,8 +4437,15 @@
       <c r="BM8" s="1"/>
       <c r="BN8" s="1"/>
       <c r="BO8" s="1"/>
-    </row>
-    <row r="9" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="BR8" s="5"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+    </row>
+    <row r="9" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="6">
         <v>4</v>
@@ -4505,8 +4534,15 @@
       <c r="BM9" s="1"/>
       <c r="BN9" s="1"/>
       <c r="BO9" s="1"/>
-    </row>
-    <row r="10" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP9" s="6">
+        <v>4</v>
+      </c>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="4"/>
+      <c r="BS9" s="5"/>
+      <c r="BT9" s="1"/>
+    </row>
+    <row r="10" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="66" t="s">
         <v>60</v>
@@ -4597,8 +4633,15 @@
       <c r="BM10" s="1"/>
       <c r="BN10" s="1"/>
       <c r="BO10" s="1"/>
-    </row>
-    <row r="11" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP10" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="5"/>
+      <c r="BS10" s="5"/>
+      <c r="BT10" s="1"/>
+    </row>
+    <row r="11" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="8">
         <v>5</v>
@@ -4687,8 +4730,15 @@
       <c r="BM11" s="1"/>
       <c r="BN11" s="1"/>
       <c r="BO11" s="1"/>
-    </row>
-    <row r="12" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BQ11" s="4"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="5"/>
+      <c r="BT11" s="1"/>
+    </row>
+    <row r="12" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
@@ -4777,8 +4827,15 @@
       <c r="BM12" s="1"/>
       <c r="BN12" s="1"/>
       <c r="BO12" s="1"/>
-    </row>
-    <row r="13" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP12" s="6"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="BS12" s="5"/>
+      <c r="BT12" s="1"/>
+    </row>
+    <row r="13" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="6">
         <v>3</v>
@@ -4867,8 +4924,15 @@
       <c r="BM13" s="1"/>
       <c r="BN13" s="1"/>
       <c r="BO13" s="1"/>
-    </row>
-    <row r="14" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP13" s="6">
+        <v>3</v>
+      </c>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="4"/>
+      <c r="BT13" s="1"/>
+    </row>
+    <row r="14" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="66" t="s">
         <v>61</v>
@@ -4959,8 +5023,15 @@
       <c r="BM14" s="1"/>
       <c r="BN14" s="1"/>
       <c r="BO14" s="1"/>
-    </row>
-    <row r="15" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP14" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="5"/>
+      <c r="BT14" s="1"/>
+    </row>
+    <row r="15" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="8">
         <v>6</v>
@@ -5049,8 +5120,15 @@
       <c r="BM15" s="1"/>
       <c r="BN15" s="1"/>
       <c r="BO15" s="1"/>
-    </row>
-    <row r="16" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP15" s="8">
+        <v>6</v>
+      </c>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="5"/>
+      <c r="BS15" s="5"/>
+      <c r="BT15" s="1"/>
+    </row>
+    <row r="16" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
       <c r="D16" s="59" t="s">
@@ -5141,8 +5219,15 @@
       <c r="BM16" s="1"/>
       <c r="BN16" s="1"/>
       <c r="BO16" s="1"/>
-    </row>
-    <row r="17" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP16" s="6"/>
+      <c r="BQ16" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR16" s="5"/>
+      <c r="BS16" s="5"/>
+      <c r="BT16" s="1"/>
+    </row>
+    <row r="17" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="6">
         <v>2</v>
@@ -5231,8 +5316,15 @@
       <c r="BM17" s="1"/>
       <c r="BN17" s="1"/>
       <c r="BO17" s="1"/>
-    </row>
-    <row r="18" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP17" s="6">
+        <v>2</v>
+      </c>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="4"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+    </row>
+    <row r="18" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="66" t="s">
         <v>62</v>
@@ -5329,8 +5421,15 @@
       <c r="BM18" s="1"/>
       <c r="BN18" s="1"/>
       <c r="BO18" s="1"/>
-    </row>
-    <row r="19" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP18" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="59"/>
+      <c r="BT18" s="1"/>
+    </row>
+    <row r="19" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="8">
         <v>7</v>
@@ -5425,8 +5524,15 @@
       <c r="BM19" s="1"/>
       <c r="BN19" s="1"/>
       <c r="BO19" s="1"/>
-    </row>
-    <row r="20" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP19" s="8">
+        <v>7</v>
+      </c>
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="59"/>
+      <c r="BT19" s="1"/>
+    </row>
+    <row r="20" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5517,8 +5623,15 @@
       <c r="BM20" s="1"/>
       <c r="BN20" s="59"/>
       <c r="BO20" s="1"/>
-    </row>
-    <row r="21" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT20" s="59"/>
+    </row>
+    <row r="21" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5625,8 +5738,13 @@
       <c r="BM21" s="1"/>
       <c r="BN21" s="59"/>
       <c r="BO21" s="1"/>
-    </row>
-    <row r="22" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="59"/>
+    </row>
+    <row r="22" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5717,8 +5835,15 @@
       <c r="BM22" s="4"/>
       <c r="BN22" s="1"/>
       <c r="BO22" s="1"/>
-    </row>
-    <row r="23" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="59"/>
+      <c r="BR22" s="59"/>
+      <c r="BS22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BT22" s="1"/>
+    </row>
+    <row r="23" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5811,8 +5936,13 @@
       <c r="BM23" s="59"/>
       <c r="BN23" s="1"/>
       <c r="BO23" s="1"/>
-    </row>
-    <row r="24" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="59"/>
+      <c r="BR23" s="59"/>
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="1"/>
+    </row>
+    <row r="24" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -5891,8 +6021,15 @@
       <c r="BM24" s="1"/>
       <c r="BN24" s="1"/>
       <c r="BO24" s="1"/>
-    </row>
-    <row r="25" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="BT24" s="1"/>
+    </row>
+    <row r="25" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5983,8 +6120,13 @@
       <c r="BM25" s="1"/>
       <c r="BN25" s="1"/>
       <c r="BO25" s="1"/>
-    </row>
-    <row r="26" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+    </row>
+    <row r="26" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -6065,8 +6207,15 @@
       <c r="BM26" s="4"/>
       <c r="BN26" s="1"/>
       <c r="BO26" s="1"/>
-    </row>
-    <row r="27" spans="2:67" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+    </row>
+    <row r="27" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -6145,8 +6294,15 @@
       <c r="BM27" s="1"/>
       <c r="BN27" s="1"/>
       <c r="BO27" s="1"/>
-    </row>
-    <row r="28" spans="2:67" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+    </row>
+    <row r="28" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -6213,9 +6369,131 @@
       <c r="BM28" s="1"/>
       <c r="BN28" s="1"/>
       <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BR28" s="4"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+    </row>
+    <row r="29" spans="2:72" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="6"/>
+      <c r="BR29" s="59"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+    </row>
+    <row r="30" spans="2:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+    </row>
+    <row r="31" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+    </row>
+    <row r="32" spans="2:72" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR32" s="4"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+    </row>
+    <row r="33" spans="66:72" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+    </row>
+    <row r="34" spans="66:72" x14ac:dyDescent="0.3">
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+    </row>
+    <row r="35" spans="66:72" x14ac:dyDescent="0.3">
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+    </row>
+    <row r="36" spans="66:72" x14ac:dyDescent="0.3">
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+    </row>
+    <row r="37" spans="66:72" x14ac:dyDescent="0.3">
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+    </row>
+    <row r="38" spans="66:72" x14ac:dyDescent="0.3">
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+    </row>
+    <row r="39" spans="66:72" x14ac:dyDescent="0.3">
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+    </row>
+    <row r="40" spans="66:72" x14ac:dyDescent="0.3">
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9436,16 +9714,16 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="103"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="67"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="105"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -9789,7 +10067,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC71" sqref="Z71:AC83"/>
+      <selection pane="topRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13446,7 +13724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437277D6-FCDE-41DD-B502-E30125D7AB38}">
   <dimension ref="C3:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
@@ -13482,7 +13760,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="105"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -13502,7 +13780,7 @@
       <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="P5" s="105"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
@@ -13518,7 +13796,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="3"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="105"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
@@ -13538,8 +13816,8 @@
     </row>
     <row r="8" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -13549,7 +13827,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="104"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13625,7 +13903,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="105"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="15"/>
@@ -13643,7 +13921,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="105"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="73"/>
@@ -13659,7 +13937,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="105"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="73"/>
@@ -13670,18 +13948,18 @@
     </row>
     <row r="16" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="105"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="73"/>
       <c r="M16" s="1"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="104"/>
+      <c r="O16" s="6"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13691,7 +13969,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="105"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="5"/>
@@ -13707,7 +13985,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="105"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="5"/>
@@ -13723,7 +14001,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="105"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="5"/>
@@ -13739,8 +14017,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="107"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="96"/>
       <c r="K20" s="1"/>
       <c r="L20" s="5"/>
       <c r="M20" s="1"/>
@@ -13757,7 +14035,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="105"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="5"/>
@@ -13775,7 +14053,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="105"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="5"/>
@@ -13791,7 +14069,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="1"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="105"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="5"/>
@@ -13802,18 +14080,18 @@
     </row>
     <row r="24" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="5"/>
       <c r="G24" s="1"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="105"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="5"/>
       <c r="M24" s="1"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="104"/>
+      <c r="O24" s="6"/>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13823,7 +14101,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="105"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="73"/>
@@ -13839,7 +14117,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="105"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="73"/>
@@ -13855,7 +14133,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="105"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
       <c r="L27" s="73"/>
@@ -13871,7 +14149,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="105"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="14"/>
       <c r="L28" s="16"/>
@@ -13934,8 +14212,8 @@
     </row>
     <row r="32" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="1"/>
@@ -13945,7 +14223,7 @@
       <c r="L32" s="14"/>
       <c r="M32" s="1"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="104"/>
+      <c r="O32" s="6"/>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="3:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -17923,7 +18201,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="95"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -17931,7 +18209,7 @@
     <row r="9" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="95"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
@@ -17965,7 +18243,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="95"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -17973,7 +18251,7 @@
     <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="95"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
@@ -18007,7 +18285,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="95"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -18015,7 +18293,7 @@
     <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="95"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
@@ -18111,7 +18389,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="95"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -18121,7 +18399,7 @@
     <row r="9" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="95"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
@@ -18131,32 +18409,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="100" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="96"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="96"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="98"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="96"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -18164,37 +18442,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="100" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="96"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="99" t="s">
+      <c r="I13" s="98" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="101"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="102"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="99"/>
+      <c r="I14" s="98"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="100"/>
+      <c r="I15" s="99"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -18203,7 +18481,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="95"/>
+      <c r="F16" s="97"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -18213,7 +18491,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="95"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
@@ -18251,9 +18529,9 @@
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
@@ -18261,9 +18539,9 @@
     <row r="21" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
@@ -18282,17 +18560,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E47BEB-D867-44E4-8FE4-68378EEE57B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D310ABD4-10A1-49B6-9904-CB75273CCA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="16" activeTab="16" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="22" activeTab="29" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,9 @@
     <sheet name="Sheet25" sheetId="27" r:id="rId26"/>
     <sheet name="Sheet26" sheetId="28" r:id="rId27"/>
     <sheet name="Sheet27" sheetId="29" r:id="rId28"/>
+    <sheet name="Sheet28" sheetId="30" r:id="rId29"/>
+    <sheet name="Sheet28 (2)" sheetId="32" r:id="rId30"/>
+    <sheet name="Sheet29" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="181">
   <si>
     <t>Georgia</t>
   </si>
@@ -505,6 +508,108 @@
   <si>
     <t>g</t>
   </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Group C</t>
+  </si>
+  <si>
+    <t>Group D</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Chinese Taipei</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>Brandeis</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>Middlebury</t>
+  </si>
+  <si>
+    <t>Baylor University</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>RPI</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Tufts</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
 </sst>
 </file>
 
@@ -584,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1073,11 +1178,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1244,10 +1501,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1256,10 +1510,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,6 +1525,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3474,7 +3809,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="99" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1"/>
@@ -3483,7 +3818,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="101"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -3529,7 +3864,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="99" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1"/>
@@ -3538,7 +3873,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="101"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -3968,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
   <dimension ref="B4:BT40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE4" workbookViewId="0">
-      <selection activeCell="BY27" sqref="BW26:BY27"/>
+    <sheetView topLeftCell="BE4" workbookViewId="0">
+      <selection activeCell="BZ10" sqref="BZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13151,7 +13486,7 @@
   <dimension ref="B3:R30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="C6" sqref="C6:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13725,7 +14060,7 @@
   <dimension ref="C3:P41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="F8" sqref="F8:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14372,6 +14707,2301 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BEBA00-0EB6-4669-B098-2843042A2AF2}">
+  <dimension ref="C1:T98"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="124"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="124"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="R3" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="111">
+        <v>1</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="124"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="84">
+        <v>2</v>
+      </c>
+      <c r="I4" s="112">
+        <f>4-H4</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="111">
+        <v>1</v>
+      </c>
+      <c r="N4" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="124"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="84">
+        <v>4</v>
+      </c>
+      <c r="R4" s="112">
+        <f>4-Q4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="111">
+        <v>2</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="124"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="84">
+        <v>2</v>
+      </c>
+      <c r="I5" s="112">
+        <f t="shared" ref="I5:I7" si="0">4-H5</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="111">
+        <v>2</v>
+      </c>
+      <c r="N5" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="124"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="84">
+        <v>3</v>
+      </c>
+      <c r="R5" s="112">
+        <f t="shared" ref="R5:R7" si="1">4-Q5</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="111">
+        <v>3</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="124"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="84">
+        <v>2</v>
+      </c>
+      <c r="I6" s="112">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="111">
+        <v>3</v>
+      </c>
+      <c r="N6" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="124"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="84">
+        <v>2</v>
+      </c>
+      <c r="R6" s="112">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="111">
+        <v>4</v>
+      </c>
+      <c r="E7" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="124"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="84">
+        <v>2</v>
+      </c>
+      <c r="I7" s="112">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="111">
+        <v>4</v>
+      </c>
+      <c r="N7" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="O7" s="124"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="84">
+        <v>1</v>
+      </c>
+      <c r="R7" s="112">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+      <c r="D8" s="113">
+        <v>5</v>
+      </c>
+      <c r="E8" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="125"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="114">
+        <v>2</v>
+      </c>
+      <c r="I8" s="115">
+        <f>4-H8</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="113">
+        <v>5</v>
+      </c>
+      <c r="N8" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="125"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="114">
+        <v>0</v>
+      </c>
+      <c r="R8" s="115">
+        <f>4-Q8</f>
+        <v>4</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="124"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="124"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="R11" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="111">
+        <v>1</v>
+      </c>
+      <c r="E12" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="124"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="84">
+        <v>3</v>
+      </c>
+      <c r="I12" s="112">
+        <f>4-H12</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="111">
+        <v>1</v>
+      </c>
+      <c r="N12" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="124"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="84">
+        <v>4</v>
+      </c>
+      <c r="R12" s="112">
+        <f>4-Q12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="111">
+        <v>2</v>
+      </c>
+      <c r="E13" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="124"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="84">
+        <v>3</v>
+      </c>
+      <c r="I13" s="112">
+        <f t="shared" ref="I13:I15" si="2">4-H13</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="111">
+        <v>2</v>
+      </c>
+      <c r="N13" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" s="124"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="84">
+        <v>3</v>
+      </c>
+      <c r="R13" s="112">
+        <f t="shared" ref="R13:R15" si="3">4-Q13</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="111">
+        <v>3</v>
+      </c>
+      <c r="E14" s="116" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="124"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="84">
+        <v>2</v>
+      </c>
+      <c r="I14" s="112">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="111">
+        <v>3</v>
+      </c>
+      <c r="N14" s="116" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" s="124"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="84">
+        <v>2</v>
+      </c>
+      <c r="R14" s="112">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="111">
+        <v>4</v>
+      </c>
+      <c r="E15" s="116" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="124"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="84">
+        <v>1</v>
+      </c>
+      <c r="I15" s="112">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="111">
+        <v>4</v>
+      </c>
+      <c r="N15" s="116" t="s">
+        <v>164</v>
+      </c>
+      <c r="O15" s="124"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="84">
+        <v>1</v>
+      </c>
+      <c r="R15" s="112">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+      <c r="D16" s="113">
+        <v>5</v>
+      </c>
+      <c r="E16" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="125"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="114">
+        <v>1</v>
+      </c>
+      <c r="I16" s="115">
+        <f>4-H16</f>
+        <v>3</v>
+      </c>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="113">
+        <v>5</v>
+      </c>
+      <c r="N16" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" s="125"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="114">
+        <v>0</v>
+      </c>
+      <c r="R16" s="115">
+        <f>4-Q16</f>
+        <v>4</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="126" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="3:20" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+    </row>
+    <row r="78" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14536,6 +17166,2158 @@
       <c r="L14" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BDBFED-732D-45BD-9F43-8A836264F93A}">
+  <dimension ref="C1:U92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="124"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="130"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="111">
+        <v>1</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="124"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="84">
+        <v>5</v>
+      </c>
+      <c r="I4" s="116">
+        <v>0</v>
+      </c>
+      <c r="J4" s="130"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="111">
+        <v>1</v>
+      </c>
+      <c r="O4" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="84">
+        <v>5</v>
+      </c>
+      <c r="S4" s="112">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="111">
+        <v>2</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="124"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="84">
+        <v>4</v>
+      </c>
+      <c r="I5" s="116">
+        <v>1</v>
+      </c>
+      <c r="J5" s="130"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="111">
+        <v>2</v>
+      </c>
+      <c r="O5" s="116" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="84">
+        <v>3</v>
+      </c>
+      <c r="S5" s="112">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="111">
+        <v>3</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="124"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="84">
+        <v>3</v>
+      </c>
+      <c r="I6" s="116">
+        <v>2</v>
+      </c>
+      <c r="J6" s="130"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="111">
+        <v>3</v>
+      </c>
+      <c r="O6" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="84">
+        <v>3</v>
+      </c>
+      <c r="S6" s="112">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="111">
+        <v>4</v>
+      </c>
+      <c r="E7" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="124"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="84">
+        <v>2</v>
+      </c>
+      <c r="I7" s="116">
+        <v>3</v>
+      </c>
+      <c r="J7" s="130"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="111">
+        <v>4</v>
+      </c>
+      <c r="O7" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="84">
+        <v>3</v>
+      </c>
+      <c r="S7" s="112">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="123">
+        <v>5</v>
+      </c>
+      <c r="E8" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="124"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="121">
+        <v>1</v>
+      </c>
+      <c r="I8" s="116">
+        <v>4</v>
+      </c>
+      <c r="J8" s="130"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="123">
+        <v>5</v>
+      </c>
+      <c r="O8" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="121">
+        <v>1</v>
+      </c>
+      <c r="S8" s="122">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="113">
+        <v>6</v>
+      </c>
+      <c r="E9" s="118" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="125"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="114">
+        <v>0</v>
+      </c>
+      <c r="I9" s="118">
+        <v>5</v>
+      </c>
+      <c r="J9" s="131"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="113">
+        <v>6</v>
+      </c>
+      <c r="O9" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="114">
+        <v>0</v>
+      </c>
+      <c r="S9" s="115">
+        <v>5</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="129"/>
+      <c r="J18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="126" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="129"/>
+      <c r="J26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52441B73-D382-4843-A7A3-2711F49B5D63}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18409,32 +23191,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="99" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="100"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="101"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="103"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -18442,37 +23224,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="99" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="103"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="101" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="102"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="103"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="98"/>
+      <c r="I14" s="101"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="102"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="99"/>
+      <c r="I15" s="102"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -18560,17 +23342,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D310ABD4-10A1-49B6-9904-CB75273CCA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9083F89-1DC5-4C6C-9A7B-3D9A3B8B1B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="22" activeTab="29" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="16" activeTab="16" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <sheet name="Sheet29" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="195">
   <si>
     <t>Georgia</t>
   </si>
@@ -609,6 +610,48 @@
   </si>
   <si>
     <t>Emerson</t>
+  </si>
+  <si>
+    <t>1 Collingwood</t>
+  </si>
+  <si>
+    <t>4 Melborne</t>
+  </si>
+  <si>
+    <t>8 Sydney</t>
+  </si>
+  <si>
+    <t>7 GW Sydney</t>
+  </si>
+  <si>
+    <t>2 Brisbaine</t>
+  </si>
+  <si>
+    <t>3 Port Adeliade</t>
+  </si>
+  <si>
+    <t>Collingwood</t>
+  </si>
+  <si>
+    <t>Brisbaine</t>
+  </si>
+  <si>
+    <t>Melborne</t>
+  </si>
+  <si>
+    <t>Port Adeliade</t>
+  </si>
+  <si>
+    <t>5 Carlton</t>
+  </si>
+  <si>
+    <t>Carlton</t>
+  </si>
+  <si>
+    <t>GW Sydney</t>
+  </si>
+  <si>
+    <t>6 St. Kilda</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1498,46 +1541,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1553,21 +1556,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1577,21 +1565,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1599,10 +1628,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3809,7 +3837,7 @@
     </row>
     <row r="10" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="109" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1"/>
@@ -3818,7 +3846,7 @@
     </row>
     <row r="11" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="64"/>
-      <c r="D11" s="100"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="1"/>
       <c r="F11" s="20"/>
       <c r="G11" s="1"/>
@@ -3864,7 +3892,7 @@
     </row>
     <row r="17" spans="3:7" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="109" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1"/>
@@ -3873,7 +3901,7 @@
     </row>
     <row r="18" spans="3:7" ht="7.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="64"/>
-      <c r="D18" s="100"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="1"/>
       <c r="F18" s="20"/>
       <c r="G18" s="1"/>
@@ -4303,16 +4331,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
   <dimension ref="B4:BT40"/>
   <sheetViews>
-    <sheetView topLeftCell="BE4" workbookViewId="0">
-      <selection activeCell="BZ10" sqref="BZ10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="H5:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:72" x14ac:dyDescent="0.3">
@@ -5771,14 +5798,18 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8" t="s">
         <v>89</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="8">
@@ -5871,17 +5902,13 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -5970,17 +5997,17 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="66" t="s">
-        <v>66</v>
+      <c r="E21" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="J21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -6083,17 +6110,17 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="4"/>
+      <c r="E22" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7"/>
+      <c r="K22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="4"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -6182,13 +6209,17 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -10049,16 +10080,16 @@
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="67"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="105"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -11524,7 +11555,7 @@
   <dimension ref="B2:M35"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="B3" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12485,7 +12516,7 @@
         <v>0.5</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L20" si="2">E18*$H18</f>
+        <f>E18*$H18</f>
         <v>0</v>
       </c>
       <c r="M18">
@@ -12516,7 +12547,7 @@
         <v>0.45</v>
       </c>
       <c r="Z18">
-        <f t="shared" ref="Z18:Z20" si="3">S18*$V18</f>
+        <f>S18*$V18</f>
         <v>0</v>
       </c>
       <c r="AA18">
@@ -12549,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f>E19*$H19</f>
         <v>0</v>
       </c>
       <c r="M19">
@@ -12580,7 +12611,7 @@
         <v>0.05</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="3"/>
+        <f>S19*$V19</f>
         <v>0</v>
       </c>
       <c r="AA19">
@@ -12613,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f>E20*$H20</f>
         <v>0</v>
       </c>
       <c r="M20">
@@ -12644,7 +12675,7 @@
         <v>0.05</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="3"/>
+        <f>S20*$V20</f>
         <v>0</v>
       </c>
       <c r="AA20">
@@ -14715,7 +14746,7 @@
   <dimension ref="C1:T98"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I8"/>
+      <selection activeCell="F19" sqref="F19:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14751,59 +14782,59 @@
     </row>
     <row r="2" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="108" t="s">
+      <c r="M2" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="110"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="123"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="124"/>
+      <c r="F3" s="116"/>
       <c r="G3" s="117"/>
       <c r="H3" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="111" t="s">
+      <c r="M3" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="116" t="s">
+      <c r="N3" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="124"/>
+      <c r="O3" s="116"/>
       <c r="P3" s="117"/>
       <c r="Q3" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="R3" s="112" t="s">
+      <c r="R3" s="98" t="s">
         <v>148</v>
       </c>
       <c r="S3" s="1"/>
@@ -14811,36 +14842,36 @@
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
-      <c r="D4" s="111">
+      <c r="D4" s="97">
         <v>1</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="124"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="117"/>
       <c r="H4" s="84">
         <v>2</v>
       </c>
-      <c r="I4" s="112">
+      <c r="I4" s="98">
         <f>4-H4</f>
         <v>2</v>
       </c>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="111">
+      <c r="M4" s="97">
         <v>1</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="O4" s="124"/>
+      <c r="O4" s="116"/>
       <c r="P4" s="117"/>
       <c r="Q4" s="84">
         <v>4</v>
       </c>
-      <c r="R4" s="112">
+      <c r="R4" s="98">
         <f>4-Q4</f>
         <v>0</v>
       </c>
@@ -14849,37 +14880,37 @@
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="111">
+      <c r="D5" s="97">
         <v>2</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="124"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="117"/>
       <c r="H5" s="84">
         <v>2</v>
       </c>
-      <c r="I5" s="112">
-        <f t="shared" ref="I5:I7" si="0">4-H5</f>
+      <c r="I5" s="98">
+        <f>4-H5</f>
         <v>2</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="111">
+      <c r="M5" s="97">
         <v>2</v>
       </c>
-      <c r="N5" s="116" t="s">
+      <c r="N5" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="124"/>
+      <c r="O5" s="116"/>
       <c r="P5" s="117"/>
       <c r="Q5" s="84">
         <v>3</v>
       </c>
-      <c r="R5" s="112">
-        <f t="shared" ref="R5:R7" si="1">4-Q5</f>
+      <c r="R5" s="98">
+        <f>4-Q5</f>
         <v>1</v>
       </c>
       <c r="S5" s="1"/>
@@ -14887,37 +14918,37 @@
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="111">
+      <c r="D6" s="97">
         <v>3</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="124"/>
+      <c r="F6" s="116"/>
       <c r="G6" s="117"/>
       <c r="H6" s="84">
         <v>2</v>
       </c>
-      <c r="I6" s="112">
-        <f t="shared" si="0"/>
+      <c r="I6" s="98">
+        <f>4-H6</f>
         <v>2</v>
       </c>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="111">
+      <c r="M6" s="97">
         <v>3</v>
       </c>
-      <c r="N6" s="116" t="s">
+      <c r="N6" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="124"/>
+      <c r="O6" s="116"/>
       <c r="P6" s="117"/>
       <c r="Q6" s="84">
         <v>2</v>
       </c>
-      <c r="R6" s="112">
-        <f t="shared" si="1"/>
+      <c r="R6" s="98">
+        <f>4-Q6</f>
         <v>2</v>
       </c>
       <c r="S6" s="1"/>
@@ -14925,37 +14956,37 @@
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
-      <c r="D7" s="111">
+      <c r="D7" s="97">
         <v>4</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="124"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="117"/>
       <c r="H7" s="84">
         <v>2</v>
       </c>
-      <c r="I7" s="112">
-        <f t="shared" si="0"/>
+      <c r="I7" s="98">
+        <f>4-H7</f>
         <v>2</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="111">
+      <c r="M7" s="97">
         <v>4</v>
       </c>
-      <c r="N7" s="116" t="s">
+      <c r="N7" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="O7" s="124"/>
+      <c r="O7" s="116"/>
       <c r="P7" s="117"/>
       <c r="Q7" s="84">
         <v>1</v>
       </c>
-      <c r="R7" s="112">
-        <f t="shared" si="1"/>
+      <c r="R7" s="98">
+        <f>4-Q7</f>
         <v>3</v>
       </c>
       <c r="S7" s="1"/>
@@ -14963,36 +14994,36 @@
     </row>
     <row r="8" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
-      <c r="D8" s="113">
+      <c r="D8" s="99">
         <v>5</v>
       </c>
       <c r="E8" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="114">
+      <c r="F8" s="119"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="100">
         <v>2</v>
       </c>
-      <c r="I8" s="115">
+      <c r="I8" s="101">
         <f>4-H8</f>
         <v>2</v>
       </c>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="113">
+      <c r="M8" s="99">
         <v>5</v>
       </c>
       <c r="N8" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="O8" s="125"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="114">
+      <c r="O8" s="119"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="100">
         <v>0</v>
       </c>
-      <c r="R8" s="115">
+      <c r="R8" s="101">
         <f>4-Q8</f>
         <v>4</v>
       </c>
@@ -15021,59 +15052,59 @@
     </row>
     <row r="10" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="108" t="s">
+      <c r="M10" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="110"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="123"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="124"/>
+      <c r="F11" s="116"/>
       <c r="G11" s="117"/>
       <c r="H11" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="112" t="s">
+      <c r="I11" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="111" t="s">
+      <c r="M11" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="116" t="s">
+      <c r="N11" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="O11" s="124"/>
+      <c r="O11" s="116"/>
       <c r="P11" s="117"/>
       <c r="Q11" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="R11" s="112" t="s">
+      <c r="R11" s="98" t="s">
         <v>148</v>
       </c>
       <c r="S11" s="1"/>
@@ -15081,36 +15112,36 @@
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
-      <c r="D12" s="111">
+      <c r="D12" s="97">
         <v>1</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="124"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="117"/>
       <c r="H12" s="84">
         <v>3</v>
       </c>
-      <c r="I12" s="112">
+      <c r="I12" s="98">
         <f>4-H12</f>
         <v>1</v>
       </c>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="111">
+      <c r="M12" s="97">
         <v>1</v>
       </c>
-      <c r="N12" s="116" t="s">
+      <c r="N12" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="124"/>
+      <c r="O12" s="116"/>
       <c r="P12" s="117"/>
       <c r="Q12" s="84">
         <v>4</v>
       </c>
-      <c r="R12" s="112">
+      <c r="R12" s="98">
         <f>4-Q12</f>
         <v>0</v>
       </c>
@@ -15119,37 +15150,37 @@
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
-      <c r="D13" s="111">
+      <c r="D13" s="97">
         <v>2</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="124"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="117"/>
       <c r="H13" s="84">
         <v>3</v>
       </c>
-      <c r="I13" s="112">
-        <f t="shared" ref="I13:I15" si="2">4-H13</f>
+      <c r="I13" s="98">
+        <f>4-H13</f>
         <v>1</v>
       </c>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="111">
+      <c r="M13" s="97">
         <v>2</v>
       </c>
-      <c r="N13" s="116" t="s">
+      <c r="N13" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="O13" s="124"/>
+      <c r="O13" s="116"/>
       <c r="P13" s="117"/>
       <c r="Q13" s="84">
         <v>3</v>
       </c>
-      <c r="R13" s="112">
-        <f t="shared" ref="R13:R15" si="3">4-Q13</f>
+      <c r="R13" s="98">
+        <f>4-Q13</f>
         <v>1</v>
       </c>
       <c r="S13" s="1"/>
@@ -15157,37 +15188,37 @@
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
-      <c r="D14" s="111">
+      <c r="D14" s="97">
         <v>3</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="124"/>
+      <c r="F14" s="116"/>
       <c r="G14" s="117"/>
       <c r="H14" s="84">
         <v>2</v>
       </c>
-      <c r="I14" s="112">
-        <f t="shared" si="2"/>
+      <c r="I14" s="98">
+        <f>4-H14</f>
         <v>2</v>
       </c>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="111">
+      <c r="M14" s="97">
         <v>3</v>
       </c>
-      <c r="N14" s="116" t="s">
+      <c r="N14" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="O14" s="124"/>
+      <c r="O14" s="116"/>
       <c r="P14" s="117"/>
       <c r="Q14" s="84">
         <v>2</v>
       </c>
-      <c r="R14" s="112">
-        <f t="shared" si="3"/>
+      <c r="R14" s="98">
+        <f>4-Q14</f>
         <v>2</v>
       </c>
       <c r="S14" s="1"/>
@@ -15195,37 +15226,37 @@
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
-      <c r="D15" s="111">
+      <c r="D15" s="97">
         <v>4</v>
       </c>
-      <c r="E15" s="116" t="s">
+      <c r="E15" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="124"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="117"/>
       <c r="H15" s="84">
         <v>1</v>
       </c>
-      <c r="I15" s="112">
-        <f t="shared" si="2"/>
+      <c r="I15" s="98">
+        <f>4-H15</f>
         <v>3</v>
       </c>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="111">
+      <c r="M15" s="97">
         <v>4</v>
       </c>
-      <c r="N15" s="116" t="s">
+      <c r="N15" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="O15" s="124"/>
+      <c r="O15" s="116"/>
       <c r="P15" s="117"/>
       <c r="Q15" s="84">
         <v>1</v>
       </c>
-      <c r="R15" s="112">
-        <f t="shared" si="3"/>
+      <c r="R15" s="98">
+        <f>4-Q15</f>
         <v>3</v>
       </c>
       <c r="S15" s="1"/>
@@ -15233,36 +15264,36 @@
     </row>
     <row r="16" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
-      <c r="D16" s="113">
+      <c r="D16" s="99">
         <v>5</v>
       </c>
       <c r="E16" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="125"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="114">
+      <c r="F16" s="119"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="100">
         <v>1</v>
       </c>
-      <c r="I16" s="115">
+      <c r="I16" s="101">
         <f>4-H16</f>
         <v>3</v>
       </c>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="113">
+      <c r="M16" s="99">
         <v>5</v>
       </c>
       <c r="N16" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="O16" s="125"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="114">
+      <c r="O16" s="119"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="100">
         <v>0</v>
       </c>
-      <c r="R16" s="115">
+      <c r="R16" s="101">
         <f>4-Q16</f>
         <v>4</v>
       </c>
@@ -15313,10 +15344,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="1" t="s">
         <v>151</v>
       </c>
       <c r="H19" s="1"/>
@@ -15342,16 +15373,16 @@
       <c r="H20" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="107" t="s">
+      <c r="I20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -15361,7 +15392,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="126" t="s">
+      <c r="F21" s="105" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -15371,11 +15402,11 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -15386,7 +15417,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="106"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="59" t="s">
@@ -15397,9 +15428,9 @@
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -15409,10 +15440,10 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="126" t="s">
+      <c r="F23" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="106" t="s">
+      <c r="G23" s="6" t="s">
         <v>101</v>
       </c>
       <c r="H23" s="6"/>
@@ -15422,8 +15453,8 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -15446,8 +15477,8 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -15457,7 +15488,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="126" t="s">
+      <c r="F25" s="105" t="s">
         <v>130</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -15470,7 +15501,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="107"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -15482,7 +15513,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="107"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -15505,10 +15536,10 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="126" t="s">
+      <c r="F27" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="106" t="s">
+      <c r="G27" s="6" t="s">
         <v>156</v>
       </c>
       <c r="H27" s="6"/>
@@ -15519,7 +15550,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="4"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="107"/>
+      <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -15534,16 +15565,16 @@
       <c r="H28" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="I28" s="107" t="s">
+      <c r="I28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -15553,7 +15584,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="126" t="s">
+      <c r="F29" s="105" t="s">
         <v>60</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -15563,11 +15594,11 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -15578,7 +15609,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="106"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="59" t="s">
@@ -15590,8 +15621,8 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -15601,10 +15632,10 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="126" t="s">
+      <c r="F31" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="106" t="s">
+      <c r="G31" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H31" s="6"/>
@@ -15613,11 +15644,11 @@
       <c r="K31" s="4"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
@@ -15637,11 +15668,11 @@
       <c r="K32" s="5"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
@@ -15649,7 +15680,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="126" t="s">
+      <c r="F33" s="105" t="s">
         <v>92</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -15658,14 +15689,14 @@
       <c r="H33" s="8"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
@@ -15674,18 +15705,18 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="106"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
@@ -15694,18 +15725,18 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="106"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
@@ -15714,18 +15745,18 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="107"/>
-      <c r="O36" s="107"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
@@ -15734,17 +15765,17 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -15754,17 +15785,17 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107"/>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -15779,12 +15810,12 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="107"/>
-      <c r="N39" s="107"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -16971,26 +17002,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="D2:I2"/>
@@ -16999,6 +17010,26 @@
     <mergeCell ref="M10:R10"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17174,8 +17205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BDBFED-732D-45BD-9F43-8A836264F93A}">
   <dimension ref="C1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17214,61 +17245,61 @@
     </row>
     <row r="2" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="108" t="s">
+      <c r="N2" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="110"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="123"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="124"/>
+      <c r="F3" s="116"/>
       <c r="G3" s="117"/>
       <c r="H3" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="130"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="111" t="s">
+      <c r="N3" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="116" t="s">
+      <c r="O3" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="124"/>
+      <c r="P3" s="116"/>
       <c r="Q3" s="117"/>
       <c r="R3" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="112" t="s">
+      <c r="S3" s="98" t="s">
         <v>148</v>
       </c>
       <c r="T3" s="1"/>
@@ -17276,36 +17307,36 @@
     </row>
     <row r="4" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
-      <c r="D4" s="111">
+      <c r="D4" s="97">
         <v>1</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="124"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="117"/>
       <c r="H4" s="84">
         <v>5</v>
       </c>
-      <c r="I4" s="116">
+      <c r="I4" s="115">
         <v>0</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="111">
+      <c r="N4" s="97">
         <v>1</v>
       </c>
-      <c r="O4" s="116" t="s">
+      <c r="O4" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="P4" s="124"/>
+      <c r="P4" s="116"/>
       <c r="Q4" s="117"/>
       <c r="R4" s="84">
         <v>5</v>
       </c>
-      <c r="S4" s="112">
+      <c r="S4" s="98">
         <v>0</v>
       </c>
       <c r="T4" s="1"/>
@@ -17313,36 +17344,36 @@
     </row>
     <row r="5" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="111">
+      <c r="D5" s="97">
         <v>2</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="124"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="117"/>
       <c r="H5" s="84">
         <v>4</v>
       </c>
-      <c r="I5" s="116">
+      <c r="I5" s="115">
         <v>1</v>
       </c>
-      <c r="J5" s="130"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="111">
+      <c r="N5" s="97">
         <v>2</v>
       </c>
-      <c r="O5" s="116" t="s">
+      <c r="O5" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="P5" s="124"/>
+      <c r="P5" s="116"/>
       <c r="Q5" s="117"/>
       <c r="R5" s="84">
         <v>3</v>
       </c>
-      <c r="S5" s="112">
+      <c r="S5" s="98">
         <v>2</v>
       </c>
       <c r="T5" s="1"/>
@@ -17350,36 +17381,36 @@
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="111">
+      <c r="D6" s="97">
         <v>3</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="124"/>
+      <c r="F6" s="116"/>
       <c r="G6" s="117"/>
       <c r="H6" s="84">
         <v>3</v>
       </c>
-      <c r="I6" s="116">
+      <c r="I6" s="115">
         <v>2</v>
       </c>
-      <c r="J6" s="130"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="111">
+      <c r="N6" s="97">
         <v>3</v>
       </c>
-      <c r="O6" s="116" t="s">
+      <c r="O6" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="P6" s="124"/>
+      <c r="P6" s="116"/>
       <c r="Q6" s="117"/>
       <c r="R6" s="84">
         <v>3</v>
       </c>
-      <c r="S6" s="112">
+      <c r="S6" s="98">
         <v>2</v>
       </c>
       <c r="T6" s="1"/>
@@ -17387,36 +17418,36 @@
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
-      <c r="D7" s="111">
+      <c r="D7" s="97">
         <v>4</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="124"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="117"/>
       <c r="H7" s="84">
         <v>2</v>
       </c>
-      <c r="I7" s="116">
+      <c r="I7" s="115">
         <v>3</v>
       </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="111">
+      <c r="N7" s="97">
         <v>4</v>
       </c>
-      <c r="O7" s="116" t="s">
+      <c r="O7" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="P7" s="124"/>
+      <c r="P7" s="116"/>
       <c r="Q7" s="117"/>
       <c r="R7" s="84">
         <v>3</v>
       </c>
-      <c r="S7" s="112">
+      <c r="S7" s="98">
         <v>2</v>
       </c>
       <c r="T7" s="1"/>
@@ -17424,36 +17455,36 @@
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="123">
+      <c r="D8" s="104">
         <v>5</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="124"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="117"/>
-      <c r="H8" s="121">
+      <c r="H8" s="102">
         <v>1</v>
       </c>
-      <c r="I8" s="116">
+      <c r="I8" s="115">
         <v>4</v>
       </c>
-      <c r="J8" s="130"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="123">
+      <c r="N8" s="104">
         <v>5</v>
       </c>
-      <c r="O8" s="116" t="s">
+      <c r="O8" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="P8" s="124"/>
+      <c r="P8" s="116"/>
       <c r="Q8" s="117"/>
-      <c r="R8" s="121">
+      <c r="R8" s="102">
         <v>1</v>
       </c>
-      <c r="S8" s="122">
+      <c r="S8" s="103">
         <v>4</v>
       </c>
       <c r="T8" s="1"/>
@@ -17461,36 +17492,36 @@
     </row>
     <row r="9" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
-      <c r="D9" s="113">
+      <c r="D9" s="99">
         <v>6</v>
       </c>
       <c r="E9" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="114">
+      <c r="F9" s="119"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="100">
         <v>0</v>
       </c>
       <c r="I9" s="118">
         <v>5</v>
       </c>
-      <c r="J9" s="131"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="113">
+      <c r="N9" s="99">
         <v>6</v>
       </c>
       <c r="O9" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="114">
+      <c r="P9" s="119"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="100">
         <v>0</v>
       </c>
-      <c r="S9" s="115">
+      <c r="S9" s="101">
         <v>5</v>
       </c>
       <c r="T9" s="1"/>
@@ -17520,10 +17551,10 @@
     <row r="11" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -17541,10 +17572,10 @@
     <row r="12" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -17562,10 +17593,10 @@
     <row r="13" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="107"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -17583,21 +17614,21 @@
     <row r="14" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="107" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -17606,19 +17637,19 @@
     <row r="15" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -17627,10 +17658,10 @@
     <row r="16" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="59" t="s">
@@ -17641,9 +17672,9 @@
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -17653,10 +17684,10 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="126" t="s">
+      <c r="F17" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G17" s="6" t="s">
         <v>101</v>
       </c>
       <c r="H17" s="6"/>
@@ -17667,8 +17698,8 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -17683,7 +17714,7 @@
       <c r="H18" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="129"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="6" t="s">
         <v>97</v>
       </c>
@@ -17692,8 +17723,8 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -17703,7 +17734,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="105" t="s">
         <v>130</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -17717,7 +17748,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="107"/>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -17729,7 +17760,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="107"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="6"/>
@@ -17752,10 +17783,10 @@
     <row r="21" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -17764,7 +17795,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="4"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="107"/>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -17773,21 +17804,21 @@
     <row r="22" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="107" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -17796,19 +17827,19 @@
     <row r="23" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -17819,7 +17850,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="106"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -17832,8 +17863,8 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -17843,10 +17874,10 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="126" t="s">
+      <c r="F25" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="106" t="s">
+      <c r="G25" s="6" t="s">
         <v>158</v>
       </c>
       <c r="H25" s="6"/>
@@ -17856,11 +17887,11 @@
       <c r="L25" s="4"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
@@ -17873,7 +17904,7 @@
       <c r="H26" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="I26" s="129"/>
+      <c r="I26" s="59"/>
       <c r="J26" s="6" t="s">
         <v>158</v>
       </c>
@@ -17881,11 +17912,11 @@
       <c r="L26" s="5"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
@@ -17893,7 +17924,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="126" t="s">
+      <c r="F27" s="105" t="s">
         <v>92</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -17903,14 +17934,14 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
@@ -17919,19 +17950,19 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
@@ -17940,19 +17971,19 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
@@ -17961,19 +17992,19 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
@@ -17982,18 +18013,18 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -18003,18 +18034,18 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -18030,12 +18061,12 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -19281,12 +19312,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="E6:G6"/>
@@ -19296,14 +19329,12 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="O9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19312,12 +19343,491 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52441B73-D382-4843-A7A3-2711F49B5D63}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="6" width="13.44140625" customWidth="1"/>
+    <col min="8" max="10" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1"/>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1"/>
+      <c r="D5" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1"/>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+      <c r="D15" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+      <c r="D16" s="8">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+      <c r="D18" s="6">
+        <v>6</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+      <c r="D19" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="3:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+      <c r="D20" s="8">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22983,7 +23493,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="97"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -22991,7 +23501,7 @@
     <row r="9" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="97"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
@@ -23025,7 +23535,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="97"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -23033,7 +23543,7 @@
     <row r="13" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="97"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
@@ -23067,7 +23577,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="97"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="1"/>
@@ -23075,7 +23585,7 @@
     <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="97"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
@@ -23171,7 +23681,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="97"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -23181,7 +23691,7 @@
     <row r="9" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="97"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
@@ -23191,32 +23701,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="109" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="98"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="100"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="98"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -23224,37 +23734,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="109" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="98"/>
+      <c r="E13" s="112"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="101" t="s">
+      <c r="I13" s="107" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="101"/>
+      <c r="I14" s="107"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="102"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -23263,7 +23773,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="97"/>
+      <c r="F16" s="106"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -23273,7 +23783,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="97"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
@@ -23311,9 +23821,9 @@
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
@@ -23321,9 +23831,9 @@
     <row r="21" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
@@ -23342,17 +23852,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9083F89-1DC5-4C6C-9A7B-3D9A3B8B1B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D71D278-1832-4672-B419-BA58954E3EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="16" activeTab="16" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="22" activeTab="31" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <sheet name="Sheet28" sheetId="30" r:id="rId29"/>
     <sheet name="Sheet28 (2)" sheetId="32" r:id="rId30"/>
     <sheet name="Sheet29" sheetId="31" r:id="rId31"/>
+    <sheet name="Sheet30" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="204">
   <si>
     <t>Georgia</t>
   </si>
@@ -652,6 +653,33 @@
   </si>
   <si>
     <t>6 St. Kilda</t>
+  </si>
+  <si>
+    <t>Team A</t>
+  </si>
+  <si>
+    <t>Team B</t>
+  </si>
+  <si>
+    <t>p_lower</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>wins</t>
+  </si>
+  <si>
+    <t>outright</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>h2h</t>
+  </si>
+  <si>
+    <t>t2t</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1631,6 +1659,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4331,7 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5E35F-6BAF-409B-A5CF-ACCF63F9A711}">
   <dimension ref="B4:BT40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="H5:J12"/>
     </sheetView>
   </sheetViews>
@@ -19832,6 +19864,5724 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601FED18-A1A2-4467-B69D-EC055EA245FA}">
+  <dimension ref="B7:AD78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA7" s="128">
+        <f>AA10-AA9</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="128">
+        <f>AB9-AB10</f>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f>AA7*AB7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="128">
+        <f>SUMIF(AA$15:AA$78,$Z9,$R$15:$R$78)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AB9" s="128">
+        <f t="shared" ref="AB9:AB12" si="0">SUMIF(AB$15:AB$78,$Z9,$R$15:$R$78)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="128">
+        <f t="shared" ref="AA10:AB12" si="1">SUMIF(AA$15:AA$78,$Z10,$R$15:$R$78)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AB10" s="128">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="C11" t="str">
+        <f>C13&amp;C14</f>
+        <v>12</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:H11" si="2">D13&amp;D14</f>
+        <v>13</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="Z11">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="128">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="AB11" s="128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="T13" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s">
+        <v>198</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f t="shared" ref="C15:G15" si="3">C13</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f>G13</f>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f>H13</f>
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <f>IF(C15=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <f>IF(D15=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <f>IF(E15=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f>IF(F15=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O15">
+        <f>IF(G15=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f>IF(H15=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <f>PRODUCT(K15:P15)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T15">
+        <f>COUNTIF($C15:$H15,T$14)</f>
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ref="U15:W30" si="4">COUNTIF($C15:$H15,U$14)</f>
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" ref="Y15:Y22" si="5">IFERROR(_xlfn.XLOOKUP(3,T15:W15,T$14:W$14), "")</f>
+        <v>1</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" ref="Z15:Z78" si="6">IF(COUNTIF(T15:W15,2)=3,"X","")</f>
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <f>IF(AND(Y15="",Z15=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T15:W15,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T15:W15,T$14:W$14,-1,0,-1),C$11:H$11,C15:H15), "")</f>
+        <v/>
+      </c>
+      <c r="AB15" t="str">
+        <f>IF(AND(Y15="",Z15=""),_xlfn.XLOOKUP(2,T15:W15,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T15:W15,T$14:W$14,-1,0,-1)-AA15, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f t="shared" ref="C16:F16" si="7">IF(AND(D15=D$14,D16=D$13),C$13+C$14-C15,C15)</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f>IF(AND(H15=H$14,H16=H$13),G$13+G$14-G15,G15)</f>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f>H$14+H$13-H15</f>
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <f>IF(C16=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L16">
+        <f>IF(D16=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <f>IF(E16=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f>IF(F16=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O16">
+        <f>IF(G16=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f>IF(H16=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16:R78" si="8">PRODUCT(K16:P16)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ref="T16:W47" si="9">COUNTIF($C16:$H16,T$14)</f>
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA16" t="str">
+        <f>IF(AND(Y16="",Z16=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T16:W16,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T16:W16,T$14:W$14,-1,0,-1),C$11:H$11,C16:H16), "")</f>
+        <v/>
+      </c>
+      <c r="AB16" t="str">
+        <f>IF(AND(Y16="",Z16=""),_xlfn.XLOOKUP(2,T16:W16,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T16:W16,T$14:W$14,-1,0,-1)-AA16, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f t="shared" ref="C17:C19" si="10">IF(AND(D16=D$14,D17=D$13),C$13+C$14-C16,C16)</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D19" si="11">IF(AND(E16=E$14,E17=E$13),D$13+D$14-D16,D16)</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E19" si="12">IF(AND(F16=F$14,F17=F$13),E$13+E$14-E16,E16)</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:G19" si="13">IF(AND(G16=G$14,G17=G$13),F$13+F$14-F16,F16)</f>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H19" si="14">H$14+H$13-H16</f>
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <f>IF(C17=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <f>IF(D17=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <f>IF(E17=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f>IF(F17=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O17">
+        <f>IF(G17=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>IF(H17=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <f>IF(AND(Y17="",Z17=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T17:W17,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T17:W17,T$14:W$14,-1,0,-1),C$11:H$11,C17:H17), "")</f>
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <f>IF(AND(Y17="",Z17=""),_xlfn.XLOOKUP(2,T17:W17,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T17:W17,T$14:W$14,-1,0,-1)-AA17, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G19" si="15">IF(AND(H17=H$14,H18=H$13),G$13+G$14-G17,G17)</f>
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <f>IF(C18=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L18">
+        <f>IF(D18=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <f>IF(E18=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f>IF(F18=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O18">
+        <f>IF(G18=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>IF(H18=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <f>IF(AND(Y18="",Z18=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T18:W18,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T18:W18,T$14:W$14,-1,0,-1),C$11:H$11,C18:H18), "")</f>
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <f>IF(AND(Y18="",Z18=""),_xlfn.XLOOKUP(2,T18:W18,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T18:W18,T$14:W$14,-1,0,-1)-AA18, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <f>IF(C19=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L19">
+        <f>IF(D19=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <f>IF(E19=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f>IF(F19=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O19">
+        <f>IF(G19=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f>IF(H19=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA19" t="str">
+        <f>IF(AND(Y19="",Z19=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T19:W19,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T19:W19,T$14:W$14,-1,0,-1),C$11:H$11,C19:H19), "")</f>
+        <v/>
+      </c>
+      <c r="AB19" t="str">
+        <f>IF(AND(Y19="",Z19=""),_xlfn.XLOOKUP(2,T19:W19,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T19:W19,T$14:W$14,-1,0,-1)-AA19, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f>IF(AND(D19=D$14,D20=D$13),C$13+C$14-C19,C19)</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>IF(AND(E19=E$14,E20=E$13),D$13+D$14-D19,D19)</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>IF(AND(F19=F$14,F20=F$13),E$13+E$14-E19,E19)</f>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f>IF(AND(G19=G$14,G20=G$13),F$13+F$14-F19,F19)</f>
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f>IF(AND(H19=H$14,H20=H$13),G$13+G$14-G19,G19)</f>
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f>H$14+H$13-H19</f>
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <f>IF(C20=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L20">
+        <f>IF(D20=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <f>IF(E20=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f>IF(F20=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O20">
+        <f>IF(G20=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f>IF(H20=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA20" t="str">
+        <f>IF(AND(Y20="",Z20=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T20:W20,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T20:W20,T$14:W$14,-1,0,-1),C$11:H$11,C20:H20), "")</f>
+        <v/>
+      </c>
+      <c r="AB20" t="str">
+        <f>IF(AND(Y20="",Z20=""),_xlfn.XLOOKUP(2,T20:W20,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T20:W20,T$14:W$14,-1,0,-1)-AA20, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f>IF(AND(D20=D$14,D21=D$13),C$13+C$14-C20,C20)</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>IF(AND(E20=E$14,E21=E$13),D$13+D$14-D20,D20)</f>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f>IF(AND(F20=F$14,F21=F$13),E$13+E$14-E20,E20)</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>IF(AND(G20=G$14,G21=G$13),F$13+F$14-F20,F20)</f>
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <f>IF(AND(H20=H$14,H21=H$13),G$13+G$14-G20,G20)</f>
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <f>H$14+H$13-H20</f>
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <f>IF(C21=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <f>IF(D21=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <f>IF(E21=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f>IF(F21=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O21">
+        <f>IF(G21=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>IF(H21=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA21" t="str">
+        <f>IF(AND(Y21="",Z21=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T21:W21,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T21:W21,T$14:W$14,-1,0,-1),C$11:H$11,C21:H21), "")</f>
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <f>IF(AND(Y21="",Z21=""),_xlfn.XLOOKUP(2,T21:W21,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T21:W21,T$14:W$14,-1,0,-1)-AA21, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <f>IF(AND(D21=D$14,D22=D$13),C$13+C$14-C21,C21)</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>IF(AND(E21=E$14,E22=E$13),D$13+D$14-D21,D21)</f>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>IF(AND(F21=F$14,F22=F$13),E$13+E$14-E21,E21)</f>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>IF(AND(G21=G$14,G22=G$13),F$13+F$14-F21,F21)</f>
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <f>IF(AND(H21=H$14,H22=H$13),G$13+G$14-G21,G21)</f>
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <f>H$14+H$13-H21</f>
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <f>IF(C22=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L22">
+        <f>IF(D22=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <f>IF(E22=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f>IF(F22=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O22">
+        <f>IF(G22=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>IF(H22=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA22" t="str">
+        <f>IF(AND(Y22="",Z22=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T22:W22,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T22:W22,T$14:W$14,-1,0,-1),C$11:H$11,C22:H22), "")</f>
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <f>IF(AND(Y22="",Z22=""),_xlfn.XLOOKUP(2,T22:W22,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T22:W22,T$14:W$14,-1,0,-1)-AA22, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f>IF(AND(D22=D$14,D23=D$13),C$13+C$14-C22,C22)</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f>IF(AND(E22=E$14,E23=E$13),D$13+D$14-D22,D22)</f>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f>IF(AND(F22=F$14,F23=F$13),E$13+E$14-E22,E22)</f>
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f>IF(AND(G22=G$14,G23=G$13),F$13+F$14-F22,F22)</f>
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f>IF(AND(H22=H$14,H23=H$13),G$13+G$14-G22,G22)</f>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f>H$14+H$13-H22</f>
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <f>IF(C23=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <f>IF(D23=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <f>IF(E23=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>IF(F23=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O23">
+        <f>IF(G23=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f>IF(H23=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y23" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T23:W23,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <f>IF(COUNTIF(T23:W23,2)=3,"X","")</f>
+        <v/>
+      </c>
+      <c r="AA23">
+        <f>IF(AND(Y23="",Z23=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T23:W23,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T23:W23,T$14:W$14,-1,0,-1),C$11:H$11,C23:H23), "")</f>
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <f>IF(AND(Y23="",Z23=""),_xlfn.XLOOKUP(2,T23:W23,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T23:W23,T$14:W$14,-1,0,-1)-AA23, "")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f>IF(AND(D23=D$14,D24=D$13),C$13+C$14-C23,C23)</f>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f>IF(AND(E23=E$14,E24=E$13),D$13+D$14-D23,D23)</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>IF(AND(F23=F$14,F24=F$13),E$13+E$14-E23,E23)</f>
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <f>IF(AND(G23=G$14,G24=G$13),F$13+F$14-F23,F23)</f>
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f>IF(AND(H23=H$14,H24=H$13),G$13+G$14-G23,G23)</f>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f>H$14+H$13-H23</f>
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <f>IF(C24=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <f>IF(D24=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M24">
+        <f>IF(E24=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>IF(F24=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O24">
+        <f>IF(G24=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f>IF(H24=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y24" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T24:W24,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="AA24" t="str">
+        <f>IF(AND(Y24="",Z24=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T24:W24,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T24:W24,T$14:W$14,-1,0,-1),C$11:H$11,C24:H24), "")</f>
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <f>IF(AND(Y24="",Z24=""),_xlfn.XLOOKUP(2,T24:W24,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T24:W24,T$14:W$14,-1,0,-1)-AA24, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <f>IF(AND(D24=D$14,D25=D$13),C$13+C$14-C24,C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>IF(AND(E24=E$14,E25=E$13),D$13+D$14-D24,D24)</f>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f>IF(AND(F24=F$14,F25=F$13),E$13+E$14-E24,E24)</f>
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <f>IF(AND(G24=G$14,G25=G$13),F$13+F$14-F24,F24)</f>
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f>IF(AND(H24=H$14,H25=H$13),G$13+G$14-G24,G24)</f>
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <f>H$14+H$13-H24</f>
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <f>IF(C25=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <f>IF(D25=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <f>IF(E25=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>IF(F25=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O25">
+        <f>IF(G25=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>IF(H25=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y25" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T25:W25,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA25">
+        <f>IF(AND(Y25="",Z25=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T25:W25,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T25:W25,T$14:W$14,-1,0,-1),C$11:H$11,C25:H25), "")</f>
+        <v>4</v>
+      </c>
+      <c r="AB25">
+        <f>IF(AND(Y25="",Z25=""),_xlfn.XLOOKUP(2,T25:W25,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T25:W25,T$14:W$14,-1,0,-1)-AA25, "")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <f>IF(AND(D25=D$14,D26=D$13),C$13+C$14-C25,C25)</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>IF(AND(E25=E$14,E26=E$13),D$13+D$14-D25,D25)</f>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f>IF(AND(F25=F$14,F26=F$13),E$13+E$14-E25,E25)</f>
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <f>IF(AND(G25=G$14,G26=G$13),F$13+F$14-F25,F25)</f>
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f>IF(AND(H25=H$14,H26=H$13),G$13+G$14-G25,G25)</f>
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <f>H$14+H$13-H25</f>
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <f>IF(C26=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L26">
+        <f>IF(D26=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <f>IF(E26=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>IF(F26=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O26">
+        <f>IF(G26=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>IF(H26=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Y26">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T26:W26,T$14:W$14), "")</f>
+        <v>4</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA26" t="str">
+        <f>IF(AND(Y26="",Z26=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T26:W26,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T26:W26,T$14:W$14,-1,0,-1),C$11:H$11,C26:H26), "")</f>
+        <v/>
+      </c>
+      <c r="AB26" t="str">
+        <f>IF(AND(Y26="",Z26=""),_xlfn.XLOOKUP(2,T26:W26,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T26:W26,T$14:W$14,-1,0,-1)-AA26, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <f>IF(AND(D26=D$14,D27=D$13),C$13+C$14-C26,C26)</f>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f>IF(AND(E26=E$14,E27=E$13),D$13+D$14-D26,D26)</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>IF(AND(F26=F$14,F27=F$13),E$13+E$14-E26,E26)</f>
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <f>IF(AND(G26=G$14,G27=G$13),F$13+F$14-F26,F26)</f>
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <f>IF(AND(H26=H$14,H27=H$13),G$13+G$14-G26,G26)</f>
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f>H$14+H$13-H26</f>
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <f>IF(C27=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <f>IF(D27=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <f>IF(E27=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>IF(F27=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O27">
+        <f>IF(G27=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f>IF(H27=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y27" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T27:W27,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA27">
+        <f>IF(AND(Y27="",Z27=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T27:W27,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T27:W27,T$14:W$14,-1,0,-1),C$11:H$11,C27:H27), "")</f>
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <f>IF(AND(Y27="",Z27=""),_xlfn.XLOOKUP(2,T27:W27,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T27:W27,T$14:W$14,-1,0,-1)-AA27, "")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <f>IF(AND(D27=D$14,D28=D$13),C$13+C$14-C27,C27)</f>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f>IF(AND(E27=E$14,E28=E$13),D$13+D$14-D27,D27)</f>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f>IF(AND(F27=F$14,F28=F$13),E$13+E$14-E27,E27)</f>
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <f>IF(AND(G27=G$14,G28=G$13),F$13+F$14-F27,F27)</f>
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <f>IF(AND(H27=H$14,H28=H$13),G$13+G$14-G27,G27)</f>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f>H$14+H$13-H27</f>
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <f>IF(C28=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <f>IF(D28=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M28">
+        <f>IF(E28=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>IF(F28=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O28">
+        <f>IF(G28=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f>IF(H28=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y28" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T28:W28,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA28">
+        <f>IF(AND(Y28="",Z28=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T28:W28,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T28:W28,T$14:W$14,-1,0,-1),C$11:H$11,C28:H28), "")</f>
+        <v>4</v>
+      </c>
+      <c r="AB28">
+        <f>IF(AND(Y28="",Z28=""),_xlfn.XLOOKUP(2,T28:W28,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T28:W28,T$14:W$14,-1,0,-1)-AA28, "")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <f>IF(AND(D28=D$14,D29=D$13),C$13+C$14-C28,C28)</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>IF(AND(E28=E$14,E29=E$13),D$13+D$14-D28,D28)</f>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f>IF(AND(F28=F$14,F29=F$13),E$13+E$14-E28,E28)</f>
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f>IF(AND(G28=G$14,G29=G$13),F$13+F$14-F28,F28)</f>
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <f>IF(AND(H28=H$14,H29=H$13),G$13+G$14-G28,G28)</f>
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <f>H$14+H$13-H28</f>
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <f>IF(C29=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L29">
+        <f>IF(D29=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <f>IF(E29=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>IF(F29=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O29">
+        <f>IF(G29=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>IF(H29=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y29" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T29:W29,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="AA29" t="str">
+        <f>IF(AND(Y29="",Z29=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T29:W29,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T29:W29,T$14:W$14,-1,0,-1),C$11:H$11,C29:H29), "")</f>
+        <v/>
+      </c>
+      <c r="AB29" t="str">
+        <f>IF(AND(Y29="",Z29=""),_xlfn.XLOOKUP(2,T29:W29,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T29:W29,T$14:W$14,-1,0,-1)-AA29, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <f>IF(AND(D29=D$14,D30=D$13),C$13+C$14-C29,C29)</f>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>IF(AND(E29=E$14,E30=E$13),D$13+D$14-D29,D29)</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>IF(AND(F29=F$14,F30=F$13),E$13+E$14-E29,E29)</f>
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <f>IF(AND(G29=G$14,G30=G$13),F$13+F$14-F29,F29)</f>
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <f>IF(AND(H29=H$14,H30=H$13),G$13+G$14-G29,G29)</f>
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <f>H$14+H$13-H29</f>
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <f>IF(C30=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L30">
+        <f>IF(D30=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M30">
+        <f>IF(E30=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>IF(F30=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O30">
+        <f>IF(G30=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>IF(H30=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T30:W30,T$14:W$14), "")</f>
+        <v>4</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA30" t="str">
+        <f>IF(AND(Y30="",Z30=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T30:W30,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T30:W30,T$14:W$14,-1,0,-1),C$11:H$11,C30:H30), "")</f>
+        <v/>
+      </c>
+      <c r="AB30" t="str">
+        <f>IF(AND(Y30="",Z30=""),_xlfn.XLOOKUP(2,T30:W30,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T30:W30,T$14:W$14,-1,0,-1)-AA30, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <f>IF(AND(D30=D$14,D31=D$13),C$13+C$14-C30,C30)</f>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f>IF(AND(E30=E$14,E31=E$13),D$13+D$14-D30,D30)</f>
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <f>IF(AND(F30=F$14,F31=F$13),E$13+E$14-E30,E30)</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>IF(AND(G30=G$14,G31=G$13),F$13+F$14-F30,F30)</f>
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f>IF(AND(H30=H$14,H31=H$13),G$13+G$14-G30,G30)</f>
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <f>H$14+H$13-H30</f>
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <f>IF(C31=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <f>IF(D31=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <f>IF(E31=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f>IF(F31=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O31">
+        <f>IF(G31=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <f>IF(H31=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T31:W31,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="AA31" t="str">
+        <f>IF(AND(Y31="",Z31=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T31:W31,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T31:W31,T$14:W$14,-1,0,-1),C$11:H$11,C31:H31), "")</f>
+        <v/>
+      </c>
+      <c r="AB31" t="str">
+        <f>IF(AND(Y31="",Z31=""),_xlfn.XLOOKUP(2,T31:W31,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T31:W31,T$14:W$14,-1,0,-1)-AA31, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <f>IF(AND(D31=D$14,D32=D$13),C$13+C$14-C31,C31)</f>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f>IF(AND(E31=E$14,E32=E$13),D$13+D$14-D31,D31)</f>
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <f>IF(AND(F31=F$14,F32=F$13),E$13+E$14-E31,E31)</f>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f>IF(AND(G31=G$14,G32=G$13),F$13+F$14-F31,F31)</f>
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <f>IF(AND(H31=H$14,H32=H$13),G$13+G$14-G31,G31)</f>
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f>H$14+H$13-H31</f>
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <f>IF(C32=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <f>IF(D32=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <f>IF(E32=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f>IF(F32=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O32">
+        <f>IF(G32=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f>IF(H32=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y32" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T32:W32,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA32">
+        <f>IF(AND(Y32="",Z32=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T32:W32,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T32:W32,T$14:W$14,-1,0,-1),C$11:H$11,C32:H32), "")</f>
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <f>IF(AND(Y32="",Z32=""),_xlfn.XLOOKUP(2,T32:W32,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T32:W32,T$14:W$14,-1,0,-1)-AA32, "")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <f>IF(AND(D32=D$14,D33=D$13),C$13+C$14-C32,C32)</f>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f>IF(AND(E32=E$14,E33=E$13),D$13+D$14-D32,D32)</f>
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <f>IF(AND(F32=F$14,F33=F$13),E$13+E$14-E32,E32)</f>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>IF(AND(G32=G$14,G33=G$13),F$13+F$14-F32,F32)</f>
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f>IF(AND(H32=H$14,H33=H$13),G$13+G$14-G32,G32)</f>
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <f>H$14+H$13-H32</f>
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <f>IF(C33=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <f>IF(D33=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M33">
+        <f>IF(E33=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f>IF(F33=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O33">
+        <f>IF(G33=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>IF(H33=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y33" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T33:W33,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA33">
+        <f>IF(AND(Y33="",Z33=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T33:W33,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T33:W33,T$14:W$14,-1,0,-1),C$11:H$11,C33:H33), "")</f>
+        <v>3</v>
+      </c>
+      <c r="AB33">
+        <f>IF(AND(Y33="",Z33=""),_xlfn.XLOOKUP(2,T33:W33,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T33:W33,T$14:W$14,-1,0,-1)-AA33, "")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <f>IF(AND(D33=D$14,D34=D$13),C$13+C$14-C33,C33)</f>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>IF(AND(E33=E$14,E34=E$13),D$13+D$14-D33,D33)</f>
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f>IF(AND(F33=F$14,F34=F$13),E$13+E$14-E33,E33)</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f>IF(AND(G33=G$14,G34=G$13),F$13+F$14-F33,F33)</f>
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f>IF(AND(H33=H$14,H34=H$13),G$13+G$14-G33,G33)</f>
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <f>H$14+H$13-H33</f>
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <f>IF(C34=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L34">
+        <f>IF(D34=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M34">
+        <f>IF(E34=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f>IF(F34=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O34">
+        <f>IF(G34=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>IF(H34=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y34" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T34:W34,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA34">
+        <f>IF(AND(Y34="",Z34=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T34:W34,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T34:W34,T$14:W$14,-1,0,-1),C$11:H$11,C34:H34), "")</f>
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <f>IF(AND(Y34="",Z34=""),_xlfn.XLOOKUP(2,T34:W34,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T34:W34,T$14:W$14,-1,0,-1)-AA34, "")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <f>IF(AND(D34=D$14,D35=D$13),C$13+C$14-C34,C34)</f>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f>IF(AND(E34=E$14,E35=E$13),D$13+D$14-D34,D34)</f>
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f>IF(AND(F34=F$14,F35=F$13),E$13+E$14-E34,E34)</f>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f>IF(AND(G34=G$14,G35=G$13),F$13+F$14-F34,F34)</f>
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f>IF(AND(H34=H$14,H35=H$13),G$13+G$14-G34,G34)</f>
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <f>H$14+H$13-H34</f>
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <f>IF(C35=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <f>IF(D35=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <f>IF(E35=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f>IF(F35=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O35">
+        <f>IF(G35=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f>IF(H35=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T35:W35,T$14:W$14), "")</f>
+        <v>3</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA35" t="str">
+        <f>IF(AND(Y35="",Z35=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T35:W35,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T35:W35,T$14:W$14,-1,0,-1),C$11:H$11,C35:H35), "")</f>
+        <v/>
+      </c>
+      <c r="AB35" t="str">
+        <f>IF(AND(Y35="",Z35=""),_xlfn.XLOOKUP(2,T35:W35,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T35:W35,T$14:W$14,-1,0,-1)-AA35, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <f>IF(AND(D35=D$14,D36=D$13),C$13+C$14-C35,C35)</f>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f>IF(AND(E35=E$14,E36=E$13),D$13+D$14-D35,D35)</f>
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <f>IF(AND(F35=F$14,F36=F$13),E$13+E$14-E35,E35)</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f>IF(AND(G35=G$14,G36=G$13),F$13+F$14-F35,F35)</f>
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <f>IF(AND(H35=H$14,H36=H$13),G$13+G$14-G35,G35)</f>
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f>H$14+H$13-H35</f>
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <f>IF(C36=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L36">
+        <f>IF(D36=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M36">
+        <f>IF(E36=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <f>IF(F36=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O36">
+        <f>IF(G36=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f>IF(H36=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y36" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T36:W36,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA36">
+        <f>IF(AND(Y36="",Z36=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T36:W36,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T36:W36,T$14:W$14,-1,0,-1),C$11:H$11,C36:H36), "")</f>
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <f>IF(AND(Y36="",Z36=""),_xlfn.XLOOKUP(2,T36:W36,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T36:W36,T$14:W$14,-1,0,-1)-AA36, "")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <f>IF(AND(D36=D$14,D37=D$13),C$13+C$14-C36,C36)</f>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f>IF(AND(E36=E$14,E37=E$13),D$13+D$14-D36,D36)</f>
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <f>IF(AND(F36=F$14,F37=F$13),E$13+E$14-E36,E36)</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f>IF(AND(G36=G$14,G37=G$13),F$13+F$14-F36,F36)</f>
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <f>IF(AND(H36=H$14,H37=H$13),G$13+G$14-G36,G36)</f>
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <f>H$14+H$13-H36</f>
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <f>IF(C37=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L37">
+        <f>IF(D37=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <f>IF(E37=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f>IF(F37=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O37">
+        <f>IF(G37=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>IF(H37=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T37:W37,T$14:W$14), "")</f>
+        <v>3</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA37" t="str">
+        <f>IF(AND(Y37="",Z37=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T37:W37,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T37:W37,T$14:W$14,-1,0,-1),C$11:H$11,C37:H37), "")</f>
+        <v/>
+      </c>
+      <c r="AB37" t="str">
+        <f>IF(AND(Y37="",Z37=""),_xlfn.XLOOKUP(2,T37:W37,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T37:W37,T$14:W$14,-1,0,-1)-AA37, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <f>IF(AND(D37=D$14,D38=D$13),C$13+C$14-C37,C37)</f>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f>IF(AND(E37=E$14,E38=E$13),D$13+D$14-D37,D37)</f>
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <f>IF(AND(F37=F$14,F38=F$13),E$13+E$14-E37,E37)</f>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f>IF(AND(G37=G$14,G38=G$13),F$13+F$14-F37,F37)</f>
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <f>IF(AND(H37=H$14,H38=H$13),G$13+G$14-G37,G37)</f>
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <f>H$14+H$13-H37</f>
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <f>IF(C38=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L38">
+        <f>IF(D38=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M38">
+        <f>IF(E38=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f>IF(F38=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O38">
+        <f>IF(G38=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f>IF(H38=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y38" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T38:W38,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="AA38" t="str">
+        <f>IF(AND(Y38="",Z38=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T38:W38,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T38:W38,T$14:W$14,-1,0,-1),C$11:H$11,C38:H38), "")</f>
+        <v/>
+      </c>
+      <c r="AB38" t="str">
+        <f>IF(AND(Y38="",Z38=""),_xlfn.XLOOKUP(2,T38:W38,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T38:W38,T$14:W$14,-1,0,-1)-AA38, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <f>IF(AND(D38=D$14,D39=D$13),C$13+C$14-C38,C38)</f>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f>IF(AND(E38=E$14,E39=E$13),D$13+D$14-D38,D38)</f>
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <f>IF(AND(F38=F$14,F39=F$13),E$13+E$14-E38,E38)</f>
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <f>IF(AND(G38=G$14,G39=G$13),F$13+F$14-F38,F38)</f>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f>IF(AND(H38=H$14,H39=H$13),G$13+G$14-G38,G38)</f>
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <f>H$14+H$13-H38</f>
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <f>IF(C39=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L39">
+        <f>IF(D39=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M39">
+        <f>IF(E39=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>IF(F39=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O39">
+        <f>IF(G39=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f>IF(H39=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y39" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T39:W39,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA39">
+        <f>IF(AND(Y39="",Z39=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T39:W39,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T39:W39,T$14:W$14,-1,0,-1),C$11:H$11,C39:H39), "")</f>
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <f>IF(AND(Y39="",Z39=""),_xlfn.XLOOKUP(2,T39:W39,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T39:W39,T$14:W$14,-1,0,-1)-AA39, "")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <f>IF(AND(D39=D$14,D40=D$13),C$13+C$14-C39,C39)</f>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f>IF(AND(E39=E$14,E40=E$13),D$13+D$14-D39,D39)</f>
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <f>IF(AND(F39=F$14,F40=F$13),E$13+E$14-E39,E39)</f>
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <f>IF(AND(G39=G$14,G40=G$13),F$13+F$14-F39,F39)</f>
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f>IF(AND(H39=H$14,H40=H$13),G$13+G$14-G39,G39)</f>
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f>H$14+H$13-H39</f>
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <f>IF(C40=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L40">
+        <f>IF(D40=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M40">
+        <f>IF(E40=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>IF(F40=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O40">
+        <f>IF(G40=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f>IF(H40=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y40" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T40:W40,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA40">
+        <f>IF(AND(Y40="",Z40=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T40:W40,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T40:W40,T$14:W$14,-1,0,-1),C$11:H$11,C40:H40), "")</f>
+        <v>2</v>
+      </c>
+      <c r="AB40">
+        <f>IF(AND(Y40="",Z40=""),_xlfn.XLOOKUP(2,T40:W40,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T40:W40,T$14:W$14,-1,0,-1)-AA40, "")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <f>IF(AND(D40=D$14,D41=D$13),C$13+C$14-C40,C40)</f>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f>IF(AND(E40=E$14,E41=E$13),D$13+D$14-D40,D40)</f>
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <f>IF(AND(F40=F$14,F41=F$13),E$13+E$14-E40,E40)</f>
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f>IF(AND(G40=G$14,G41=G$13),F$13+F$14-F40,F40)</f>
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f>IF(AND(H40=H$14,H41=H$13),G$13+G$14-G40,G40)</f>
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <f>H$14+H$13-H40</f>
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <f>IF(C41=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <f>IF(D41=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M41">
+        <f>IF(E41=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f>IF(F41=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O41">
+        <f>IF(G41=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f>IF(H41=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y41" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T41:W41,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA41">
+        <f>IF(AND(Y41="",Z41=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T41:W41,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T41:W41,T$14:W$14,-1,0,-1),C$11:H$11,C41:H41), "")</f>
+        <v>3</v>
+      </c>
+      <c r="AB41">
+        <f>IF(AND(Y41="",Z41=""),_xlfn.XLOOKUP(2,T41:W41,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T41:W41,T$14:W$14,-1,0,-1)-AA41, "")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <f>IF(AND(D41=D$14,D42=D$13),C$13+C$14-C41,C41)</f>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f>IF(AND(E41=E$14,E42=E$13),D$13+D$14-D41,D41)</f>
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <f>IF(AND(F41=F$14,F42=F$13),E$13+E$14-E41,E41)</f>
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <f>IF(AND(G41=G$14,G42=G$13),F$13+F$14-F41,F41)</f>
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f>IF(AND(H41=H$14,H42=H$13),G$13+G$14-G41,G41)</f>
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <f>H$14+H$13-H41</f>
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <f>IF(C42=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L42">
+        <f>IF(D42=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M42">
+        <f>IF(E42=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f>IF(F42=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O42">
+        <f>IF(G42=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f>IF(H42=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="Y42">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T42:W42,T$14:W$14), "")</f>
+        <v>4</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA42" t="str">
+        <f>IF(AND(Y42="",Z42=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T42:W42,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T42:W42,T$14:W$14,-1,0,-1),C$11:H$11,C42:H42), "")</f>
+        <v/>
+      </c>
+      <c r="AB42" t="str">
+        <f>IF(AND(Y42="",Z42=""),_xlfn.XLOOKUP(2,T42:W42,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T42:W42,T$14:W$14,-1,0,-1)-AA42, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <f>IF(AND(D42=D$14,D43=D$13),C$13+C$14-C42,C42)</f>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f>IF(AND(E42=E$14,E43=E$13),D$13+D$14-D42,D42)</f>
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <f>IF(AND(F42=F$14,F43=F$13),E$13+E$14-E42,E42)</f>
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <f>IF(AND(G42=G$14,G43=G$13),F$13+F$14-F42,F42)</f>
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <f>IF(AND(H42=H$14,H43=H$13),G$13+G$14-G42,G42)</f>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f>H$14+H$13-H42</f>
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <f>IF(C43=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L43">
+        <f>IF(D43=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M43">
+        <f>IF(E43=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f>IF(F43=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O43">
+        <f>IF(G43=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f>IF(H43=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T43:W43,T$14:W$14), "")</f>
+        <v>3</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA43" t="str">
+        <f>IF(AND(Y43="",Z43=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T43:W43,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T43:W43,T$14:W$14,-1,0,-1),C$11:H$11,C43:H43), "")</f>
+        <v/>
+      </c>
+      <c r="AB43" t="str">
+        <f>IF(AND(Y43="",Z43=""),_xlfn.XLOOKUP(2,T43:W43,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T43:W43,T$14:W$14,-1,0,-1)-AA43, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <f>IF(AND(D43=D$14,D44=D$13),C$13+C$14-C43,C43)</f>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f>IF(AND(E43=E$14,E44=E$13),D$13+D$14-D43,D43)</f>
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <f>IF(AND(F43=F$14,F44=F$13),E$13+E$14-E43,E43)</f>
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <f>IF(AND(G43=G$14,G44=G$13),F$13+F$14-F43,F43)</f>
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <f>IF(AND(H43=H$14,H44=H$13),G$13+G$14-G43,G43)</f>
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <f>H$14+H$13-H43</f>
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <f>IF(C44=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L44">
+        <f>IF(D44=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M44">
+        <f>IF(E44=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>IF(F44=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O44">
+        <f>IF(G44=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f>IF(H44=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y44" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T44:W44,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA44">
+        <f>IF(AND(Y44="",Z44=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T44:W44,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T44:W44,T$14:W$14,-1,0,-1),C$11:H$11,C44:H44), "")</f>
+        <v>4</v>
+      </c>
+      <c r="AB44">
+        <f>IF(AND(Y44="",Z44=""),_xlfn.XLOOKUP(2,T44:W44,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T44:W44,T$14:W$14,-1,0,-1)-AA44, "")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <f>IF(AND(D44=D$14,D45=D$13),C$13+C$14-C44,C44)</f>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f>IF(AND(E44=E$14,E45=E$13),D$13+D$14-D44,D44)</f>
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <f>IF(AND(F44=F$14,F45=F$13),E$13+E$14-E44,E44)</f>
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <f>IF(AND(G44=G$14,G45=G$13),F$13+F$14-F44,F44)</f>
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <f>IF(AND(H44=H$14,H45=H$13),G$13+G$14-G44,G44)</f>
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <f>H$14+H$13-H44</f>
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <f>IF(C45=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L45">
+        <f>IF(D45=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M45">
+        <f>IF(E45=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f>IF(F45=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O45">
+        <f>IF(G45=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f>IF(H45=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y45">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T45:W45,T$14:W$14), "")</f>
+        <v>3</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA45" t="str">
+        <f>IF(AND(Y45="",Z45=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T45:W45,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T45:W45,T$14:W$14,-1,0,-1),C$11:H$11,C45:H45), "")</f>
+        <v/>
+      </c>
+      <c r="AB45" t="str">
+        <f>IF(AND(Y45="",Z45=""),_xlfn.XLOOKUP(2,T45:W45,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T45:W45,T$14:W$14,-1,0,-1)-AA45, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <f>IF(AND(D45=D$14,D46=D$13),C$13+C$14-C45,C45)</f>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <f>IF(AND(E45=E$14,E46=E$13),D$13+D$14-D45,D45)</f>
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <f>IF(AND(F45=F$14,F46=F$13),E$13+E$14-E45,E45)</f>
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <f>IF(AND(G45=G$14,G46=G$13),F$13+F$14-F45,F45)</f>
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <f>IF(AND(H45=H$14,H46=H$13),G$13+G$14-G45,G45)</f>
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <f>H$14+H$13-H45</f>
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <f>IF(C46=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L46">
+        <f>IF(D46=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M46">
+        <f>IF(E46=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f>IF(F46=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O46">
+        <f>IF(G46=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f>IF(H46=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="Y46">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T46:W46,T$14:W$14), "")</f>
+        <v>4</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA46" t="str">
+        <f>IF(AND(Y46="",Z46=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T46:W46,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T46:W46,T$14:W$14,-1,0,-1),C$11:H$11,C46:H46), "")</f>
+        <v/>
+      </c>
+      <c r="AB46" t="str">
+        <f>IF(AND(Y46="",Z46=""),_xlfn.XLOOKUP(2,T46:W46,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T46:W46,T$14:W$14,-1,0,-1)-AA46, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <f>IF(AND(D46=D$14,D47=D$13),C$13+C$14-C46,C46)</f>
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <f>IF(AND(E46=E$14,E47=E$13),D$13+D$14-D46,D46)</f>
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f>IF(AND(F46=F$14,F47=F$13),E$13+E$14-E46,E46)</f>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f>IF(AND(G46=G$14,G47=G$13),F$13+F$14-F46,F46)</f>
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f>IF(AND(H46=H$14,H47=H$13),G$13+G$14-G46,G46)</f>
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <f>H$14+H$13-H46</f>
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <f>IF(C47=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L47">
+        <f>IF(D47=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M47">
+        <f>IF(E47=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f>IF(F47=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O47">
+        <f>IF(G47=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f>IF(H47=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T47:W47,T$14:W$14), "")</f>
+        <v>2</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA47" t="str">
+        <f>IF(AND(Y47="",Z47=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T47:W47,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T47:W47,T$14:W$14,-1,0,-1),C$11:H$11,C47:H47), "")</f>
+        <v/>
+      </c>
+      <c r="AB47" t="str">
+        <f>IF(AND(Y47="",Z47=""),_xlfn.XLOOKUP(2,T47:W47,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T47:W47,T$14:W$14,-1,0,-1)-AA47, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <f>IF(AND(D47=D$14,D48=D$13),C$13+C$14-C47,C47)</f>
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <f>IF(AND(E47=E$14,E48=E$13),D$13+D$14-D47,D47)</f>
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f>IF(AND(F47=F$14,F48=F$13),E$13+E$14-E47,E47)</f>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f>IF(AND(G47=G$14,G48=G$13),F$13+F$14-F47,F47)</f>
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <f>IF(AND(H47=H$14,H48=H$13),G$13+G$14-G47,G47)</f>
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <f>H$14+H$13-H47</f>
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <f>IF(C48=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L48">
+        <f>IF(D48=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M48">
+        <f>IF(E48=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f>IF(F48=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O48">
+        <f>IF(G48=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <f>IF(H48=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T48">
+        <f t="shared" ref="T48:W78" si="16">COUNTIF($C48:$H48,T$14)</f>
+        <v>2</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T48:W48,T$14:W$14), "")</f>
+        <v>2</v>
+      </c>
+      <c r="Z48" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA48" t="str">
+        <f>IF(AND(Y48="",Z48=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T48:W48,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T48:W48,T$14:W$14,-1,0,-1),C$11:H$11,C48:H48), "")</f>
+        <v/>
+      </c>
+      <c r="AB48" t="str">
+        <f>IF(AND(Y48="",Z48=""),_xlfn.XLOOKUP(2,T48:W48,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T48:W48,T$14:W$14,-1,0,-1)-AA48, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <f>IF(AND(D48=D$14,D49=D$13),C$13+C$14-C48,C48)</f>
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <f>IF(AND(E48=E$14,E49=E$13),D$13+D$14-D48,D48)</f>
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f>IF(AND(F48=F$14,F49=F$13),E$13+E$14-E48,E48)</f>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f>IF(AND(G48=G$14,G49=G$13),F$13+F$14-F48,F48)</f>
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <f>IF(AND(H48=H$14,H49=H$13),G$13+G$14-G48,G48)</f>
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <f>H$14+H$13-H48</f>
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <f>IF(C49=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L49">
+        <f>IF(D49=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M49">
+        <f>IF(E49=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f>IF(F49=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O49">
+        <f>IF(G49=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f>IF(H49=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y49" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T49:W49,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z49" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA49">
+        <f>IF(AND(Y49="",Z49=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T49:W49,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T49:W49,T$14:W$14,-1,0,-1),C$11:H$11,C49:H49), "")</f>
+        <v>2</v>
+      </c>
+      <c r="AB49">
+        <f>IF(AND(Y49="",Z49=""),_xlfn.XLOOKUP(2,T49:W49,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T49:W49,T$14:W$14,-1,0,-1)-AA49, "")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <f>IF(AND(D49=D$14,D50=D$13),C$13+C$14-C49,C49)</f>
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <f>IF(AND(E49=E$14,E50=E$13),D$13+D$14-D49,D49)</f>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f>IF(AND(F49=F$14,F50=F$13),E$13+E$14-E49,E49)</f>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f>IF(AND(G49=G$14,G50=G$13),F$13+F$14-F49,F49)</f>
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <f>IF(AND(H49=H$14,H50=H$13),G$13+G$14-G49,G49)</f>
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <f>H$14+H$13-H49</f>
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <f>IF(C50=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L50">
+        <f>IF(D50=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M50">
+        <f>IF(E50=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f>IF(F50=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O50">
+        <f>IF(G50=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f>IF(H50=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y50" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T50:W50,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="AA50" t="str">
+        <f>IF(AND(Y50="",Z50=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T50:W50,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T50:W50,T$14:W$14,-1,0,-1),C$11:H$11,C50:H50), "")</f>
+        <v/>
+      </c>
+      <c r="AB50" t="str">
+        <f>IF(AND(Y50="",Z50=""),_xlfn.XLOOKUP(2,T50:W50,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T50:W50,T$14:W$14,-1,0,-1)-AA50, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <f>IF(AND(D50=D$14,D51=D$13),C$13+C$14-C50,C50)</f>
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <f>IF(AND(E50=E$14,E51=E$13),D$13+D$14-D50,D50)</f>
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f>IF(AND(F50=F$14,F51=F$13),E$13+E$14-E50,E50)</f>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f>IF(AND(G50=G$14,G51=G$13),F$13+F$14-F50,F50)</f>
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <f>IF(AND(H50=H$14,H51=H$13),G$13+G$14-G50,G50)</f>
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <f>H$14+H$13-H50</f>
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <f>IF(C51=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L51">
+        <f>IF(D51=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M51">
+        <f>IF(E51=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <f>IF(F51=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O51">
+        <f>IF(G51=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f>IF(H51=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T51:W51,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z51" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="AA51" t="str">
+        <f>IF(AND(Y51="",Z51=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T51:W51,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T51:W51,T$14:W$14,-1,0,-1),C$11:H$11,C51:H51), "")</f>
+        <v/>
+      </c>
+      <c r="AB51" t="str">
+        <f>IF(AND(Y51="",Z51=""),_xlfn.XLOOKUP(2,T51:W51,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T51:W51,T$14:W$14,-1,0,-1)-AA51, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <f>IF(AND(D51=D$14,D52=D$13),C$13+C$14-C51,C51)</f>
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <f>IF(AND(E51=E$14,E52=E$13),D$13+D$14-D51,D51)</f>
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f>IF(AND(F51=F$14,F52=F$13),E$13+E$14-E51,E51)</f>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f>IF(AND(G51=G$14,G52=G$13),F$13+F$14-F51,F51)</f>
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <f>IF(AND(H51=H$14,H52=H$13),G$13+G$14-G51,G51)</f>
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <f>H$14+H$13-H51</f>
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <f>IF(C52=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L52">
+        <f>IF(D52=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M52">
+        <f>IF(E52=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <f>IF(F52=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O52">
+        <f>IF(G52=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <f>IF(H52=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y52" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T52:W52,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA52">
+        <f>IF(AND(Y52="",Z52=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T52:W52,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T52:W52,T$14:W$14,-1,0,-1),C$11:H$11,C52:H52), "")</f>
+        <v>2</v>
+      </c>
+      <c r="AB52">
+        <f>IF(AND(Y52="",Z52=""),_xlfn.XLOOKUP(2,T52:W52,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T52:W52,T$14:W$14,-1,0,-1)-AA52, "")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <f>IF(AND(D52=D$14,D53=D$13),C$13+C$14-C52,C52)</f>
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <f>IF(AND(E52=E$14,E53=E$13),D$13+D$14-D52,D52)</f>
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f>IF(AND(F52=F$14,F53=F$13),E$13+E$14-E52,E52)</f>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f>IF(AND(G52=G$14,G53=G$13),F$13+F$14-F52,F52)</f>
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <f>IF(AND(H52=H$14,H53=H$13),G$13+G$14-G52,G52)</f>
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <f>H$14+H$13-H52</f>
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <f>IF(C53=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L53">
+        <f>IF(D53=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M53">
+        <f>IF(E53=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <f>IF(F53=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O53">
+        <f>IF(G53=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f>IF(H53=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y53" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T53:W53,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA53">
+        <f>IF(AND(Y53="",Z53=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T53:W53,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T53:W53,T$14:W$14,-1,0,-1),C$11:H$11,C53:H53), "")</f>
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <f>IF(AND(Y53="",Z53=""),_xlfn.XLOOKUP(2,T53:W53,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T53:W53,T$14:W$14,-1,0,-1)-AA53, "")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <f>IF(AND(D53=D$14,D54=D$13),C$13+C$14-C53,C53)</f>
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <f>IF(AND(E53=E$14,E54=E$13),D$13+D$14-D53,D53)</f>
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <f>IF(AND(F53=F$14,F54=F$13),E$13+E$14-E53,E53)</f>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f>IF(AND(G53=G$14,G54=G$13),F$13+F$14-F53,F53)</f>
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <f>IF(AND(H53=H$14,H54=H$13),G$13+G$14-G53,G53)</f>
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <f>H$14+H$13-H53</f>
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <f>IF(C54=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L54">
+        <f>IF(D54=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M54">
+        <f>IF(E54=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f>IF(F54=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O54">
+        <f>IF(G54=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f>IF(H54=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y54" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T54:W54,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA54">
+        <f>IF(AND(Y54="",Z54=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T54:W54,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T54:W54,T$14:W$14,-1,0,-1),C$11:H$11,C54:H54), "")</f>
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <f>IF(AND(Y54="",Z54=""),_xlfn.XLOOKUP(2,T54:W54,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T54:W54,T$14:W$14,-1,0,-1)-AA54, "")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <f>IF(AND(D54=D$14,D55=D$13),C$13+C$14-C54,C54)</f>
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <f>IF(AND(E54=E$14,E55=E$13),D$13+D$14-D54,D54)</f>
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <f>IF(AND(F54=F$14,F55=F$13),E$13+E$14-E54,E54)</f>
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <f>IF(AND(G54=G$14,G55=G$13),F$13+F$14-F54,F54)</f>
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <f>IF(AND(H54=H$14,H55=H$13),G$13+G$14-G54,G54)</f>
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <f>H$14+H$13-H54</f>
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <f>IF(C55=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L55">
+        <f>IF(D55=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M55">
+        <f>IF(E55=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f>IF(F55=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O55">
+        <f>IF(G55=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <f>IF(H55=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T55:W55,T$14:W$14), "")</f>
+        <v>2</v>
+      </c>
+      <c r="Z55" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA55" t="str">
+        <f>IF(AND(Y55="",Z55=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T55:W55,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T55:W55,T$14:W$14,-1,0,-1),C$11:H$11,C55:H55), "")</f>
+        <v/>
+      </c>
+      <c r="AB55" t="str">
+        <f>IF(AND(Y55="",Z55=""),_xlfn.XLOOKUP(2,T55:W55,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T55:W55,T$14:W$14,-1,0,-1)-AA55, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f>IF(AND(D55=D$14,D56=D$13),C$13+C$14-C55,C55)</f>
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <f>IF(AND(E55=E$14,E56=E$13),D$13+D$14-D55,D55)</f>
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <f>IF(AND(F55=F$14,F56=F$13),E$13+E$14-E55,E55)</f>
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <f>IF(AND(G55=G$14,G56=G$13),F$13+F$14-F55,F55)</f>
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <f>IF(AND(H55=H$14,H56=H$13),G$13+G$14-G55,G55)</f>
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <f>H$14+H$13-H55</f>
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <f>IF(C56=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L56">
+        <f>IF(D56=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M56">
+        <f>IF(E56=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f>IF(F56=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O56">
+        <f>IF(G56=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <f>IF(H56=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y56">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T56:W56,T$14:W$14), "")</f>
+        <v>2</v>
+      </c>
+      <c r="Z56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA56" t="str">
+        <f>IF(AND(Y56="",Z56=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T56:W56,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T56:W56,T$14:W$14,-1,0,-1),C$11:H$11,C56:H56), "")</f>
+        <v/>
+      </c>
+      <c r="AB56" t="str">
+        <f>IF(AND(Y56="",Z56=""),_xlfn.XLOOKUP(2,T56:W56,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T56:W56,T$14:W$14,-1,0,-1)-AA56, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <f>IF(AND(D56=D$14,D57=D$13),C$13+C$14-C56,C56)</f>
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <f>IF(AND(E56=E$14,E57=E$13),D$13+D$14-D56,D56)</f>
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <f>IF(AND(F56=F$14,F57=F$13),E$13+E$14-E56,E56)</f>
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <f>IF(AND(G56=G$14,G57=G$13),F$13+F$14-F56,F56)</f>
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <f>IF(AND(H56=H$14,H57=H$13),G$13+G$14-G56,G56)</f>
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <f>H$14+H$13-H56</f>
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <f>IF(C57=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L57">
+        <f>IF(D57=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M57">
+        <f>IF(E57=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f>IF(F57=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O57">
+        <f>IF(G57=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f>IF(H57=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y57" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T57:W57,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z57" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA57">
+        <f>IF(AND(Y57="",Z57=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T57:W57,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T57:W57,T$14:W$14,-1,0,-1),C$11:H$11,C57:H57), "")</f>
+        <v>4</v>
+      </c>
+      <c r="AB57">
+        <f>IF(AND(Y57="",Z57=""),_xlfn.XLOOKUP(2,T57:W57,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T57:W57,T$14:W$14,-1,0,-1)-AA57, "")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <f>IF(AND(D57=D$14,D58=D$13),C$13+C$14-C57,C57)</f>
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <f>IF(AND(E57=E$14,E58=E$13),D$13+D$14-D57,D57)</f>
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f>IF(AND(F57=F$14,F58=F$13),E$13+E$14-E57,E57)</f>
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <f>IF(AND(G57=G$14,G58=G$13),F$13+F$14-F57,F57)</f>
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <f>IF(AND(H57=H$14,H58=H$13),G$13+G$14-G57,G57)</f>
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <f>H$14+H$13-H57</f>
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <f>IF(C58=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L58">
+        <f>IF(D58=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M58">
+        <f>IF(E58=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f>IF(F58=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O58">
+        <f>IF(G58=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f>IF(H58=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="Y58">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T58:W58,T$14:W$14), "")</f>
+        <v>4</v>
+      </c>
+      <c r="Z58" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA58" t="str">
+        <f>IF(AND(Y58="",Z58=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T58:W58,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T58:W58,T$14:W$14,-1,0,-1),C$11:H$11,C58:H58), "")</f>
+        <v/>
+      </c>
+      <c r="AB58" t="str">
+        <f>IF(AND(Y58="",Z58=""),_xlfn.XLOOKUP(2,T58:W58,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T58:W58,T$14:W$14,-1,0,-1)-AA58, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <f>IF(AND(D58=D$14,D59=D$13),C$13+C$14-C58,C58)</f>
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <f>IF(AND(E58=E$14,E59=E$13),D$13+D$14-D58,D58)</f>
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f>IF(AND(F58=F$14,F59=F$13),E$13+E$14-E58,E58)</f>
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <f>IF(AND(G58=G$14,G59=G$13),F$13+F$14-F58,F58)</f>
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <f>IF(AND(H58=H$14,H59=H$13),G$13+G$14-G58,G58)</f>
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <f>H$14+H$13-H58</f>
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <f>IF(C59=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L59">
+        <f>IF(D59=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M59">
+        <f>IF(E59=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f>IF(F59=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O59">
+        <f>IF(G59=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <f>IF(H59=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y59" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T59:W59,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA59">
+        <f>IF(AND(Y59="",Z59=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T59:W59,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T59:W59,T$14:W$14,-1,0,-1),C$11:H$11,C59:H59), "")</f>
+        <v>3</v>
+      </c>
+      <c r="AB59">
+        <f>IF(AND(Y59="",Z59=""),_xlfn.XLOOKUP(2,T59:W59,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T59:W59,T$14:W$14,-1,0,-1)-AA59, "")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <f>IF(AND(D59=D$14,D60=D$13),C$13+C$14-C59,C59)</f>
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <f>IF(AND(E59=E$14,E60=E$13),D$13+D$14-D59,D59)</f>
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <f>IF(AND(F59=F$14,F60=F$13),E$13+E$14-E59,E59)</f>
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <f>IF(AND(G59=G$14,G60=G$13),F$13+F$14-F59,F59)</f>
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <f>IF(AND(H59=H$14,H60=H$13),G$13+G$14-G59,G59)</f>
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <f>H$14+H$13-H59</f>
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <f>IF(C60=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L60">
+        <f>IF(D60=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M60">
+        <f>IF(E60=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f>IF(F60=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O60">
+        <f>IF(G60=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <f>IF(H60=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y60" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T60:W60,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z60" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA60">
+        <f>IF(AND(Y60="",Z60=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T60:W60,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T60:W60,T$14:W$14,-1,0,-1),C$11:H$11,C60:H60), "")</f>
+        <v>2</v>
+      </c>
+      <c r="AB60">
+        <f>IF(AND(Y60="",Z60=""),_xlfn.XLOOKUP(2,T60:W60,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T60:W60,T$14:W$14,-1,0,-1)-AA60, "")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <f>IF(AND(D60=D$14,D61=D$13),C$13+C$14-C60,C60)</f>
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <f>IF(AND(E60=E$14,E61=E$13),D$13+D$14-D60,D60)</f>
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <f>IF(AND(F60=F$14,F61=F$13),E$13+E$14-E60,E60)</f>
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <f>IF(AND(G60=G$14,G61=G$13),F$13+F$14-F60,F60)</f>
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <f>IF(AND(H60=H$14,H61=H$13),G$13+G$14-G60,G60)</f>
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <f>H$14+H$13-H60</f>
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <f>IF(C61=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L61">
+        <f>IF(D61=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M61">
+        <f>IF(E61=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f>IF(F61=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O61">
+        <f>IF(G61=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f>IF(H61=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y61" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T61:W61,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA61">
+        <f>IF(AND(Y61="",Z61=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T61:W61,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T61:W61,T$14:W$14,-1,0,-1),C$11:H$11,C61:H61), "")</f>
+        <v>3</v>
+      </c>
+      <c r="AB61">
+        <f>IF(AND(Y61="",Z61=""),_xlfn.XLOOKUP(2,T61:W61,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T61:W61,T$14:W$14,-1,0,-1)-AA61, "")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <f>IF(AND(D61=D$14,D62=D$13),C$13+C$14-C61,C61)</f>
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <f>IF(AND(E61=E$14,E62=E$13),D$13+D$14-D61,D61)</f>
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <f>IF(AND(F61=F$14,F62=F$13),E$13+E$14-E61,E61)</f>
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <f>IF(AND(G61=G$14,G62=G$13),F$13+F$14-F61,F61)</f>
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <f>IF(AND(H61=H$14,H62=H$13),G$13+G$14-G61,G61)</f>
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <f>H$14+H$13-H61</f>
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <f>IF(C62=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L62">
+        <f>IF(D62=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M62">
+        <f>IF(E62=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f>IF(F62=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O62">
+        <f>IF(G62=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f>IF(H62=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="Y62">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T62:W62,T$14:W$14), "")</f>
+        <v>4</v>
+      </c>
+      <c r="Z62" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA62" t="str">
+        <f>IF(AND(Y62="",Z62=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T62:W62,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T62:W62,T$14:W$14,-1,0,-1),C$11:H$11,C62:H62), "")</f>
+        <v/>
+      </c>
+      <c r="AB62" t="str">
+        <f>IF(AND(Y62="",Z62=""),_xlfn.XLOOKUP(2,T62:W62,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T62:W62,T$14:W$14,-1,0,-1)-AA62, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <f>IF(AND(D62=D$14,D63=D$13),C$13+C$14-C62,C62)</f>
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <f>IF(AND(E62=E$14,E63=E$13),D$13+D$14-D62,D62)</f>
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <f>IF(AND(F62=F$14,F63=F$13),E$13+E$14-E62,E62)</f>
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f>IF(AND(G62=G$14,G63=G$13),F$13+F$14-F62,F62)</f>
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <f>IF(AND(H62=H$14,H63=H$13),G$13+G$14-G62,G62)</f>
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <f>H$14+H$13-H62</f>
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <f>IF(C63=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L63">
+        <f>IF(D63=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M63">
+        <f>IF(E63=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <f>IF(F63=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O63">
+        <f>IF(G63=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <f>IF(H63=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T63:W63,T$14:W$14), "")</f>
+        <v>2</v>
+      </c>
+      <c r="Z63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA63" t="str">
+        <f>IF(AND(Y63="",Z63=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T63:W63,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T63:W63,T$14:W$14,-1,0,-1),C$11:H$11,C63:H63), "")</f>
+        <v/>
+      </c>
+      <c r="AB63" t="str">
+        <f>IF(AND(Y63="",Z63=""),_xlfn.XLOOKUP(2,T63:W63,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T63:W63,T$14:W$14,-1,0,-1)-AA63, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <f>IF(AND(D63=D$14,D64=D$13),C$13+C$14-C63,C63)</f>
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <f>IF(AND(E63=E$14,E64=E$13),D$13+D$14-D63,D63)</f>
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <f>IF(AND(F63=F$14,F64=F$13),E$13+E$14-E63,E63)</f>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f>IF(AND(G63=G$14,G64=G$13),F$13+F$14-F63,F63)</f>
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <f>IF(AND(H63=H$14,H64=H$13),G$13+G$14-G63,G63)</f>
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <f>H$14+H$13-H63</f>
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <f>IF(C64=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L64">
+        <f>IF(D64=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M64">
+        <f>IF(E64=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <f>IF(F64=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O64">
+        <f>IF(G64=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <f>IF(H64=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T64:W64,T$14:W$14), "")</f>
+        <v>2</v>
+      </c>
+      <c r="Z64" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA64" t="str">
+        <f>IF(AND(Y64="",Z64=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T64:W64,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T64:W64,T$14:W$14,-1,0,-1),C$11:H$11,C64:H64), "")</f>
+        <v/>
+      </c>
+      <c r="AB64" t="str">
+        <f>IF(AND(Y64="",Z64=""),_xlfn.XLOOKUP(2,T64:W64,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T64:W64,T$14:W$14,-1,0,-1)-AA64, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f>IF(AND(D64=D$14,D65=D$13),C$13+C$14-C64,C64)</f>
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <f>IF(AND(E64=E$14,E65=E$13),D$13+D$14-D64,D64)</f>
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <f>IF(AND(F64=F$14,F65=F$13),E$13+E$14-E64,E64)</f>
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f>IF(AND(G64=G$14,G65=G$13),F$13+F$14-F64,F64)</f>
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <f>IF(AND(H64=H$14,H65=H$13),G$13+G$14-G64,G64)</f>
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <f>H$14+H$13-H64</f>
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <f>IF(C65=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L65">
+        <f>IF(D65=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M65">
+        <f>IF(E65=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <f>IF(F65=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O65">
+        <f>IF(G65=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f>IF(H65=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y65" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T65:W65,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA65">
+        <f>IF(AND(Y65="",Z65=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T65:W65,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T65:W65,T$14:W$14,-1,0,-1),C$11:H$11,C65:H65), "")</f>
+        <v>2</v>
+      </c>
+      <c r="AB65">
+        <f>IF(AND(Y65="",Z65=""),_xlfn.XLOOKUP(2,T65:W65,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T65:W65,T$14:W$14,-1,0,-1)-AA65, "")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <f>IF(AND(D65=D$14,D66=D$13),C$13+C$14-C65,C65)</f>
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <f>IF(AND(E65=E$14,E66=E$13),D$13+D$14-D65,D65)</f>
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <f>IF(AND(F65=F$14,F66=F$13),E$13+E$14-E65,E65)</f>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f>IF(AND(G65=G$14,G66=G$13),F$13+F$14-F65,F65)</f>
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <f>IF(AND(H65=H$14,H66=H$13),G$13+G$14-G65,G65)</f>
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <f>H$14+H$13-H65</f>
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <f>IF(C66=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L66">
+        <f>IF(D66=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M66">
+        <f>IF(E66=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f>IF(F66=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O66">
+        <f>IF(G66=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f>IF(H66=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y66" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T66:W66,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z66" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA66">
+        <f>IF(AND(Y66="",Z66=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T66:W66,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T66:W66,T$14:W$14,-1,0,-1),C$11:H$11,C66:H66), "")</f>
+        <v>4</v>
+      </c>
+      <c r="AB66">
+        <f>IF(AND(Y66="",Z66=""),_xlfn.XLOOKUP(2,T66:W66,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T66:W66,T$14:W$14,-1,0,-1)-AA66, "")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <f>IF(AND(D66=D$14,D67=D$13),C$13+C$14-C66,C66)</f>
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <f>IF(AND(E66=E$14,E67=E$13),D$13+D$14-D66,D66)</f>
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <f>IF(AND(F66=F$14,F67=F$13),E$13+E$14-E66,E66)</f>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f>IF(AND(G66=G$14,G67=G$13),F$13+F$14-F66,F66)</f>
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <f>IF(AND(H66=H$14,H67=H$13),G$13+G$14-G66,G66)</f>
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <f>H$14+H$13-H66</f>
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <f>IF(C67=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L67">
+        <f>IF(D67=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M67">
+        <f>IF(E67=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <f>IF(F67=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O67">
+        <f>IF(G67=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <f>IF(H67=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T67:W67,T$14:W$14), "")</f>
+        <v>3</v>
+      </c>
+      <c r="Z67" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA67" t="str">
+        <f>IF(AND(Y67="",Z67=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T67:W67,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T67:W67,T$14:W$14,-1,0,-1),C$11:H$11,C67:H67), "")</f>
+        <v/>
+      </c>
+      <c r="AB67" t="str">
+        <f>IF(AND(Y67="",Z67=""),_xlfn.XLOOKUP(2,T67:W67,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T67:W67,T$14:W$14,-1,0,-1)-AA67, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <f>IF(AND(D67=D$14,D68=D$13),C$13+C$14-C67,C67)</f>
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <f>IF(AND(E67=E$14,E68=E$13),D$13+D$14-D67,D67)</f>
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <f>IF(AND(F67=F$14,F68=F$13),E$13+E$14-E67,E67)</f>
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <f>IF(AND(G67=G$14,G68=G$13),F$13+F$14-F67,F67)</f>
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <f>IF(AND(H67=H$14,H68=H$13),G$13+G$14-G67,G67)</f>
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <f>H$14+H$13-H67</f>
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <f>IF(C68=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L68">
+        <f>IF(D68=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M68">
+        <f>IF(E68=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <f>IF(F68=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O68">
+        <f>IF(G68=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <f>IF(H68=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y68" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T68:W68,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z68" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA68">
+        <f>IF(AND(Y68="",Z68=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T68:W68,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T68:W68,T$14:W$14,-1,0,-1),C$11:H$11,C68:H68), "")</f>
+        <v>3</v>
+      </c>
+      <c r="AB68">
+        <f>IF(AND(Y68="",Z68=""),_xlfn.XLOOKUP(2,T68:W68,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T68:W68,T$14:W$14,-1,0,-1)-AA68, "")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <f>IF(AND(D68=D$14,D69=D$13),C$13+C$14-C68,C68)</f>
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <f>IF(AND(E68=E$14,E69=E$13),D$13+D$14-D68,D68)</f>
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <f>IF(AND(F68=F$14,F69=F$13),E$13+E$14-E68,E68)</f>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f>IF(AND(G68=G$14,G69=G$13),F$13+F$14-F68,F68)</f>
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <f>IF(AND(H68=H$14,H69=H$13),G$13+G$14-G68,G68)</f>
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <f>H$14+H$13-H68</f>
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <f>IF(C69=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L69">
+        <f>IF(D69=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M69">
+        <f>IF(E69=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <f>IF(F69=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O69">
+        <f>IF(G69=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f>IF(H69=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T69:W69,T$14:W$14), "")</f>
+        <v>3</v>
+      </c>
+      <c r="Z69" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA69" t="str">
+        <f>IF(AND(Y69="",Z69=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T69:W69,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T69:W69,T$14:W$14,-1,0,-1),C$11:H$11,C69:H69), "")</f>
+        <v/>
+      </c>
+      <c r="AB69" t="str">
+        <f>IF(AND(Y69="",Z69=""),_xlfn.XLOOKUP(2,T69:W69,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T69:W69,T$14:W$14,-1,0,-1)-AA69, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <f>IF(AND(D69=D$14,D70=D$13),C$13+C$14-C69,C69)</f>
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <f>IF(AND(E69=E$14,E70=E$13),D$13+D$14-D69,D69)</f>
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <f>IF(AND(F69=F$14,F70=F$13),E$13+E$14-E69,E69)</f>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f>IF(AND(G69=G$14,G70=G$13),F$13+F$14-F69,F69)</f>
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <f>IF(AND(H69=H$14,H70=H$13),G$13+G$14-G69,G69)</f>
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <f>H$14+H$13-H69</f>
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <f>IF(C70=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L70">
+        <f>IF(D70=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M70">
+        <f>IF(E70=E$13,1-E$12,E$12)</f>
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <f>IF(F70=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O70">
+        <f>IF(G70=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f>IF(H70=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y70" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T70:W70,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z70" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA70">
+        <f>IF(AND(Y70="",Z70=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T70:W70,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T70:W70,T$14:W$14,-1,0,-1),C$11:H$11,C70:H70), "")</f>
+        <v>4</v>
+      </c>
+      <c r="AB70">
+        <f>IF(AND(Y70="",Z70=""),_xlfn.XLOOKUP(2,T70:W70,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T70:W70,T$14:W$14,-1,0,-1)-AA70, "")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <f>IF(AND(D70=D$14,D71=D$13),C$13+C$14-C70,C70)</f>
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <f>IF(AND(E70=E$14,E71=E$13),D$13+D$14-D70,D70)</f>
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <f>IF(AND(F70=F$14,F71=F$13),E$13+E$14-E70,E70)</f>
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <f>IF(AND(G70=G$14,G71=G$13),F$13+F$14-F70,F70)</f>
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <f>IF(AND(H70=H$14,H71=H$13),G$13+G$14-G70,G70)</f>
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <f>H$14+H$13-H70</f>
+        <v>3</v>
+      </c>
+      <c r="K71">
+        <f>IF(C71=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L71">
+        <f>IF(D71=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M71">
+        <f>IF(E71=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f>IF(F71=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O71">
+        <f>IF(G71=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <f>IF(H71=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T71:W71,T$14:W$14), "")</f>
+        <v>2</v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA71" t="str">
+        <f>IF(AND(Y71="",Z71=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T71:W71,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T71:W71,T$14:W$14,-1,0,-1),C$11:H$11,C71:H71), "")</f>
+        <v/>
+      </c>
+      <c r="AB71" t="str">
+        <f>IF(AND(Y71="",Z71=""),_xlfn.XLOOKUP(2,T71:W71,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T71:W71,T$14:W$14,-1,0,-1)-AA71, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <f>IF(AND(D71=D$14,D72=D$13),C$13+C$14-C71,C71)</f>
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <f>IF(AND(E71=E$14,E72=E$13),D$13+D$14-D71,D71)</f>
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <f>IF(AND(F71=F$14,F72=F$13),E$13+E$14-E71,E71)</f>
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <f>IF(AND(G71=G$14,G72=G$13),F$13+F$14-F71,F71)</f>
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <f>IF(AND(H71=H$14,H72=H$13),G$13+G$14-G71,G71)</f>
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <f>H$14+H$13-H71</f>
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <f>IF(C72=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L72">
+        <f>IF(D72=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M72">
+        <f>IF(E72=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f>IF(F72=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O72">
+        <f>IF(G72=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <f>IF(H72=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y72">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T72:W72,T$14:W$14), "")</f>
+        <v>2</v>
+      </c>
+      <c r="Z72" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA72" t="str">
+        <f>IF(AND(Y72="",Z72=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T72:W72,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T72:W72,T$14:W$14,-1,0,-1),C$11:H$11,C72:H72), "")</f>
+        <v/>
+      </c>
+      <c r="AB72" t="str">
+        <f>IF(AND(Y72="",Z72=""),_xlfn.XLOOKUP(2,T72:W72,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T72:W72,T$14:W$14,-1,0,-1)-AA72, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <f>IF(AND(D72=D$14,D73=D$13),C$13+C$14-C72,C72)</f>
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <f>IF(AND(E72=E$14,E73=E$13),D$13+D$14-D72,D72)</f>
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <f>IF(AND(F72=F$14,F73=F$13),E$13+E$14-E72,E72)</f>
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <f>IF(AND(G72=G$14,G73=G$13),F$13+F$14-F72,F72)</f>
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <f>IF(AND(H72=H$14,H73=H$13),G$13+G$14-G72,G72)</f>
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <f>H$14+H$13-H72</f>
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <f>IF(C73=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L73">
+        <f>IF(D73=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M73">
+        <f>IF(E73=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f>IF(F73=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O73">
+        <f>IF(G73=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f>IF(H73=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y73" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T73:W73,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z73" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="AA73" t="str">
+        <f>IF(AND(Y73="",Z73=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T73:W73,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T73:W73,T$14:W$14,-1,0,-1),C$11:H$11,C73:H73), "")</f>
+        <v/>
+      </c>
+      <c r="AB73" t="str">
+        <f>IF(AND(Y73="",Z73=""),_xlfn.XLOOKUP(2,T73:W73,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T73:W73,T$14:W$14,-1,0,-1)-AA73, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <f>IF(AND(D73=D$14,D74=D$13),C$13+C$14-C73,C73)</f>
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <f>IF(AND(E73=E$14,E74=E$13),D$13+D$14-D73,D73)</f>
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <f>IF(AND(F73=F$14,F74=F$13),E$13+E$14-E73,E73)</f>
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <f>IF(AND(G73=G$14,G74=G$13),F$13+F$14-F73,F73)</f>
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <f>IF(AND(H73=H$14,H74=H$13),G$13+G$14-G73,G73)</f>
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <f>H$14+H$13-H73</f>
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <f>IF(C74=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L74">
+        <f>IF(D74=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M74">
+        <f>IF(E74=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f>IF(F74=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O74">
+        <f>IF(G74=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f>IF(H74=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="Y74">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T74:W74,T$14:W$14), "")</f>
+        <v>4</v>
+      </c>
+      <c r="Z74" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA74" t="str">
+        <f>IF(AND(Y74="",Z74=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T74:W74,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T74:W74,T$14:W$14,-1,0,-1),C$11:H$11,C74:H74), "")</f>
+        <v/>
+      </c>
+      <c r="AB74" t="str">
+        <f>IF(AND(Y74="",Z74=""),_xlfn.XLOOKUP(2,T74:W74,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T74:W74,T$14:W$14,-1,0,-1)-AA74, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <f>IF(AND(D74=D$14,D75=D$13),C$13+C$14-C74,C74)</f>
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <f>IF(AND(E74=E$14,E75=E$13),D$13+D$14-D74,D74)</f>
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <f>IF(AND(F74=F$14,F75=F$13),E$13+E$14-E74,E74)</f>
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <f>IF(AND(G74=G$14,G75=G$13),F$13+F$14-F74,F74)</f>
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <f>IF(AND(H74=H$14,H75=H$13),G$13+G$14-G74,G74)</f>
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <f>H$14+H$13-H74</f>
+        <v>3</v>
+      </c>
+      <c r="K75">
+        <f>IF(C75=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L75">
+        <f>IF(D75=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M75">
+        <f>IF(E75=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f>IF(F75=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O75">
+        <f>IF(G75=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <f>IF(H75=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T75:W75,T$14:W$14), "")</f>
+        <v>3</v>
+      </c>
+      <c r="Z75" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA75" t="str">
+        <f>IF(AND(Y75="",Z75=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T75:W75,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T75:W75,T$14:W$14,-1,0,-1),C$11:H$11,C75:H75), "")</f>
+        <v/>
+      </c>
+      <c r="AB75" t="str">
+        <f>IF(AND(Y75="",Z75=""),_xlfn.XLOOKUP(2,T75:W75,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T75:W75,T$14:W$14,-1,0,-1)-AA75, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <f>IF(AND(D75=D$14,D76=D$13),C$13+C$14-C75,C75)</f>
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <f>IF(AND(E75=E$14,E76=E$13),D$13+D$14-D75,D75)</f>
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <f>IF(AND(F75=F$14,F76=F$13),E$13+E$14-E75,E75)</f>
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <f>IF(AND(G75=G$14,G76=G$13),F$13+F$14-F75,F75)</f>
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <f>IF(AND(H75=H$14,H76=H$13),G$13+G$14-G75,G75)</f>
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <f>H$14+H$13-H75</f>
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <f>IF(C76=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L76">
+        <f>IF(D76=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M76">
+        <f>IF(E76=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f>IF(F76=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O76">
+        <f>IF(G76=G$13,1-G$12,G$12)</f>
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <f>IF(H76=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y76" t="str">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T76:W76,T$14:W$14), "")</f>
+        <v/>
+      </c>
+      <c r="Z76" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="AA76" t="str">
+        <f>IF(AND(Y76="",Z76=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T76:W76,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T76:W76,T$14:W$14,-1,0,-1),C$11:H$11,C76:H76), "")</f>
+        <v/>
+      </c>
+      <c r="AB76" t="str">
+        <f>IF(AND(Y76="",Z76=""),_xlfn.XLOOKUP(2,T76:W76,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T76:W76,T$14:W$14,-1,0,-1)-AA76, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <f>IF(AND(D76=D$14,D77=D$13),C$13+C$14-C76,C76)</f>
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <f>IF(AND(E76=E$14,E77=E$13),D$13+D$14-D76,D76)</f>
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <f>IF(AND(F76=F$14,F77=F$13),E$13+E$14-E76,E76)</f>
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <f>IF(AND(G76=G$14,G77=G$13),F$13+F$14-F76,F76)</f>
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <f>IF(AND(H76=H$14,H77=H$13),G$13+G$14-G76,G76)</f>
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <f>H$14+H$13-H76</f>
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <f>IF(C77=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L77">
+        <f>IF(D77=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M77">
+        <f>IF(E77=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f>IF(F77=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O77">
+        <f>IF(G77=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f>IF(H77=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y77">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T77:W77,T$14:W$14), "")</f>
+        <v>3</v>
+      </c>
+      <c r="Z77" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA77" t="str">
+        <f>IF(AND(Y77="",Z77=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T77:W77,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T77:W77,T$14:W$14,-1,0,-1),C$11:H$11,C77:H77), "")</f>
+        <v/>
+      </c>
+      <c r="AB77" t="str">
+        <f>IF(AND(Y77="",Z77=""),_xlfn.XLOOKUP(2,T77:W77,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T77:W77,T$14:W$14,-1,0,-1)-AA77, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <f>IF(AND(D77=D$14,D78=D$13),C$13+C$14-C77,C77)</f>
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <f>IF(AND(E77=E$14,E78=E$13),D$13+D$14-D77,D77)</f>
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <f>IF(AND(F77=F$14,F78=F$13),E$13+E$14-E77,E77)</f>
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <f>IF(AND(G77=G$14,G78=G$13),F$13+F$14-F77,F77)</f>
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <f>IF(AND(H77=H$14,H78=H$13),G$13+G$14-G77,G77)</f>
+        <v>4</v>
+      </c>
+      <c r="H78">
+        <f>H$14+H$13-H77</f>
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <f>IF(C78=C$13,1-C$12,C$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L78">
+        <f>IF(D78=D$13,1-D$12,D$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M78">
+        <f>IF(E78=E$13,1-E$12,E$12)</f>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f>IF(F78=F$13,1-F$12,F$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O78">
+        <f>IF(G78=G$13,1-G$12,G$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f>IF(H78=H$13,1-H$12,H$12)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="Y78">
+        <f>IFERROR(_xlfn.XLOOKUP(3,T78:W78,T$14:W$14), "")</f>
+        <v>4</v>
+      </c>
+      <c r="Z78" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA78" t="str">
+        <f>IF(AND(Y78="",Z78=""),_xlfn.XLOOKUP(_xlfn.XLOOKUP(2,T78:W78,T$14:W$14,-1,0,1)&amp;_xlfn.XLOOKUP(2,T78:W78,T$14:W$14,-1,0,-1),C$11:H$11,C78:H78), "")</f>
+        <v/>
+      </c>
+      <c r="AB78" t="str">
+        <f>IF(AND(Y78="",Z78=""),_xlfn.XLOOKUP(2,T78:W78,T$14:W$14,-1,0,1)+_xlfn.XLOOKUP(2,T78:W78,T$14:W$14,-1,0,-1)-AA78, "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="T13:W13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1876FCB-6DB9-423A-8CE5-BFA1290FCF13}">
   <dimension ref="A2:P18"/>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068BF1B8-3E65-43DD-9C67-7628BE033D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5BF41E-01CD-40E5-BC2D-B7012512D115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="18" activeTab="26" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="23" activeTab="30" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,9 @@
     <sheet name="rr calcs" sheetId="33" r:id="rId26"/>
     <sheet name="maui" sheetId="34" r:id="rId27"/>
     <sheet name="012 swiss" sheetId="35" r:id="rId28"/>
+    <sheet name="multiple elim" sheetId="36" r:id="rId29"/>
+    <sheet name="D4" sheetId="37" r:id="rId30"/>
+    <sheet name="adtnl" sheetId="38" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="25" hidden="1">'rr calcs'!$C$12:$H$12</definedName>
@@ -111,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="213">
   <si>
     <t>Georgia</t>
   </si>
@@ -651,6 +654,105 @@
   </si>
   <si>
     <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>E1*</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>*lower team must win twice</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K1*</t>
+  </si>
+  <si>
+    <t>J1*</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>*skipped if the teams are the same</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1548,6 +1650,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -11551,7 +11672,7 @@
   <dimension ref="C3:P41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F17"/>
+      <selection activeCell="C1" sqref="C1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16641,7 +16762,7 @@
   <dimension ref="C2:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="D13" sqref="D13:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23481,19 +23602,19 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C05447F-6B46-42CB-A86F-548E011CD6B9}">
-  <dimension ref="B3:R47"/>
+  <dimension ref="B3:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="11" width="14.44140625" customWidth="1"/>
-    <col min="15" max="18" width="14.44140625" customWidth="1"/>
+    <col min="15" max="22" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -23511,8 +23632,13 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -23530,8 +23656,13 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="6">
         <v>1</v>
@@ -23555,8 +23686,15 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="28" t="s">
         <v>40</v>
@@ -23582,8 +23720,15 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="8">
         <v>8</v>
@@ -23607,8 +23752,15 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S7" s="8">
+        <v>8</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="23" t="s">
@@ -23634,8 +23786,15 @@
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S8" s="6"/>
+      <c r="T8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="6">
         <v>4</v>
@@ -23659,8 +23818,15 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S9" s="6">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="28" t="s">
         <v>41</v>
@@ -23686,8 +23852,15 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="8">
         <v>5</v>
@@ -23711,8 +23884,15 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S11" s="8">
+        <v>5</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
@@ -23736,8 +23916,15 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S12" s="6"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="6">
         <v>3</v>
@@ -23761,8 +23948,15 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S13" s="6">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="28" t="s">
         <v>42</v>
@@ -23788,8 +23982,15 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="8">
         <v>6</v>
@@ -23813,8 +24014,15 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S15" s="8">
+        <v>6</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
       <c r="D16" s="23" t="s">
@@ -23840,8 +24048,15 @@
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S16" s="6"/>
+      <c r="T16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="6">
         <v>2</v>
@@ -23865,8 +24080,15 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S17" s="6">
+        <v>2</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="28" t="s">
         <v>43</v>
@@ -23892,8 +24114,15 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="8">
         <v>7</v>
@@ -23921,8 +24150,17 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S19" s="8">
+        <v>7</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -23942,8 +24180,13 @@
         <v>44</v>
       </c>
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -23965,8 +24208,15 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -23992,8 +24242,17 @@
         <v>45</v>
       </c>
       <c r="R22" s="87"/>
-    </row>
-    <row r="23" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S22" s="1"/>
+      <c r="T22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U22" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -24015,8 +24274,17 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="87"/>
-    </row>
-    <row r="24" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S23" s="1"/>
+      <c r="T23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V23" s="4"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -24036,8 +24304,15 @@
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="87"/>
-    </row>
-    <row r="25" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S24" s="1"/>
+      <c r="T24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24" s="4"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -24061,8 +24336,15 @@
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="87"/>
-    </row>
-    <row r="26" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S25" s="1"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V25" s="87"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -24082,8 +24364,17 @@
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="87"/>
-    </row>
-    <row r="27" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S26" s="1"/>
+      <c r="T26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U26" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="V26" s="5"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
@@ -24105,8 +24396,17 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="87"/>
-    </row>
-    <row r="28" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S27" s="1"/>
+      <c r="T27" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="4"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="28" t="s">
@@ -24132,8 +24432,15 @@
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="87"/>
-    </row>
-    <row r="29" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S28" s="1"/>
+      <c r="T28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U28" s="4"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="8" t="s">
@@ -24157,8 +24464,15 @@
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="87"/>
-    </row>
-    <row r="30" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="6"/>
@@ -24184,8 +24498,13 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="87"/>
-    </row>
-    <row r="31" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="s">
@@ -24207,8 +24526,15 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="87"/>
-    </row>
-    <row r="32" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="28" t="s">
@@ -24234,8 +24560,13 @@
         <v>46</v>
       </c>
       <c r="R32" s="87"/>
-    </row>
-    <row r="33" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="8" t="s">
@@ -24257,8 +24588,15 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="24"/>
       <c r="R33" s="87"/>
-    </row>
-    <row r="34" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -24282,8 +24620,15 @@
         <v>111</v>
       </c>
       <c r="R34" s="87"/>
-    </row>
-    <row r="35" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -24301,8 +24646,15 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="87"/>
-    </row>
-    <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="V35" s="4"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -24324,8 +24676,13 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="87"/>
-    </row>
-    <row r="37" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -24349,8 +24706,15 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="87"/>
-    </row>
-    <row r="38" spans="2:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="2:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -24372,8 +24736,13 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="87"/>
-    </row>
-    <row r="39" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -24391,8 +24760,13 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -24414,8 +24788,13 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -24433,8 +24812,13 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -24452,8 +24836,13 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -24471,8 +24860,13 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -24488,9 +24882,15 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -24505,9 +24905,16 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -24522,9 +24929,16 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -24539,7 +24953,14 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24551,7 +24972,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="G2" sqref="G2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24817,6 +25238,518 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAE30DC-BA37-49AB-9903-19B986DDCFFB}">
+  <dimension ref="C4:U22"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="14" width="11" customWidth="1"/>
+    <col min="16" max="20" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C5" s="87"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+    </row>
+    <row r="6" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="87"/>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+    </row>
+    <row r="7" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="87"/>
+      <c r="D7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+    </row>
+    <row r="8" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="87"/>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+    </row>
+    <row r="9" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="87"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+    </row>
+    <row r="10" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="87"/>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="87"/>
+    </row>
+    <row r="11" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="87"/>
+      <c r="D11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="87"/>
+    </row>
+    <row r="12" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="87"/>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O12" s="87"/>
+      <c r="P12" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="87"/>
+    </row>
+    <row r="13" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="87"/>
+    </row>
+    <row r="14" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="87"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="87"/>
+    </row>
+    <row r="15" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="87"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="87"/>
+    </row>
+    <row r="16" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="87"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+    </row>
+    <row r="17" spans="3:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="87"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+    </row>
+    <row r="18" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="87"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C19" s="87"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C20" s="87"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C21" s="87"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C22" s="87"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24982,6 +25915,4404 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712EF264-BD09-4F20-8615-0ED12C2E0994}">
+  <dimension ref="C2:BM49"/>
+  <sheetViews>
+    <sheetView topLeftCell="AD1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AR31" sqref="AR31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="53" max="60" width="8.88671875" style="93"/>
+    <col min="61" max="62" width="9.21875" style="95" customWidth="1"/>
+    <col min="63" max="63" width="8.88671875" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:65" x14ac:dyDescent="0.3">
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+    </row>
+    <row r="3" spans="3:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="87"/>
+      <c r="BB3" s="87"/>
+      <c r="BC3" s="87"/>
+      <c r="BD3" s="87"/>
+      <c r="BE3" s="87"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="89"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+    </row>
+    <row r="4" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="87"/>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="23"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+    </row>
+    <row r="5" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1"/>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="8">
+        <v>16</v>
+      </c>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="87"/>
+      <c r="BB5" s="87"/>
+      <c r="BC5" s="87"/>
+      <c r="BD5" s="87"/>
+      <c r="BE5" s="87"/>
+      <c r="BF5" s="87"/>
+      <c r="BG5" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH5" s="87"/>
+      <c r="BI5" s="89"/>
+      <c r="BJ5" s="89"/>
+      <c r="BK5" s="23"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+    </row>
+    <row r="6" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1"/>
+      <c r="D6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="87"/>
+      <c r="BB6" s="87"/>
+      <c r="BC6" s="87"/>
+      <c r="BD6" s="87"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG6" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH6" s="89"/>
+      <c r="BI6" s="23"/>
+      <c r="BJ6" s="89"/>
+      <c r="BK6" s="23"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+    </row>
+    <row r="7" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="D7" s="8">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="8">
+        <v>16</v>
+      </c>
+      <c r="U7" s="11"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="8">
+        <v>16</v>
+      </c>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="6">
+        <v>8</v>
+      </c>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="87"/>
+      <c r="BB7" s="87"/>
+      <c r="BC7" s="87"/>
+      <c r="BD7" s="87"/>
+      <c r="BE7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF7" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="24"/>
+      <c r="BJ7" s="91"/>
+      <c r="BK7" s="23"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+    </row>
+    <row r="8" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO8" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="87"/>
+      <c r="BB8" s="87"/>
+      <c r="BC8" s="87"/>
+      <c r="BD8" s="87"/>
+      <c r="BE8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="87"/>
+      <c r="BI8" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ8" s="91"/>
+      <c r="BK8" s="23"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+    </row>
+    <row r="9" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="6">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="6">
+        <v>8</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="8">
+        <v>9</v>
+      </c>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="87"/>
+      <c r="BB9" s="87"/>
+      <c r="BC9" s="87"/>
+      <c r="BD9" s="87"/>
+      <c r="BE9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="89"/>
+      <c r="BJ9" s="94"/>
+      <c r="BK9" s="91"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+    </row>
+    <row r="10" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="D10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="23"/>
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="91"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+    </row>
+    <row r="11" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+      <c r="D11" s="8">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="8">
+        <v>9</v>
+      </c>
+      <c r="U11" s="11"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="8">
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="6">
+        <v>5</v>
+      </c>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+      <c r="BI11" s="24"/>
+      <c r="BJ11" s="89"/>
+      <c r="BK11" s="91"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+    </row>
+    <row r="12" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="5"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="87"/>
+      <c r="BB12" s="87"/>
+      <c r="BC12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD12" s="87"/>
+      <c r="BE12" s="87"/>
+      <c r="BF12" s="87"/>
+      <c r="BG12" s="87"/>
+      <c r="BH12" s="87"/>
+      <c r="BI12" s="89"/>
+      <c r="BJ12" s="89"/>
+      <c r="BK12" s="91"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+    </row>
+    <row r="13" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="6">
+        <v>5</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP13" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="8">
+        <v>12</v>
+      </c>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="87"/>
+      <c r="BF13" s="87"/>
+      <c r="BG13" s="87"/>
+      <c r="BH13" s="87"/>
+      <c r="BI13" s="89"/>
+      <c r="BJ13" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK13" s="91"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+    </row>
+    <row r="14" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+      <c r="D14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO14" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="23"/>
+      <c r="BJ14" s="89"/>
+      <c r="BK14" s="94"/>
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="1"/>
+    </row>
+    <row r="15" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+      <c r="D15" s="8">
+        <v>12</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="8">
+        <v>12</v>
+      </c>
+      <c r="U15" s="11"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="8">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="6">
+        <v>4</v>
+      </c>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="35"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="24"/>
+      <c r="BJ15" s="91"/>
+      <c r="BK15" s="91"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="1"/>
+    </row>
+    <row r="16" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="87"/>
+      <c r="BF16" s="87"/>
+      <c r="BG16" s="87"/>
+      <c r="BH16" s="87"/>
+      <c r="BI16" s="89"/>
+      <c r="BJ16" s="91"/>
+      <c r="BK16" s="91"/>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="1"/>
+    </row>
+    <row r="17" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+      <c r="D17" s="6">
+        <v>4</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="6">
+        <v>4</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB17" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="23"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="87"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="8">
+        <v>13</v>
+      </c>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="87"/>
+      <c r="BE17" s="87"/>
+      <c r="BF17" s="87"/>
+      <c r="BG17" s="87"/>
+      <c r="BH17" s="87"/>
+      <c r="BI17" s="89"/>
+      <c r="BJ17" s="91"/>
+      <c r="BK17" s="91"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="1"/>
+    </row>
+    <row r="18" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+      <c r="D18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA18" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="23"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="87"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="87"/>
+      <c r="BE18" s="87"/>
+      <c r="BF18" s="87"/>
+      <c r="BG18" s="87"/>
+      <c r="BH18" s="87"/>
+      <c r="BI18" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ18" s="91"/>
+      <c r="BK18" s="91"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="1"/>
+    </row>
+    <row r="19" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+      <c r="D19" s="8">
+        <v>13</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="8">
+        <v>13</v>
+      </c>
+      <c r="U19" s="11"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="8">
+        <v>13</v>
+      </c>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="87"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="87"/>
+      <c r="BE19" s="87"/>
+      <c r="BF19" s="87"/>
+      <c r="BG19" s="87"/>
+      <c r="BH19" s="87"/>
+      <c r="BI19" s="89"/>
+      <c r="BJ19" s="94"/>
+      <c r="BK19" s="23"/>
+      <c r="BL19" s="5"/>
+      <c r="BM19" s="1"/>
+    </row>
+    <row r="20" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="23"/>
+      <c r="AS20" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="87"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="23"/>
+      <c r="BA20" s="87"/>
+      <c r="BB20" s="87"/>
+      <c r="BC20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD20" s="87"/>
+      <c r="BE20" s="87"/>
+      <c r="BF20" s="87"/>
+      <c r="BG20" s="87"/>
+      <c r="BH20" s="87"/>
+      <c r="BI20" s="89"/>
+      <c r="BJ20" s="91"/>
+      <c r="BK20" s="23"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="1"/>
+    </row>
+    <row r="21" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+      <c r="D21" s="6">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="6">
+        <v>6</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="6">
+        <v>6</v>
+      </c>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="89"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="87"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="87"/>
+      <c r="BF21" s="87"/>
+      <c r="BG21" s="87"/>
+      <c r="BH21" s="87"/>
+      <c r="BI21" s="89"/>
+      <c r="BJ21" s="91"/>
+      <c r="BK21" s="23"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="1"/>
+    </row>
+    <row r="22" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+      <c r="D22" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="U22" s="6"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="87"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="23"/>
+      <c r="BJ22" s="91"/>
+      <c r="BK22" s="23"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="1"/>
+    </row>
+    <row r="23" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
+      <c r="D23" s="8">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="8">
+        <v>11</v>
+      </c>
+      <c r="U23" s="11"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="8">
+        <v>11</v>
+      </c>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="23"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="87"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="35"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="24"/>
+      <c r="BJ23" s="89"/>
+      <c r="BK23" s="23"/>
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="1"/>
+    </row>
+    <row r="24" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="1"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA24" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="23"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="87"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="6"/>
+      <c r="BB24" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC24" s="16"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="87"/>
+      <c r="BF24" s="87"/>
+      <c r="BG24" s="87"/>
+      <c r="BH24" s="87"/>
+      <c r="BI24" s="89"/>
+      <c r="BJ24" s="89"/>
+      <c r="BK24" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL24" s="5"/>
+      <c r="BM24" s="1"/>
+    </row>
+    <row r="25" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="1"/>
+      <c r="D25" s="6">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="6">
+        <v>3</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="23"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="87"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB25" s="6"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="87"/>
+      <c r="BE25" s="87"/>
+      <c r="BF25" s="87"/>
+      <c r="BG25" s="87"/>
+      <c r="BH25" s="87"/>
+      <c r="BI25" s="89"/>
+      <c r="BJ25" s="89"/>
+      <c r="BK25" s="23"/>
+      <c r="BL25" s="4"/>
+      <c r="BM25" s="1"/>
+    </row>
+    <row r="26" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="1"/>
+      <c r="D26" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB26" s="6"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="87"/>
+      <c r="BE26" s="87"/>
+      <c r="BF26" s="87"/>
+      <c r="BG26" s="87"/>
+      <c r="BH26" s="87"/>
+      <c r="BI26" s="89"/>
+      <c r="BJ26" s="89"/>
+      <c r="BK26" s="23"/>
+      <c r="BL26" s="5"/>
+      <c r="BM26" s="1"/>
+    </row>
+    <row r="27" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="1"/>
+      <c r="D27" s="8">
+        <v>14</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="8">
+        <v>14</v>
+      </c>
+      <c r="U27" s="11"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="8">
+        <v>14</v>
+      </c>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="87"/>
+      <c r="AU27" s="87"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="87"/>
+      <c r="BE27" s="87"/>
+      <c r="BF27" s="6"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="23"/>
+      <c r="BJ27" s="89"/>
+      <c r="BK27" s="23"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="1"/>
+    </row>
+    <row r="28" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="87"/>
+      <c r="BB28" s="87"/>
+      <c r="BC28" s="87"/>
+      <c r="BD28" s="87"/>
+      <c r="BE28" s="87"/>
+      <c r="BF28" s="87"/>
+      <c r="BG28" s="87" t="s">
+        <v>190</v>
+      </c>
+      <c r="BH28" s="87"/>
+      <c r="BI28" s="89"/>
+      <c r="BJ28" s="89"/>
+      <c r="BK28" s="23"/>
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="1"/>
+    </row>
+    <row r="29" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="1"/>
+      <c r="D29" s="6">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="6">
+        <v>7</v>
+      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="6">
+        <v>7</v>
+      </c>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="87"/>
+      <c r="BB29" s="87"/>
+      <c r="BC29" s="87"/>
+      <c r="BD29" s="87"/>
+      <c r="BE29" s="88"/>
+      <c r="BF29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG29" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH29" s="89"/>
+      <c r="BI29" s="23"/>
+      <c r="BJ29" s="89"/>
+      <c r="BK29" s="23"/>
+      <c r="BL29" s="5"/>
+      <c r="BM29" s="1"/>
+    </row>
+    <row r="30" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
+      <c r="D30" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="U30" s="6"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA30" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO30" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="87"/>
+      <c r="BB30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="87"/>
+      <c r="BF30" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="20"/>
+      <c r="BI30" s="24"/>
+      <c r="BJ30" s="91"/>
+      <c r="BK30" s="23"/>
+      <c r="BL30" s="5"/>
+      <c r="BM30" s="1"/>
+    </row>
+    <row r="31" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="1"/>
+      <c r="D31" s="8">
+        <v>10</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="8">
+        <v>10</v>
+      </c>
+      <c r="U31" s="11"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="8">
+        <v>10</v>
+      </c>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO31" s="8"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="35"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="87"/>
+      <c r="BB31" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="87"/>
+      <c r="BF31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG31" s="4"/>
+      <c r="BH31" s="87"/>
+      <c r="BI31" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="BJ31" s="91"/>
+      <c r="BK31" s="23"/>
+      <c r="BL31" s="5"/>
+      <c r="BM31" s="1"/>
+    </row>
+    <row r="32" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="1"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="87"/>
+      <c r="BB32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC32" s="11"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="87"/>
+      <c r="BF32" s="9"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="89"/>
+      <c r="BJ32" s="94"/>
+      <c r="BK32" s="91"/>
+      <c r="BL32" s="5"/>
+      <c r="BM32" s="1"/>
+    </row>
+    <row r="33" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="1"/>
+      <c r="D33" s="6">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="6">
+        <v>2</v>
+      </c>
+      <c r="U33" s="6"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="6">
+        <v>2</v>
+      </c>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="87"/>
+      <c r="BB33" s="6"/>
+      <c r="BC33" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="23"/>
+      <c r="BJ33" s="91"/>
+      <c r="BK33" s="91"/>
+      <c r="BL33" s="5"/>
+      <c r="BM33" s="1"/>
+    </row>
+    <row r="34" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="1"/>
+      <c r="D34" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="U34" s="6"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO34" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="6">
+        <v>6</v>
+      </c>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="87"/>
+      <c r="BB34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC34" s="6"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="9"/>
+      <c r="BF34" s="9"/>
+      <c r="BG34" s="9"/>
+      <c r="BH34" s="9"/>
+      <c r="BI34" s="24"/>
+      <c r="BJ34" s="89"/>
+      <c r="BK34" s="91"/>
+      <c r="BL34" s="5"/>
+      <c r="BM34" s="1"/>
+    </row>
+    <row r="35" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="1"/>
+      <c r="D35" s="8">
+        <v>15</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="8">
+        <v>15</v>
+      </c>
+      <c r="U35" s="11"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="8">
+        <v>15</v>
+      </c>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="87"/>
+      <c r="BB35" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="87"/>
+      <c r="BF35" s="87"/>
+      <c r="BG35" s="87"/>
+      <c r="BH35" s="87"/>
+      <c r="BI35" s="89"/>
+      <c r="BJ35" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK35" s="91"/>
+      <c r="BL35" s="5"/>
+      <c r="BM35" s="1"/>
+    </row>
+    <row r="36" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="8">
+        <v>11</v>
+      </c>
+      <c r="AX36" s="11"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="87"/>
+      <c r="BB36" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="BC36" s="11"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="87"/>
+      <c r="BF36" s="87"/>
+      <c r="BG36" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH36" s="87"/>
+      <c r="BI36" s="89"/>
+      <c r="BJ36" s="89"/>
+      <c r="BK36" s="94"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+    </row>
+    <row r="37" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="87"/>
+      <c r="BB37" s="87"/>
+      <c r="BC37" s="87"/>
+      <c r="BD37" s="87"/>
+      <c r="BE37" s="87"/>
+      <c r="BF37" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG37" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH37" s="89"/>
+      <c r="BI37" s="23"/>
+      <c r="BJ37" s="89"/>
+      <c r="BK37" s="91"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+    </row>
+    <row r="38" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="6">
+        <v>3</v>
+      </c>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="87"/>
+      <c r="BB38" s="87"/>
+      <c r="BC38" s="87"/>
+      <c r="BD38" s="87"/>
+      <c r="BE38" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF38" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG38" s="8"/>
+      <c r="BH38" s="20"/>
+      <c r="BI38" s="24"/>
+      <c r="BJ38" s="91"/>
+      <c r="BK38" s="91"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+    </row>
+    <row r="39" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX39" s="6"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="87"/>
+      <c r="BB39" s="87"/>
+      <c r="BC39" s="87"/>
+      <c r="BD39" s="87"/>
+      <c r="BE39" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF39" s="8"/>
+      <c r="BG39" s="4"/>
+      <c r="BH39" s="87"/>
+      <c r="BI39" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ39" s="91"/>
+      <c r="BK39" s="91"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+    </row>
+    <row r="40" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="8">
+        <v>14</v>
+      </c>
+      <c r="AX40" s="11"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="87"/>
+      <c r="BB40" s="87"/>
+      <c r="BC40" s="87"/>
+      <c r="BD40" s="87"/>
+      <c r="BE40" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="BF40" s="87"/>
+      <c r="BG40" s="87"/>
+      <c r="BH40" s="87"/>
+      <c r="BI40" s="89"/>
+      <c r="BJ40" s="94"/>
+      <c r="BK40" s="23"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+    </row>
+    <row r="41" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="23"/>
+      <c r="BJ41" s="91"/>
+      <c r="BK41" s="23"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+    </row>
+    <row r="42" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="6">
+        <v>7</v>
+      </c>
+      <c r="AX42" s="6"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="9"/>
+      <c r="BB42" s="9"/>
+      <c r="BC42" s="9"/>
+      <c r="BD42" s="9"/>
+      <c r="BE42" s="9"/>
+      <c r="BF42" s="9"/>
+      <c r="BG42" s="9"/>
+      <c r="BH42" s="9"/>
+      <c r="BI42" s="24"/>
+      <c r="BJ42" s="89"/>
+      <c r="BK42" s="23"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+    </row>
+    <row r="43" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX43" s="6"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="87"/>
+      <c r="BB43" s="87"/>
+      <c r="BC43" s="87"/>
+      <c r="BD43" s="87"/>
+      <c r="BE43" s="87"/>
+      <c r="BF43" s="87"/>
+      <c r="BG43" s="87"/>
+      <c r="BH43" s="87"/>
+      <c r="BI43" s="89"/>
+      <c r="BJ43" s="89"/>
+      <c r="BK43" s="23"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+    </row>
+    <row r="44" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="8">
+        <v>10</v>
+      </c>
+      <c r="AX44" s="11"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="87"/>
+      <c r="BB44" s="87"/>
+      <c r="BC44" s="87"/>
+      <c r="BD44" s="87"/>
+      <c r="BE44" s="87"/>
+      <c r="BF44" s="87"/>
+      <c r="BG44" s="87"/>
+      <c r="BH44" s="87"/>
+      <c r="BI44" s="89"/>
+      <c r="BJ44" s="89"/>
+      <c r="BK44" s="23"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+    </row>
+    <row r="45" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="87"/>
+      <c r="BB45" s="87"/>
+      <c r="BC45" s="87"/>
+      <c r="BD45" s="87"/>
+      <c r="BE45" s="87"/>
+      <c r="BF45" s="87"/>
+      <c r="BG45" s="87"/>
+      <c r="BH45" s="87"/>
+      <c r="BI45" s="89"/>
+      <c r="BJ45" s="89"/>
+      <c r="BK45" s="23"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+    </row>
+    <row r="46" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="6">
+        <v>2</v>
+      </c>
+      <c r="AX46" s="6"/>
+      <c r="AY46" s="4"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="87"/>
+      <c r="BB46" s="87"/>
+      <c r="BC46" s="87"/>
+      <c r="BD46" s="87"/>
+      <c r="BE46" s="87"/>
+      <c r="BF46" s="87"/>
+      <c r="BG46" s="87"/>
+      <c r="BH46" s="87"/>
+      <c r="BI46" s="89"/>
+      <c r="BJ46" s="89"/>
+      <c r="BK46" s="23"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
+    </row>
+    <row r="47" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX47" s="6"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="87"/>
+      <c r="BB47" s="87"/>
+      <c r="BC47" s="87"/>
+      <c r="BD47" s="87"/>
+      <c r="BE47" s="87"/>
+      <c r="BF47" s="87"/>
+      <c r="BG47" s="87"/>
+      <c r="BH47" s="87"/>
+      <c r="BI47" s="89"/>
+      <c r="BJ47" s="89"/>
+      <c r="BK47" s="23"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="1"/>
+    </row>
+    <row r="48" spans="3:65" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="8">
+        <v>15</v>
+      </c>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="87"/>
+      <c r="BB48" s="87"/>
+      <c r="BC48" s="87"/>
+      <c r="BD48" s="87"/>
+      <c r="BE48" s="87"/>
+      <c r="BF48" s="87"/>
+      <c r="BG48" s="87"/>
+      <c r="BH48" s="87"/>
+      <c r="BI48" s="89"/>
+      <c r="BJ48" s="89"/>
+      <c r="BK48" s="23"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
+    </row>
+    <row r="49" spans="48:65" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602A66C9-975F-464B-97BD-D8A355569D61}">
+  <dimension ref="B4:AE40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6">
+        <v>6</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="6">
+        <v>7</v>
+      </c>
+      <c r="W11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC11" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="8"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB12" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="8">
+        <v>8</v>
+      </c>
+      <c r="W13" s="4"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA13" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z14" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="8">
+        <v>6</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="8">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="2:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+      <c r="C36" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="1"/>
+      <c r="C37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0994C-C7DA-4D03-802B-D1F5110A4B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B668E333-5608-41EB-8D11-1820E97D8055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="23" activeTab="30" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="23" activeTab="27" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,6 @@
     <definedName name="solver_ver" localSheetId="25" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1597,7 +1596,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1606,13 +1608,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,6 +1629,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1639,22 +1647,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12352,25 +12351,25 @@
     </row>
     <row r="2" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="84"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
@@ -12567,11 +12566,11 @@
       <c r="D8" s="56">
         <v>5</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
       <c r="H8" s="57">
         <v>2</v>
       </c>
@@ -12585,11 +12584,11 @@
       <c r="M8" s="56">
         <v>5</v>
       </c>
-      <c r="N8" s="85" t="s">
+      <c r="N8" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="86"/>
-      <c r="P8" s="87"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="84"/>
       <c r="Q8" s="57">
         <v>0</v>
       </c>
@@ -12622,25 +12621,25 @@
     </row>
     <row r="10" spans="3:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="82" t="s">
+      <c r="M10" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="87"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
@@ -12837,11 +12836,11 @@
       <c r="D16" s="56">
         <v>5</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="87"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="57">
         <v>1</v>
       </c>
@@ -12855,11 +12854,11 @@
       <c r="M16" s="56">
         <v>5</v>
       </c>
-      <c r="N16" s="85" t="s">
+      <c r="N16" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="O16" s="86"/>
-      <c r="P16" s="87"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
       <c r="Q16" s="57">
         <v>0</v>
       </c>
@@ -14572,6 +14571,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E16:G16"/>
@@ -14586,20 +14599,6 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14650,26 +14649,26 @@
     </row>
     <row r="2" spans="3:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="84"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
@@ -14689,7 +14688,7 @@
       <c r="I3" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="89"/>
+      <c r="J3" s="88"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="1"/>
@@ -14726,7 +14725,7 @@
       <c r="I4" s="79">
         <v>0</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="88"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="1"/>
@@ -14763,7 +14762,7 @@
       <c r="I5" s="79">
         <v>1</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="1"/>
@@ -14800,7 +14799,7 @@
       <c r="I6" s="79">
         <v>2</v>
       </c>
-      <c r="J6" s="89"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="1"/>
@@ -14837,7 +14836,7 @@
       <c r="I7" s="79">
         <v>3</v>
       </c>
-      <c r="J7" s="89"/>
+      <c r="J7" s="88"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="1"/>
@@ -14874,7 +14873,7 @@
       <c r="I8" s="79">
         <v>4</v>
       </c>
-      <c r="J8" s="89"/>
+      <c r="J8" s="88"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="1"/>
@@ -14900,29 +14899,29 @@
       <c r="D9" s="56">
         <v>6</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="57">
         <v>0</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="82">
         <v>5</v>
       </c>
-      <c r="J9" s="90"/>
+      <c r="J9" s="89"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="1"/>
       <c r="N9" s="56">
         <v>6</v>
       </c>
-      <c r="O9" s="85" t="s">
+      <c r="O9" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="87"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="84"/>
       <c r="R9" s="57">
         <v>0</v>
       </c>
@@ -16717,12 +16716,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="E6:G6"/>
@@ -16732,14 +16733,12 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="O9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21045,23 +21044,23 @@
     </row>
     <row r="52" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C52">
-        <f t="shared" ref="C52:C83" si="45">IF(AND(D51=D$14,D52=D$13),C$13+C$14-C51,C51)</f>
+        <f t="shared" ref="C52:C78" si="45">IF(AND(D51=D$14,D52=D$13),C$13+C$14-C51,C51)</f>
         <v>2</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:D83" si="46">IF(AND(E51=E$14,E52=E$13),D$13+D$14-D51,D51)</f>
+        <f t="shared" ref="D52:D78" si="46">IF(AND(E51=E$14,E52=E$13),D$13+D$14-D51,D51)</f>
         <v>1</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52:E83" si="47">IF(AND(F51=F$14,F52=F$13),E$13+E$14-E51,E51)</f>
+        <f t="shared" ref="E52:E78" si="47">IF(AND(F51=F$14,F52=F$13),E$13+E$14-E51,E51)</f>
         <v>1</v>
       </c>
       <c r="F52">
-        <f t="shared" ref="F52:F83" si="48">IF(AND(G51=G$14,G52=G$13),F$13+F$14-F51,F51)</f>
+        <f t="shared" ref="F52:F78" si="48">IF(AND(G51=G$14,G52=G$13),F$13+F$14-F51,F51)</f>
         <v>3</v>
       </c>
       <c r="G52">
-        <f t="shared" ref="G52:G83" si="49">IF(AND(H51=H$14,H52=H$13),G$13+G$14-G51,G51)</f>
+        <f t="shared" ref="G52:G78" si="49">IF(AND(H51=H$14,H52=H$13),G$13+G$14-G51,G51)</f>
         <v>2</v>
       </c>
       <c r="H52">
@@ -24960,8 +24959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C56C8-2B90-4EE6-A3F2-D63A46B0A849}">
   <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25133,7 +25132,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="6" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -25161,7 +25160,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="8" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="1"/>
@@ -29185,7 +29184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602A66C9-975F-464B-97BD-D8A355569D61}">
   <dimension ref="B4:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -34176,32 +34175,32 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="73" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="71"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="72"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="71"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="73"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="1"/>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -34209,37 +34208,37 @@
     </row>
     <row r="13" spans="2:9" ht="4.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="73" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="71"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="71" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="76"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="74"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="2:9" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="76"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="75"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
@@ -34327,17 +34326,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:F21"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE969F88-E4B3-4C63-9BA0-BF478BEC9CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48597D2A-6EEC-482B-B599-275ECB80F6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="29" activeTab="32" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="29" activeTab="36" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <sheet name="nonlinear" sheetId="41" r:id="rId34"/>
     <sheet name="nonlinear2" sheetId="42" r:id="rId35"/>
     <sheet name="nbaplayingnonlinear" sheetId="43" r:id="rId36"/>
+    <sheet name="new_efficient" sheetId="46" r:id="rId37"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="25" hidden="1">'rr calcs'!$C$12:$H$12</definedName>
@@ -30734,8 +30735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C010E2E9-5FD8-4977-AB68-FE330F0CC9E1}">
   <dimension ref="B3:BV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36441,6 +36442,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC45635-DE39-4CBA-B2B1-B5066770F06C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1876FCB-6DB9-423A-8CE5-BFA1290FCF13}">
   <dimension ref="A2:P18"/>

--- a/thesis-tex/images/Brackets.xlsx
+++ b/thesis-tex/images/Brackets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48597D2A-6EEC-482B-B599-275ECB80F6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B569C2-2E52-4D11-B5A9-CCB66E02EB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="29" activeTab="36" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="30" activeTab="37" xr2:uid="{503DA620-194E-433E-B5EB-5393E7537419}"/>
   </bookViews>
   <sheets>
     <sheet name="cfp" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,7 @@
     <sheet name="nonlinear2" sheetId="42" r:id="rId35"/>
     <sheet name="nbaplayingnonlinear" sheetId="43" r:id="rId36"/>
     <sheet name="new_efficient" sheetId="46" r:id="rId37"/>
+    <sheet name="Sheet4" sheetId="47" r:id="rId38"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="25" hidden="1">'rr calcs'!$C$12:$H$12</definedName>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="349">
   <si>
     <t>Georgia</t>
   </si>
@@ -1011,6 +1012,162 @@
   <si>
     <t>4th: Presbyterian</t>
   </si>
+  <si>
+    <t>Atlètic Club d'Escaldes </t>
+  </si>
+  <si>
+    <t>Budućnost Podgorica</t>
+  </si>
+  <si>
+    <t>Tre Penne</t>
+  </si>
+  <si>
+    <t>Breiðablik</t>
+  </si>
+  <si>
+    <t>BK Häcken</t>
+  </si>
+  <si>
+    <t>The New Saints</t>
+  </si>
+  <si>
+    <t>Ballkani </t>
+  </si>
+  <si>
+    <t>Ludogorets Razgrad</t>
+  </si>
+  <si>
+    <t>Žalgiris </t>
+  </si>
+  <si>
+    <t>Struga</t>
+  </si>
+  <si>
+    <t>KÍ</t>
+  </si>
+  <si>
+    <t>Ferencváros</t>
+  </si>
+  <si>
+    <t>Olimpija Ljubljana</t>
+  </si>
+  <si>
+    <t>Valmiera</t>
+  </si>
+  <si>
+    <t>HJK</t>
+  </si>
+  <si>
+    <t>Larne</t>
+  </si>
+  <si>
+    <t>Lincoln Red Imps </t>
+  </si>
+  <si>
+    <t>Qarabağ</t>
+  </si>
+  <si>
+    <t>Raków Częstochowa</t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>Slovan Bratislava</t>
+  </si>
+  <si>
+    <t>Swift Hesperange</t>
+  </si>
+  <si>
+    <t>Farul Constanta</t>
+  </si>
+  <si>
+    <t>Sheriff Tiraspol</t>
+  </si>
+  <si>
+    <t>Ħamrun Spartans</t>
+  </si>
+  <si>
+    <t>Maccabi Haifa</t>
+  </si>
+  <si>
+    <t>Urartu</t>
+  </si>
+  <si>
+    <t>Zrinjski Mostar</t>
+  </si>
+  <si>
+    <t>Partizani</t>
+  </si>
+  <si>
+    <t>BATE Borisov</t>
+  </si>
+  <si>
+    <t>Astana </t>
+  </si>
+  <si>
+    <t>Dinamo Tbilisi</t>
+  </si>
+  <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
+    <t>Molde</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Aris Limassol</t>
+  </si>
+  <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
+    <t>Dnipro-1</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Servette</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Astana</t>
+  </si>
+  <si>
+    <t>AEK Athens</t>
+  </si>
+  <si>
+    <t>Sparta Prague</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sturm Graz</t>
+  </si>
+  <si>
+    <t>Young Boys</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
 </sst>
 </file>
 
@@ -1692,7 +1849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1933,6 +2090,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1953,6 +2120,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23865,7 +24036,7 @@
   <dimension ref="B3:W47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q20" sqref="P20:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26186,7 +26357,7 @@
   <dimension ref="C2:BM49"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AR31" sqref="AR31"/>
+      <selection activeCell="AI5" sqref="AI5:AL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35744,7 +35915,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G8" sqref="G8:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36444,14 +36615,4616 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC45635-DE39-4CBA-B2B1-B5066770F06C}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="19" max="20" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="6">
+        <v>1</v>
+      </c>
+      <c r="V3" s="6"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="8">
+        <v>8</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="6">
+        <v>9</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="8">
+        <v>8</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="8">
+        <v>16</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="6">
+        <v>4</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="6"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="6">
+        <v>12</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="8">
+        <v>5</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="8">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="8">
+        <v>13</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="6">
+        <v>3</v>
+      </c>
+      <c r="V11" s="6"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="8">
+        <v>6</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" s="6"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="6">
+        <v>11</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="8">
+        <v>6</v>
+      </c>
+      <c r="V13" s="11"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="8">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="8">
+        <v>14</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="6">
+        <v>2</v>
+      </c>
+      <c r="V15" s="6"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="8">
+        <v>7</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="6"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="6">
+        <v>10</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="8">
+        <v>7</v>
+      </c>
+      <c r="V17" s="11"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="8">
+        <v>15</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="2:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="2:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W29" s="4"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="2:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U50" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B65E47-00B0-4637-B356-4F93A27CBBAE}">
+  <dimension ref="I3:AE152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="9:31" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="9:31" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="9:31" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="9:31" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="9:31" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="9:31" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="9:31" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="9:31" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="9:31" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="9:31" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="9:31" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="9:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="O16" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="W16" s="4"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="O18" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="W20" s="4"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="O21" s="71"/>
+      <c r="P21" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="W24" s="4"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="W26" s="1"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="W28" s="4"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="9:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="9:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="W32" s="71"/>
+      <c r="X32" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+    </row>
+    <row r="34" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="98"/>
+      <c r="V34" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="W34" s="4"/>
+      <c r="X34" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="98"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" spans="9:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="98"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+    </row>
+    <row r="36" spans="9:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="98"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+    </row>
+    <row r="37" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="98"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+    </row>
+    <row r="38" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="W38" s="4"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="98"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+    </row>
+    <row r="39" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="98"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+    </row>
+    <row r="40" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="98"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+    </row>
+    <row r="41" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="6"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="71"/>
+      <c r="W41" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="98"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+    </row>
+    <row r="42" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="W42" s="4"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="98"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+    </row>
+    <row r="43" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="98"/>
+      <c r="W43" s="98"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="98"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+    </row>
+    <row r="44" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="99"/>
+      <c r="W44" s="99"/>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="98"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+    </row>
+    <row r="45" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="98"/>
+      <c r="W45" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="X45" s="98"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="98"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+    </row>
+    <row r="46" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="99"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="98"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="98"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+    </row>
+    <row r="47" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+    </row>
+    <row r="48" spans="9:31" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="98"/>
+      <c r="O48" s="98"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="W48" s="1"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+    </row>
+    <row r="49" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="X49" s="98"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+    </row>
+    <row r="50" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="98"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="W50" s="4"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+    </row>
+    <row r="51" spans="10:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="98"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+    </row>
+    <row r="52" spans="10:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+    </row>
+    <row r="53" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+    </row>
+    <row r="54" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="U54" s="1"/>
+      <c r="V54" s="71"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+    </row>
+    <row r="55" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="98"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="71"/>
+      <c r="U55" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="V55" s="23"/>
+      <c r="W55" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="X55" s="98"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+    </row>
+    <row r="56" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="99"/>
+      <c r="N56" s="98"/>
+      <c r="O56" s="98"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="U56" s="71"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+    </row>
+    <row r="57" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="98"/>
+      <c r="O57" s="98"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="99"/>
+      <c r="V57" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="W57" s="23"/>
+      <c r="X57" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+    </row>
+    <row r="58" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="98"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="98"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+    </row>
+    <row r="59" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="V59" s="5"/>
+      <c r="W59" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+    </row>
+    <row r="60" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="U60" s="4"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+    </row>
+    <row r="61" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+    </row>
+    <row r="62" spans="10:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+    </row>
+    <row r="63" spans="10:29" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+    </row>
+    <row r="64" spans="10:29" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+    </row>
+    <row r="65" spans="10:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+    </row>
+    <row r="66" spans="10:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+    </row>
+    <row r="67" spans="10:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+    </row>
+    <row r="68" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="71"/>
+      <c r="W68" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+    </row>
+    <row r="69" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="W69" s="4"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+    </row>
+    <row r="70" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+    </row>
+    <row r="71" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="W71" s="1"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+    </row>
+    <row r="72" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="71"/>
+      <c r="W72" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+    </row>
+    <row r="73" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="W73" s="4"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+    </row>
+    <row r="74" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+    </row>
+    <row r="75" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+    </row>
+    <row r="76" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="99"/>
+      <c r="N76" s="99"/>
+      <c r="O76" s="99"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="71"/>
+      <c r="W76" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="X76" s="98"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+    </row>
+    <row r="77" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="98"/>
+      <c r="N77" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="O77" s="98"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="W77" s="4"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+    </row>
+    <row r="78" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="99"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+    </row>
+    <row r="79" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="98"/>
+      <c r="O79" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="99"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+    </row>
+    <row r="80" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="N80" s="101"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="100"/>
+      <c r="W80" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+    </row>
+    <row r="81" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="71"/>
+      <c r="N81" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+    </row>
+    <row r="82" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="N82" s="4"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+    </row>
+    <row r="83" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+    </row>
+    <row r="84" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="71"/>
+      <c r="W84" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+    </row>
+    <row r="85" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="W85" s="4"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+    </row>
+    <row r="86" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="98"/>
+      <c r="O86" s="98"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+    </row>
+    <row r="87" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="98"/>
+      <c r="O87" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="W87" s="1"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+    </row>
+    <row r="88" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="98"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="71"/>
+      <c r="W88" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+    </row>
+    <row r="89" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="98"/>
+      <c r="O89" s="98"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="W89" s="4"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+    </row>
+    <row r="90" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+    </row>
+    <row r="91" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+    </row>
+    <row r="92" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="71"/>
+      <c r="W92" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="X92" s="98"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+    </row>
+    <row r="93" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L93" s="1"/>
+      <c r="M93" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="W93" s="4"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+    </row>
+    <row r="94" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L94" s="1"/>
+      <c r="M94" s="71"/>
+      <c r="N94" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+    </row>
+    <row r="95" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L95" s="1"/>
+      <c r="M95" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="N95" s="4"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="99"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+    </row>
+    <row r="96" spans="10:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="100"/>
+      <c r="W96" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+    </row>
+    <row r="97" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L97" s="1"/>
+      <c r="M97" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="99"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+    </row>
+    <row r="98" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L98" s="1"/>
+      <c r="M98" s="71"/>
+      <c r="N98" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+    </row>
+    <row r="99" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L99" s="1"/>
+      <c r="M99" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="N99" s="4"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="X99" s="71"/>
+      <c r="Y99" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+    </row>
+    <row r="100" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="71"/>
+      <c r="X100" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+    </row>
+    <row r="101" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L101" s="1"/>
+      <c r="M101" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+    </row>
+    <row r="102" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L102" s="1"/>
+      <c r="M102" s="71"/>
+      <c r="N102" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="O102" s="98"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+    </row>
+    <row r="103" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L103" s="1"/>
+      <c r="M103" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="N103" s="4"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+    </row>
+    <row r="104" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+    </row>
+    <row r="105" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L105" s="1"/>
+      <c r="M105" s="99"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="71"/>
+      <c r="Y105" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+    </row>
+    <row r="106" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L106" s="1"/>
+      <c r="M106" s="100"/>
+      <c r="N106" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O106" s="5"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+    </row>
+    <row r="107" spans="12:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L107" s="1"/>
+      <c r="M107" s="99"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+    </row>
+    <row r="108" spans="12:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L108" s="1"/>
+      <c r="M108" s="98"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+    </row>
+    <row r="109" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="71"/>
+      <c r="Y109" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+    </row>
+    <row r="110" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="5"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+    </row>
+    <row r="111" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+    </row>
+    <row r="112" spans="12:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="71"/>
+      <c r="X112" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+    </row>
+    <row r="113" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="X113" s="71"/>
+      <c r="Y113" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+    </row>
+    <row r="114" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K114" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L114" s="1"/>
+      <c r="M114" s="71"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+    </row>
+    <row r="115" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K115" s="71"/>
+      <c r="L115" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M115" s="23"/>
+      <c r="N115" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="O115" s="98"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
+    </row>
+    <row r="116" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K116" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="L116" s="71"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+    </row>
+    <row r="117" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K117" s="6"/>
+      <c r="L117" s="99"/>
+      <c r="M117" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="N117" s="23"/>
+      <c r="O117" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+    </row>
+    <row r="118" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K118" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L118" s="1"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="98"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+    </row>
+    <row r="119" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K119" s="71"/>
+      <c r="L119" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="M119" s="5"/>
+      <c r="N119" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+    </row>
+    <row r="120" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K120" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="L120" s="4"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+    </row>
+    <row r="121" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
+    </row>
+    <row r="122" spans="11:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+    </row>
+    <row r="123" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+    </row>
+    <row r="124" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
+      <c r="AB124" s="1"/>
+      <c r="AC124" s="1"/>
+    </row>
+    <row r="125" spans="11:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+      <c r="X125" s="1"/>
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1"/>
+      <c r="AA125" s="1"/>
+      <c r="AB125" s="1"/>
+      <c r="AC125" s="1"/>
+    </row>
+    <row r="126" spans="11:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126" s="1"/>
+      <c r="AC126" s="1"/>
+    </row>
+    <row r="127" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
+    </row>
+    <row r="128" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
+      <c r="AC128" s="1"/>
+    </row>
+    <row r="129" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
+      <c r="AB129" s="1"/>
+      <c r="AC129" s="1"/>
+    </row>
+    <row r="130" spans="11:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
+      <c r="X130" s="1"/>
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1"/>
+      <c r="AA130" s="1"/>
+      <c r="AB130" s="1"/>
+      <c r="AC130" s="1"/>
+    </row>
+    <row r="131" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="71"/>
+      <c r="N131" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
+      <c r="AB131" s="1"/>
+      <c r="AC131" s="1"/>
+    </row>
+    <row r="132" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="N132" s="4"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
+      <c r="X132" s="1"/>
+      <c r="Y132" s="1"/>
+      <c r="Z132" s="1"/>
+      <c r="AA132" s="1"/>
+      <c r="AB132" s="1"/>
+      <c r="AC132" s="1"/>
+    </row>
+    <row r="133" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
+    </row>
+    <row r="134" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N134" s="1"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134" s="1"/>
+      <c r="AC134" s="1"/>
+    </row>
+    <row r="135" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="71"/>
+      <c r="N135" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="AA135" s="1"/>
+      <c r="AB135" s="1"/>
+      <c r="AC135" s="1"/>
+    </row>
+    <row r="136" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="N136" s="4"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="AA136" s="1"/>
+      <c r="AB136" s="1"/>
+      <c r="AC136" s="1"/>
+    </row>
+    <row r="137" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
+      <c r="AC137" s="1"/>
+    </row>
+    <row r="138" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
+      <c r="AC138" s="1"/>
+    </row>
+    <row r="139" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="71"/>
+      <c r="N139" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="O139" s="98"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="AA139" s="1"/>
+      <c r="AB139" s="1"/>
+      <c r="AC139" s="1"/>
+    </row>
+    <row r="140" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="N140" s="4"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="AA140" s="1"/>
+      <c r="AB140" s="1"/>
+      <c r="AC140" s="1"/>
+    </row>
+    <row r="141" spans="11:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="AA141" s="1"/>
+      <c r="AB141" s="1"/>
+      <c r="AC141" s="1"/>
+    </row>
+    <row r="142" spans="11:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="99"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="AA142" s="1"/>
+      <c r="AB142" s="1"/>
+      <c r="AC142" s="1"/>
+    </row>
+    <row r="143" spans="11:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="100"/>
+      <c r="N143" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="O143" s="5"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="AA143" s="1"/>
+      <c r="AB143" s="1"/>
+      <c r="AC143" s="1"/>
+    </row>
+    <row r="144" spans="11:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
+      <c r="AC144" s="1"/>
+    </row>
+    <row r="145" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="AA145" s="1"/>
+      <c r="AB145" s="1"/>
+      <c r="AC145" s="1"/>
+    </row>
+    <row r="146" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="1"/>
+      <c r="AA146" s="1"/>
+      <c r="AB146" s="1"/>
+      <c r="AC146" s="1"/>
+    </row>
+    <row r="147" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
+      <c r="AA147" s="1"/>
+      <c r="AB147" s="1"/>
+      <c r="AC147" s="1"/>
+    </row>
+    <row r="148" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+      <c r="Y148" s="1"/>
+      <c r="Z148" s="1"/>
+      <c r="AA148" s="1"/>
+      <c r="AB148" s="1"/>
+      <c r="AC148" s="1"/>
+    </row>
+    <row r="149" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
+      <c r="Y149" s="1"/>
+      <c r="Z149" s="1"/>
+      <c r="AA149" s="1"/>
+      <c r="AB149" s="1"/>
+      <c r="AC149" s="1"/>
+    </row>
+    <row r="150" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="AA150" s="1"/>
+      <c r="AB150" s="1"/>
+      <c r="AC150" s="1"/>
+    </row>
+    <row r="151" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="AC151" s="1"/>
+    </row>
+    <row r="152" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="AC152" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
